--- a/EXPORT.XLSX
+++ b/EXPORT.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6602" uniqueCount="3186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6602" uniqueCount="3188">
   <si>
     <t>GNFXB</t>
   </si>
@@ -9022,6 +9022,9 @@
     <t>88473892</t>
   </si>
   <si>
+    <t>PM only arrrives mid Feb., therefore earlier start not possible, but FT set</t>
+  </si>
+  <si>
     <t>0000040582</t>
   </si>
   <si>
@@ -9546,6 +9549,9 @@
   </si>
   <si>
     <t>IXAROLA 10MG TAFI BLI 30 ZA</t>
+  </si>
+  <si>
+    <t>Start mid Feb. earliest possible, due to PM lead time // FT set, please also shorten transport time</t>
   </si>
   <si>
     <t>0000031666</t>
@@ -9783,28 +9789,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3180</v>
+        <v>3182</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3181</v>
+        <v>3183</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3182</v>
+        <v>3184</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3183</v>
+        <v>3185</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3184</v>
+        <v>3186</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3185</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -24042,7 +24048,7 @@
         <v>1957</v>
       </c>
       <c r="H564" s="2">
-        <v>45278</v>
+        <v>45299</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -32039,31 +32045,33 @@
         <v>5</v>
       </c>
       <c r="G882" t="s">
-        <v>2</v>
-      </c>
-      <c r="H882" s="2"/>
+        <v>2974</v>
+      </c>
+      <c r="H882" s="2">
+        <v>45299</v>
+      </c>
     </row>
     <row r="883" spans="1:8">
       <c r="A883" t="s">
         <v>1562</v>
       </c>
       <c r="B883" t="s">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="C883" t="s">
         <v>2926</v>
       </c>
       <c r="D883" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
       <c r="E883" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="F883" t="s">
         <v>13</v>
       </c>
       <c r="G883" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="H883" s="2">
         <v>45204</v>
@@ -32074,16 +32082,16 @@
         <v>1562</v>
       </c>
       <c r="B884" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="C884" t="s">
         <v>2926</v>
       </c>
       <c r="D884" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="E884" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="F884" t="s">
         <v>5</v>
@@ -32098,22 +32106,22 @@
         <v>1562</v>
       </c>
       <c r="B885" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="C885" t="s">
         <v>2926</v>
       </c>
       <c r="D885" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="E885" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="F885" t="s">
         <v>5</v>
       </c>
       <c r="G885" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="H885" s="2">
         <v>45204</v>
@@ -32124,16 +32132,16 @@
         <v>1562</v>
       </c>
       <c r="B886" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
       <c r="C886" t="s">
         <v>2926</v>
       </c>
       <c r="D886" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="E886" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="F886" t="s">
         <v>5</v>
@@ -32148,16 +32156,16 @@
         <v>1344</v>
       </c>
       <c r="B887" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="C887" t="s">
         <v>2926</v>
       </c>
       <c r="D887" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="E887" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="F887" t="s">
         <v>5</v>
@@ -32172,16 +32180,16 @@
         <v>1904</v>
       </c>
       <c r="B888" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="C888" t="s">
         <v>2926</v>
       </c>
       <c r="D888" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="E888" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="F888" t="s">
         <v>18</v>
@@ -32193,25 +32201,25 @@
     </row>
     <row r="889" spans="1:8">
       <c r="A889" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="B889" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="C889" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="D889" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="E889" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="F889" t="s">
         <v>69</v>
       </c>
       <c r="G889" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="H889" s="2">
         <v>45278</v>
@@ -32222,16 +32230,16 @@
         <v>1463</v>
       </c>
       <c r="B890" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="C890" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="D890" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="E890" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="F890" t="s">
         <v>69</v>
@@ -32246,22 +32254,22 @@
         <v>469</v>
       </c>
       <c r="B891" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="C891" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="D891" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="E891" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="F891" t="s">
         <v>5</v>
       </c>
       <c r="G891" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="H891" s="2">
         <v>45296</v>
@@ -32272,22 +32280,22 @@
         <v>469</v>
       </c>
       <c r="B892" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="C892" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="D892" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="E892" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="F892" t="s">
         <v>5</v>
       </c>
       <c r="G892" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="H892" s="2">
         <v>45296</v>
@@ -32298,13 +32306,13 @@
         <v>2613</v>
       </c>
       <c r="B893" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="C893" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="D893" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="E893" t="s">
         <v>1128</v>
@@ -32324,13 +32332,13 @@
         <v>469</v>
       </c>
       <c r="B894" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C894" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D894" t="s">
         <v>3011</v>
-      </c>
-      <c r="C894" t="s">
-        <v>2994</v>
-      </c>
-      <c r="D894" t="s">
-        <v>3010</v>
       </c>
       <c r="E894" t="s">
         <v>1128</v>
@@ -32339,7 +32347,7 @@
         <v>5</v>
       </c>
       <c r="G894" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="H894" s="2">
         <v>45296</v>
@@ -32350,22 +32358,22 @@
         <v>469</v>
       </c>
       <c r="B895" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="C895" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="D895" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="E895" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="F895" t="s">
         <v>5</v>
       </c>
       <c r="G895" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="H895" s="2">
         <v>45296</v>
@@ -32376,16 +32384,16 @@
         <v>2613</v>
       </c>
       <c r="B896" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="C896" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="D896" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="E896" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="F896" t="s">
         <v>5</v>
@@ -32402,16 +32410,16 @@
         <v>469</v>
       </c>
       <c r="B897" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="C897" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="D897" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="E897" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="F897" t="s">
         <v>13</v>
@@ -32428,22 +32436,22 @@
         <v>794</v>
       </c>
       <c r="B898" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="C898" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D898" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="E898" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="F898" t="s">
         <v>13</v>
       </c>
       <c r="G898" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="H898" s="2">
         <v>45295</v>
@@ -32454,22 +32462,22 @@
         <v>794</v>
       </c>
       <c r="B899" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="C899" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D899" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="E899" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="F899" t="s">
         <v>13</v>
       </c>
       <c r="G899" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="H899" s="2">
         <v>45296</v>
@@ -32480,16 +32488,16 @@
         <v>494</v>
       </c>
       <c r="B900" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="C900" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D900" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="E900" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="F900" t="s">
         <v>13</v>
@@ -32504,22 +32512,22 @@
         <v>794</v>
       </c>
       <c r="B901" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="C901" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D901" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="E901" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="F901" t="s">
         <v>5</v>
       </c>
       <c r="G901" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="H901" s="2">
         <v>45295</v>
@@ -32530,22 +32538,22 @@
         <v>794</v>
       </c>
       <c r="B902" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="C902" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D902" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="E902" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="F902" t="s">
         <v>5</v>
       </c>
       <c r="G902" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="H902" s="2">
         <v>45267</v>
@@ -32556,16 +32564,16 @@
         <v>494</v>
       </c>
       <c r="B903" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="C903" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D903" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="E903" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="F903" t="s">
         <v>5</v>
@@ -32580,22 +32588,22 @@
         <v>501</v>
       </c>
       <c r="B904" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="C904" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D904" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="E904" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="F904" t="s">
         <v>5</v>
       </c>
       <c r="G904" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="H904" s="2">
         <v>45246</v>
@@ -32603,19 +32611,19 @@
     </row>
     <row r="905" spans="1:8">
       <c r="A905" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="B905" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="C905" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D905" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="E905" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="F905" t="s">
         <v>5</v>
@@ -32627,19 +32635,19 @@
     </row>
     <row r="906" spans="1:8">
       <c r="A906" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="B906" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="C906" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D906" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="E906" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="F906" t="s">
         <v>877</v>
@@ -32651,25 +32659,25 @@
     </row>
     <row r="907" spans="1:8">
       <c r="A907" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="B907" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="C907" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D907" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="E907" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="F907" t="s">
         <v>877</v>
       </c>
       <c r="G907" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="H907" s="2">
         <v>45265</v>
@@ -32677,19 +32685,19 @@
     </row>
     <row r="908" spans="1:8">
       <c r="A908" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="B908" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="C908" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D908" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="E908" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="F908" t="s">
         <v>877</v>
@@ -32701,19 +32709,19 @@
     </row>
     <row r="909" spans="1:8">
       <c r="A909" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="B909" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="C909" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D909" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="E909" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="F909" t="s">
         <v>877</v>
@@ -32728,16 +32736,16 @@
         <v>126</v>
       </c>
       <c r="B910" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="C910" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D910" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="E910" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="F910" t="s">
         <v>18</v>
@@ -32752,16 +32760,16 @@
         <v>42</v>
       </c>
       <c r="B911" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="C911" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="D911" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="E911" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="F911" t="s">
         <v>5</v>
@@ -32776,13 +32784,13 @@
         <v>469</v>
       </c>
       <c r="B912" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="C912" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="D912" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="E912" t="s">
         <v>2002</v>
@@ -32791,7 +32799,7 @@
         <v>69</v>
       </c>
       <c r="G912" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="H912" s="2">
         <v>45296</v>
@@ -32802,13 +32810,13 @@
         <v>469</v>
       </c>
       <c r="B913" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="C913" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="D913" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="E913" t="s">
         <v>389</v>
@@ -32817,7 +32825,7 @@
         <v>69</v>
       </c>
       <c r="G913" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="H913" s="2">
         <v>45296</v>
@@ -32828,13 +32836,13 @@
         <v>1756</v>
       </c>
       <c r="B914" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="C914" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="D914" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="E914" t="s">
         <v>927</v>
@@ -32852,16 +32860,16 @@
         <v>1904</v>
       </c>
       <c r="B915" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="C915" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="D915" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="E915" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="F915" t="s">
         <v>18</v>
@@ -32876,22 +32884,22 @@
         <v>1756</v>
       </c>
       <c r="B916" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="C916" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="D916" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="E916" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="F916" t="s">
         <v>18</v>
       </c>
       <c r="G916" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="H916" s="2">
         <v>45278</v>
@@ -32902,16 +32910,16 @@
         <v>1562</v>
       </c>
       <c r="B917" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="C917" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="D917" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="E917" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="F917" t="s">
         <v>5</v>
@@ -32926,16 +32934,16 @@
         <v>1562</v>
       </c>
       <c r="B918" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="C918" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="D918" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="E918" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="F918" t="s">
         <v>5</v>
@@ -32950,22 +32958,22 @@
         <v>9</v>
       </c>
       <c r="B919" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="C919" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D919" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="E919" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="F919" t="s">
         <v>5</v>
       </c>
       <c r="G919" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="H919" s="2">
         <v>45239</v>
@@ -32976,16 +32984,16 @@
         <v>9</v>
       </c>
       <c r="B920" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="C920" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D920" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="E920" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="F920" t="s">
         <v>5</v>
@@ -33000,16 +33008,16 @@
         <v>9</v>
       </c>
       <c r="B921" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="C921" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D921" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="E921" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="F921" t="s">
         <v>69</v>
@@ -33024,16 +33032,16 @@
         <v>9</v>
       </c>
       <c r="B922" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="C922" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D922" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="E922" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="F922" t="s">
         <v>5</v>
@@ -33048,16 +33056,16 @@
         <v>9</v>
       </c>
       <c r="B923" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="C923" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D923" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="E923" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="F923" t="s">
         <v>5</v>
@@ -33072,16 +33080,16 @@
         <v>9</v>
       </c>
       <c r="B924" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="C924" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D924" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="E924" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="F924" t="s">
         <v>5</v>
@@ -33096,16 +33104,16 @@
         <v>76</v>
       </c>
       <c r="B925" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="C925" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D925" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="E925" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="F925" t="s">
         <v>5</v>
@@ -33122,22 +33130,22 @@
         <v>932</v>
       </c>
       <c r="B926" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="C926" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D926" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="E926" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="F926" t="s">
         <v>5</v>
       </c>
       <c r="G926" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="H926" s="2">
         <v>45279</v>
@@ -33148,13 +33156,13 @@
         <v>936</v>
       </c>
       <c r="B927" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="C927" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D927" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="E927" t="s">
         <v>935</v>
@@ -33172,22 +33180,22 @@
         <v>932</v>
       </c>
       <c r="B928" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="C928" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D928" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="E928" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="F928" t="s">
         <v>5</v>
       </c>
       <c r="G928" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="H928" s="2">
         <v>45229</v>
@@ -33198,22 +33206,22 @@
         <v>932</v>
       </c>
       <c r="B929" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="C929" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D929" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="E929" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="F929" t="s">
         <v>5</v>
       </c>
       <c r="G929" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="H929" s="2">
         <v>45258</v>
@@ -33224,22 +33232,22 @@
         <v>932</v>
       </c>
       <c r="B930" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="C930" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D930" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="E930" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="F930" t="s">
         <v>5</v>
       </c>
       <c r="G930" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="H930" s="2">
         <v>45239</v>
@@ -33250,22 +33258,22 @@
         <v>932</v>
       </c>
       <c r="B931" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C931" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D931" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E931" t="s">
+        <v>3127</v>
+      </c>
+      <c r="F931" t="s">
+        <v>5</v>
+      </c>
+      <c r="G931" t="s">
         <v>3132</v>
-      </c>
-      <c r="C931" t="s">
-        <v>3096</v>
-      </c>
-      <c r="D931" t="s">
-        <v>3125</v>
-      </c>
-      <c r="E931" t="s">
-        <v>3126</v>
-      </c>
-      <c r="F931" t="s">
-        <v>5</v>
-      </c>
-      <c r="G931" t="s">
-        <v>3131</v>
       </c>
       <c r="H931" s="2">
         <v>45239</v>
@@ -33276,22 +33284,22 @@
         <v>936</v>
       </c>
       <c r="B932" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="C932" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D932" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="E932" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="F932" t="s">
         <v>5</v>
       </c>
       <c r="G932" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="H932" s="2">
         <v>45279</v>
@@ -33302,16 +33310,16 @@
         <v>936</v>
       </c>
       <c r="B933" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="C933" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D933" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="E933" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="F933" t="s">
         <v>5</v>
@@ -33326,22 +33334,22 @@
         <v>936</v>
       </c>
       <c r="B934" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="C934" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D934" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="E934" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="F934" t="s">
         <v>5</v>
       </c>
       <c r="G934" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="H934" s="2">
         <v>45279</v>
@@ -33352,46 +33360,48 @@
         <v>936</v>
       </c>
       <c r="B935" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="C935" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D935" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="E935" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="F935" t="s">
         <v>5</v>
       </c>
       <c r="G935" t="s">
-        <v>2</v>
-      </c>
-      <c r="H935" s="2"/>
+        <v>3148</v>
+      </c>
+      <c r="H935" s="2">
+        <v>45299</v>
+      </c>
     </row>
     <row r="936" spans="1:8">
       <c r="A936" t="s">
         <v>2262</v>
       </c>
       <c r="B936" t="s">
-        <v>3147</v>
+        <v>3149</v>
       </c>
       <c r="C936" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D936" t="s">
-        <v>3148</v>
+        <v>3150</v>
       </c>
       <c r="E936" t="s">
-        <v>3149</v>
+        <v>3151</v>
       </c>
       <c r="F936" t="s">
         <v>69</v>
       </c>
       <c r="G936" t="s">
-        <v>3150</v>
+        <v>3152</v>
       </c>
       <c r="H936" s="2">
         <v>45113</v>
@@ -33402,22 +33412,22 @@
         <v>9</v>
       </c>
       <c r="B937" t="s">
-        <v>3151</v>
+        <v>3153</v>
       </c>
       <c r="C937" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D937" t="s">
-        <v>3152</v>
+        <v>3154</v>
       </c>
       <c r="E937" t="s">
-        <v>3153</v>
+        <v>3155</v>
       </c>
       <c r="F937" t="s">
         <v>69</v>
       </c>
       <c r="G937" t="s">
-        <v>3154</v>
+        <v>3156</v>
       </c>
       <c r="H937" s="2">
         <v>45113</v>
@@ -33428,22 +33438,22 @@
         <v>505</v>
       </c>
       <c r="B938" t="s">
-        <v>3155</v>
+        <v>3157</v>
       </c>
       <c r="C938" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D938" t="s">
-        <v>3156</v>
+        <v>3158</v>
       </c>
       <c r="E938" t="s">
-        <v>3157</v>
+        <v>3159</v>
       </c>
       <c r="F938" t="s">
         <v>5</v>
       </c>
       <c r="G938" t="s">
-        <v>3158</v>
+        <v>3160</v>
       </c>
       <c r="H938" s="2">
         <v>45296</v>
@@ -33454,22 +33464,22 @@
         <v>9</v>
       </c>
       <c r="B939" t="s">
-        <v>3159</v>
+        <v>3161</v>
       </c>
       <c r="C939" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D939" t="s">
-        <v>3160</v>
+        <v>3162</v>
       </c>
       <c r="E939" t="s">
-        <v>3161</v>
+        <v>3163</v>
       </c>
       <c r="F939" t="s">
         <v>5</v>
       </c>
       <c r="G939" t="s">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="H939" s="2">
         <v>45202</v>
@@ -33480,22 +33490,22 @@
         <v>9</v>
       </c>
       <c r="B940" t="s">
-        <v>3163</v>
+        <v>3165</v>
       </c>
       <c r="C940" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D940" t="s">
-        <v>3164</v>
+        <v>3166</v>
       </c>
       <c r="E940" t="s">
-        <v>3165</v>
+        <v>3167</v>
       </c>
       <c r="F940" t="s">
         <v>69</v>
       </c>
       <c r="G940" t="s">
-        <v>3166</v>
+        <v>3168</v>
       </c>
       <c r="H940" s="2">
         <v>45215</v>
@@ -33506,22 +33516,22 @@
         <v>9</v>
       </c>
       <c r="B941" t="s">
-        <v>3167</v>
+        <v>3169</v>
       </c>
       <c r="C941" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D941" t="s">
-        <v>3168</v>
+        <v>3170</v>
       </c>
       <c r="E941" t="s">
-        <v>3169</v>
+        <v>3171</v>
       </c>
       <c r="F941" t="s">
         <v>69</v>
       </c>
       <c r="G941" t="s">
-        <v>3170</v>
+        <v>3172</v>
       </c>
       <c r="H941" s="2">
         <v>45215</v>
@@ -33532,22 +33542,22 @@
         <v>76</v>
       </c>
       <c r="B942" t="s">
-        <v>3171</v>
+        <v>3173</v>
       </c>
       <c r="C942" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D942" t="s">
-        <v>3172</v>
+        <v>3174</v>
       </c>
       <c r="E942" t="s">
-        <v>3173</v>
+        <v>3175</v>
       </c>
       <c r="F942" t="s">
         <v>5</v>
       </c>
       <c r="G942" t="s">
-        <v>3174</v>
+        <v>3176</v>
       </c>
       <c r="H942" s="2">
         <v>45211</v>
@@ -33558,16 +33568,16 @@
         <v>505</v>
       </c>
       <c r="B943" t="s">
-        <v>3175</v>
+        <v>3177</v>
       </c>
       <c r="C943" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D943" t="s">
-        <v>3176</v>
+        <v>3178</v>
       </c>
       <c r="E943" t="s">
-        <v>3177</v>
+        <v>3179</v>
       </c>
       <c r="F943" t="s">
         <v>18</v>

--- a/EXPORT.XLSX
+++ b/EXPORT.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7099" uniqueCount="3313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7106" uniqueCount="3316">
   <si>
     <t>GOPQJ</t>
   </si>
@@ -7706,6 +7706,15 @@
   </si>
   <si>
     <t>ULTRAVIST 370 SOLU BT 1X150ML PL</t>
+  </si>
+  <si>
+    <t>0000043176</t>
+  </si>
+  <si>
+    <t>88651022</t>
+  </si>
+  <si>
+    <t>GADOVIST 1.0 SOLU BT 1X65ML PL</t>
   </si>
   <si>
     <t>0000042563</t>
@@ -10166,7 +10175,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1014"/>
+  <dimension ref="A1:H1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10186,28 +10195,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>3305</v>
+        <v>3308</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3306</v>
+        <v>3309</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3307</v>
+        <v>3310</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3308</v>
+        <v>3311</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3309</v>
+        <v>3312</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3310</v>
+        <v>3313</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3311</v>
+        <v>3314</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3312</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -29514,7 +29523,7 @@
     </row>
     <row r="768" spans="1:8">
       <c r="A768" t="s">
-        <v>783</v>
+        <v>612</v>
       </c>
       <c r="B768" t="s">
         <v>2536</v>
@@ -29526,17 +29535,15 @@
         <v>2537</v>
       </c>
       <c r="E768" t="s">
-        <v>1808</v>
+        <v>2538</v>
       </c>
       <c r="F768" t="s">
         <v>11</v>
       </c>
       <c r="G768" t="s">
-        <v>2538</v>
-      </c>
-      <c r="H768" s="2">
-        <v>45314</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H768" s="2"/>
     </row>
     <row r="769" spans="1:8">
       <c r="A769" t="s">
@@ -29552,7 +29559,7 @@
         <v>2540</v>
       </c>
       <c r="E769" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="F769" t="s">
         <v>11</v>
@@ -29566,7 +29573,7 @@
     </row>
     <row r="770" spans="1:8">
       <c r="A770" t="s">
-        <v>612</v>
+        <v>783</v>
       </c>
       <c r="B770" t="s">
         <v>2542</v>
@@ -29578,16 +29585,16 @@
         <v>2543</v>
       </c>
       <c r="E770" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F770" t="s">
+        <v>11</v>
+      </c>
+      <c r="G770" t="s">
         <v>2544</v>
       </c>
-      <c r="F770" t="s">
-        <v>11</v>
-      </c>
-      <c r="G770" t="s">
-        <v>2545</v>
-      </c>
       <c r="H770" s="2">
-        <v>45309</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -29595,22 +29602,22 @@
         <v>612</v>
       </c>
       <c r="B771" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="C771" t="s">
         <v>2526</v>
       </c>
       <c r="D771" t="s">
+        <v>2546</v>
+      </c>
+      <c r="E771" t="s">
         <v>2547</v>
       </c>
-      <c r="E771" t="s">
+      <c r="F771" t="s">
+        <v>11</v>
+      </c>
+      <c r="G771" t="s">
         <v>2548</v>
-      </c>
-      <c r="F771" t="s">
-        <v>11</v>
-      </c>
-      <c r="G771" t="s">
-        <v>2549</v>
       </c>
       <c r="H771" s="2">
         <v>45309</v>
@@ -29621,22 +29628,22 @@
         <v>612</v>
       </c>
       <c r="B772" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C772" t="s">
         <v>2526</v>
       </c>
       <c r="D772" t="s">
-        <v>2547</v>
+        <v>2550</v>
       </c>
       <c r="E772" t="s">
-        <v>2548</v>
+        <v>2551</v>
       </c>
       <c r="F772" t="s">
         <v>11</v>
       </c>
       <c r="G772" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="H772" s="2">
         <v>45309</v>
@@ -29644,28 +29651,28 @@
     </row>
     <row r="773" spans="1:8">
       <c r="A773" t="s">
-        <v>1426</v>
+        <v>612</v>
       </c>
       <c r="B773" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="C773" t="s">
         <v>2526</v>
       </c>
       <c r="D773" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
       <c r="E773" t="s">
-        <v>311</v>
+        <v>2551</v>
       </c>
       <c r="F773" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G773" t="s">
         <v>2554</v>
       </c>
       <c r="H773" s="2">
-        <v>45282</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -29679,7 +29686,7 @@
         <v>2526</v>
       </c>
       <c r="D774" t="s">
-        <v>2553</v>
+        <v>2556</v>
       </c>
       <c r="E774" t="s">
         <v>311</v>
@@ -29688,7 +29695,7 @@
         <v>17</v>
       </c>
       <c r="G774" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="H774" s="2">
         <v>45282</v>
@@ -29696,106 +29703,106 @@
     </row>
     <row r="775" spans="1:8">
       <c r="A775" t="s">
-        <v>786</v>
+        <v>1426</v>
       </c>
       <c r="B775" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="C775" t="s">
         <v>2526</v>
       </c>
       <c r="D775" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="E775" t="s">
+        <v>311</v>
+      </c>
+      <c r="F775" t="s">
+        <v>17</v>
+      </c>
+      <c r="G775" t="s">
         <v>2559</v>
       </c>
-      <c r="F775" t="s">
-        <v>11</v>
-      </c>
-      <c r="G775" t="s">
-        <v>2560</v>
-      </c>
       <c r="H775" s="2">
-        <v>45238</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="776" spans="1:8">
       <c r="A776" t="s">
-        <v>612</v>
+        <v>786</v>
       </c>
       <c r="B776" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="C776" t="s">
         <v>2526</v>
       </c>
       <c r="D776" t="s">
+        <v>2561</v>
+      </c>
+      <c r="E776" t="s">
         <v>2562</v>
       </c>
-      <c r="E776" t="s">
+      <c r="F776" t="s">
+        <v>11</v>
+      </c>
+      <c r="G776" t="s">
         <v>2563</v>
       </c>
-      <c r="F776" t="s">
-        <v>11</v>
-      </c>
-      <c r="G776" t="s">
-        <v>2564</v>
-      </c>
       <c r="H776" s="2">
-        <v>45203</v>
+        <v>45238</v>
       </c>
     </row>
     <row r="777" spans="1:8">
       <c r="A777" t="s">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="B777" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="C777" t="s">
         <v>2526</v>
       </c>
       <c r="D777" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E777" t="s">
         <v>2566</v>
       </c>
-      <c r="E777" t="s">
+      <c r="F777" t="s">
+        <v>11</v>
+      </c>
+      <c r="G777" t="s">
         <v>2567</v>
       </c>
-      <c r="F777" t="s">
-        <v>5</v>
-      </c>
-      <c r="G777" t="s">
-        <v>2568</v>
-      </c>
       <c r="H777" s="2">
-        <v>45281</v>
+        <v>45203</v>
       </c>
     </row>
     <row r="778" spans="1:8">
       <c r="A778" t="s">
-        <v>786</v>
+        <v>0</v>
       </c>
       <c r="B778" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="C778" t="s">
         <v>2526</v>
       </c>
       <c r="D778" t="s">
+        <v>2569</v>
+      </c>
+      <c r="E778" t="s">
         <v>2570</v>
       </c>
-      <c r="E778" t="s">
+      <c r="F778" t="s">
+        <v>5</v>
+      </c>
+      <c r="G778" t="s">
         <v>2571</v>
       </c>
-      <c r="F778" t="s">
-        <v>11</v>
-      </c>
-      <c r="G778" t="s">
-        <v>2572</v>
-      </c>
       <c r="H778" s="2">
-        <v>45282</v>
+        <v>45281</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -29803,25 +29810,25 @@
         <v>786</v>
       </c>
       <c r="B779" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="C779" t="s">
         <v>2526</v>
       </c>
       <c r="D779" t="s">
+        <v>2573</v>
+      </c>
+      <c r="E779" t="s">
         <v>2574</v>
       </c>
-      <c r="E779" t="s">
+      <c r="F779" t="s">
+        <v>11</v>
+      </c>
+      <c r="G779" t="s">
         <v>2575</v>
       </c>
-      <c r="F779" t="s">
-        <v>11</v>
-      </c>
-      <c r="G779" t="s">
-        <v>2576</v>
-      </c>
       <c r="H779" s="2">
-        <v>45310</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -29829,77 +29836,77 @@
         <v>786</v>
       </c>
       <c r="B780" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="C780" t="s">
         <v>2526</v>
       </c>
       <c r="D780" t="s">
+        <v>2577</v>
+      </c>
+      <c r="E780" t="s">
         <v>2578</v>
       </c>
-      <c r="E780" t="s">
+      <c r="F780" t="s">
+        <v>11</v>
+      </c>
+      <c r="G780" t="s">
         <v>2579</v>
       </c>
-      <c r="F780" t="s">
-        <v>11</v>
-      </c>
-      <c r="G780" t="s">
-        <v>2580</v>
-      </c>
       <c r="H780" s="2">
-        <v>45296</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="781" spans="1:8">
       <c r="A781" t="s">
-        <v>1426</v>
+        <v>786</v>
       </c>
       <c r="B781" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="C781" t="s">
         <v>2526</v>
       </c>
       <c r="D781" t="s">
+        <v>2581</v>
+      </c>
+      <c r="E781" t="s">
         <v>2582</v>
       </c>
-      <c r="E781" t="s">
+      <c r="F781" t="s">
+        <v>11</v>
+      </c>
+      <c r="G781" t="s">
         <v>2583</v>
       </c>
-      <c r="F781" t="s">
-        <v>11</v>
-      </c>
-      <c r="G781" t="s">
-        <v>2584</v>
-      </c>
       <c r="H781" s="2">
-        <v>45317</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="782" spans="1:8">
       <c r="A782" t="s">
-        <v>762</v>
+        <v>1426</v>
       </c>
       <c r="B782" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C782" t="s">
+        <v>2526</v>
+      </c>
+      <c r="D782" t="s">
         <v>2585</v>
       </c>
-      <c r="C782" t="s">
+      <c r="E782" t="s">
         <v>2586</v>
       </c>
-      <c r="D782" t="s">
+      <c r="F782" t="s">
+        <v>11</v>
+      </c>
+      <c r="G782" t="s">
         <v>2587</v>
       </c>
-      <c r="E782" t="s">
-        <v>2588</v>
-      </c>
-      <c r="F782" t="s">
-        <v>11</v>
-      </c>
-      <c r="G782" t="s">
-        <v>2589</v>
-      </c>
       <c r="H782" s="2">
-        <v>45315</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -29907,22 +29914,22 @@
         <v>762</v>
       </c>
       <c r="B783" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C783" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D783" t="s">
         <v>2590</v>
       </c>
-      <c r="C783" t="s">
-        <v>2586</v>
-      </c>
-      <c r="D783" t="s">
+      <c r="E783" t="s">
         <v>2591</v>
       </c>
-      <c r="E783" t="s">
+      <c r="F783" t="s">
+        <v>11</v>
+      </c>
+      <c r="G783" t="s">
         <v>2592</v>
-      </c>
-      <c r="F783" t="s">
-        <v>5</v>
-      </c>
-      <c r="G783" t="s">
-        <v>2593</v>
       </c>
       <c r="H783" s="2">
         <v>45315</v>
@@ -29930,28 +29937,28 @@
     </row>
     <row r="784" spans="1:8">
       <c r="A784" t="s">
-        <v>1558</v>
+        <v>762</v>
       </c>
       <c r="B784" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C784" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D784" t="s">
         <v>2594</v>
       </c>
-      <c r="C784" t="s">
-        <v>2586</v>
-      </c>
-      <c r="D784" t="s">
+      <c r="E784" t="s">
         <v>2595</v>
       </c>
-      <c r="E784" t="s">
+      <c r="F784" t="s">
+        <v>5</v>
+      </c>
+      <c r="G784" t="s">
         <v>2596</v>
       </c>
-      <c r="F784" t="s">
-        <v>11</v>
-      </c>
-      <c r="G784" t="s">
-        <v>2597</v>
-      </c>
       <c r="H784" s="2">
-        <v>45296</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -29959,68 +29966,68 @@
         <v>1558</v>
       </c>
       <c r="B785" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C785" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D785" t="s">
         <v>2598</v>
       </c>
-      <c r="C785" t="s">
-        <v>2586</v>
-      </c>
-      <c r="D785" t="s">
+      <c r="E785" t="s">
         <v>2599</v>
       </c>
-      <c r="E785" t="s">
+      <c r="F785" t="s">
+        <v>11</v>
+      </c>
+      <c r="G785" t="s">
         <v>2600</v>
       </c>
-      <c r="F785" t="s">
-        <v>26</v>
-      </c>
-      <c r="G785" t="s">
-        <v>901</v>
-      </c>
       <c r="H785" s="2">
-        <v>45309</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="786" spans="1:8">
       <c r="A786" t="s">
-        <v>1446</v>
+        <v>1558</v>
       </c>
       <c r="B786" t="s">
         <v>2601</v>
       </c>
       <c r="C786" t="s">
-        <v>2586</v>
+        <v>2589</v>
       </c>
       <c r="D786" t="s">
         <v>2602</v>
       </c>
       <c r="E786" t="s">
-        <v>1239</v>
+        <v>2603</v>
       </c>
       <c r="F786" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G786" t="s">
-        <v>2603</v>
+        <v>901</v>
       </c>
       <c r="H786" s="2">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="787" spans="1:8">
       <c r="A787" t="s">
-        <v>293</v>
+        <v>1446</v>
       </c>
       <c r="B787" t="s">
         <v>2604</v>
       </c>
       <c r="C787" t="s">
-        <v>2586</v>
+        <v>2589</v>
       </c>
       <c r="D787" t="s">
         <v>2605</v>
       </c>
       <c r="E787" t="s">
-        <v>556</v>
+        <v>1239</v>
       </c>
       <c r="F787" t="s">
         <v>11</v>
@@ -30029,7 +30036,7 @@
         <v>2606</v>
       </c>
       <c r="H787" s="2">
-        <v>45301</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -30040,19 +30047,19 @@
         <v>2607</v>
       </c>
       <c r="C788" t="s">
-        <v>2586</v>
+        <v>2589</v>
       </c>
       <c r="D788" t="s">
         <v>2608</v>
       </c>
       <c r="E788" t="s">
-        <v>296</v>
+        <v>556</v>
       </c>
       <c r="F788" t="s">
         <v>11</v>
       </c>
       <c r="G788" t="s">
-        <v>964</v>
+        <v>2609</v>
       </c>
       <c r="H788" s="2">
         <v>45301</v>
@@ -30060,98 +30067,100 @@
     </row>
     <row r="789" spans="1:8">
       <c r="A789" t="s">
-        <v>1446</v>
+        <v>293</v>
       </c>
       <c r="B789" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="C789" t="s">
-        <v>2586</v>
+        <v>2589</v>
       </c>
       <c r="D789" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="E789" t="s">
-        <v>1392</v>
+        <v>296</v>
       </c>
       <c r="F789" t="s">
         <v>11</v>
       </c>
       <c r="G789" t="s">
-        <v>1454</v>
+        <v>964</v>
       </c>
       <c r="H789" s="2">
-        <v>45282</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="790" spans="1:8">
       <c r="A790" t="s">
-        <v>305</v>
+        <v>1446</v>
       </c>
       <c r="B790" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="C790" t="s">
-        <v>2586</v>
+        <v>2589</v>
       </c>
       <c r="D790" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="E790" t="s">
-        <v>2613</v>
+        <v>1392</v>
       </c>
       <c r="F790" t="s">
         <v>11</v>
       </c>
       <c r="G790" t="s">
-        <v>2614</v>
+        <v>1454</v>
       </c>
       <c r="H790" s="2">
-        <v>45308</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="791" spans="1:8">
       <c r="A791" t="s">
-        <v>612</v>
+        <v>305</v>
       </c>
       <c r="B791" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C791" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D791" t="s">
         <v>2615</v>
       </c>
-      <c r="C791" t="s">
+      <c r="E791" t="s">
         <v>2616</v>
       </c>
-      <c r="D791" t="s">
+      <c r="F791" t="s">
+        <v>11</v>
+      </c>
+      <c r="G791" t="s">
         <v>2617</v>
       </c>
-      <c r="E791" t="s">
-        <v>2618</v>
-      </c>
-      <c r="F791" t="s">
-        <v>11</v>
-      </c>
-      <c r="G791" t="s">
-        <v>2</v>
-      </c>
-      <c r="H791" s="2"/>
+      <c r="H791" s="2">
+        <v>45308</v>
+      </c>
     </row>
     <row r="792" spans="1:8">
       <c r="A792" t="s">
-        <v>63</v>
+        <v>612</v>
       </c>
       <c r="B792" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C792" t="s">
         <v>2619</v>
       </c>
-      <c r="C792" t="s">
+      <c r="D792" t="s">
         <v>2620</v>
       </c>
-      <c r="D792" t="s">
+      <c r="E792" t="s">
         <v>2621</v>
       </c>
-      <c r="E792" t="s">
-        <v>2622</v>
-      </c>
       <c r="F792" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G792" t="s">
         <v>2</v>
@@ -30163,10 +30172,10 @@
         <v>63</v>
       </c>
       <c r="B793" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C793" t="s">
         <v>2623</v>
-      </c>
-      <c r="C793" t="s">
-        <v>2620</v>
       </c>
       <c r="D793" t="s">
         <v>2624</v>
@@ -30184,13 +30193,13 @@
     </row>
     <row r="794" spans="1:8">
       <c r="A794" t="s">
-        <v>775</v>
+        <v>63</v>
       </c>
       <c r="B794" t="s">
         <v>2626</v>
       </c>
       <c r="C794" t="s">
-        <v>2620</v>
+        <v>2623</v>
       </c>
       <c r="D794" t="s">
         <v>2627</v>
@@ -30199,7 +30208,7 @@
         <v>2628</v>
       </c>
       <c r="F794" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G794" t="s">
         <v>2</v>
@@ -30208,13 +30217,13 @@
     </row>
     <row r="795" spans="1:8">
       <c r="A795" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="B795" t="s">
         <v>2629</v>
       </c>
       <c r="C795" t="s">
-        <v>2620</v>
+        <v>2623</v>
       </c>
       <c r="D795" t="s">
         <v>2630</v>
@@ -30226,62 +30235,60 @@
         <v>11</v>
       </c>
       <c r="G795" t="s">
-        <v>2632</v>
-      </c>
-      <c r="H795" s="2">
-        <v>45267</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H795" s="2"/>
     </row>
     <row r="796" spans="1:8">
       <c r="A796" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B796" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C796" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D796" t="s">
         <v>2633</v>
       </c>
-      <c r="C796" t="s">
-        <v>2620</v>
-      </c>
-      <c r="D796" t="s">
+      <c r="E796" t="s">
         <v>2634</v>
       </c>
-      <c r="E796" t="s">
+      <c r="F796" t="s">
+        <v>11</v>
+      </c>
+      <c r="G796" t="s">
         <v>2635</v>
       </c>
-      <c r="F796" t="s">
-        <v>11</v>
-      </c>
-      <c r="G796" t="s">
-        <v>2636</v>
-      </c>
       <c r="H796" s="2">
-        <v>45253</v>
+        <v>45267</v>
       </c>
     </row>
     <row r="797" spans="1:8">
       <c r="A797" t="s">
-        <v>1491</v>
+        <v>783</v>
       </c>
       <c r="B797" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C797" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D797" t="s">
         <v>2637</v>
       </c>
-      <c r="C797" t="s">
+      <c r="E797" t="s">
         <v>2638</v>
       </c>
-      <c r="D797" t="s">
+      <c r="F797" t="s">
+        <v>11</v>
+      </c>
+      <c r="G797" t="s">
         <v>2639</v>
       </c>
-      <c r="E797" t="s">
-        <v>2640</v>
-      </c>
-      <c r="F797" t="s">
-        <v>17</v>
-      </c>
-      <c r="G797" t="s">
-        <v>2641</v>
-      </c>
       <c r="H797" s="2">
-        <v>45315</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -30289,24 +30296,26 @@
         <v>1491</v>
       </c>
       <c r="B798" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C798" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D798" t="s">
         <v>2642</v>
       </c>
-      <c r="C798" t="s">
-        <v>2638</v>
-      </c>
-      <c r="D798" t="s">
+      <c r="E798" t="s">
         <v>2643</v>
       </c>
-      <c r="E798" t="s">
+      <c r="F798" t="s">
+        <v>17</v>
+      </c>
+      <c r="G798" t="s">
         <v>2644</v>
       </c>
-      <c r="F798" t="s">
-        <v>5</v>
-      </c>
-      <c r="G798" t="s">
-        <v>2</v>
-      </c>
-      <c r="H798" s="2"/>
+      <c r="H798" s="2">
+        <v>45315</v>
+      </c>
     </row>
     <row r="799" spans="1:8">
       <c r="A799" t="s">
@@ -30316,7 +30325,7 @@
         <v>2645</v>
       </c>
       <c r="C799" t="s">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="D799" t="s">
         <v>2646</v>
@@ -30325,140 +30334,138 @@
         <v>2647</v>
       </c>
       <c r="F799" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G799" t="s">
-        <v>2648</v>
-      </c>
-      <c r="H799" s="2">
-        <v>45315</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H799" s="2"/>
     </row>
     <row r="800" spans="1:8">
       <c r="A800" t="s">
-        <v>571</v>
+        <v>1491</v>
       </c>
       <c r="B800" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C800" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D800" t="s">
         <v>2649</v>
       </c>
-      <c r="C800" t="s">
-        <v>2638</v>
-      </c>
-      <c r="D800" t="s">
+      <c r="E800" t="s">
         <v>2650</v>
       </c>
-      <c r="E800" t="s">
+      <c r="F800" t="s">
+        <v>17</v>
+      </c>
+      <c r="G800" t="s">
         <v>2651</v>
       </c>
-      <c r="F800" t="s">
-        <v>11</v>
-      </c>
-      <c r="G800" t="s">
-        <v>2652</v>
-      </c>
       <c r="H800" s="2">
-        <v>45247</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="801" spans="1:8">
       <c r="A801" t="s">
+        <v>571</v>
+      </c>
+      <c r="B801" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C801" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D801" t="s">
         <v>2653</v>
       </c>
-      <c r="B801" t="s">
+      <c r="E801" t="s">
         <v>2654</v>
       </c>
-      <c r="C801" t="s">
-        <v>2638</v>
-      </c>
-      <c r="D801" t="s">
+      <c r="F801" t="s">
+        <v>11</v>
+      </c>
+      <c r="G801" t="s">
         <v>2655</v>
       </c>
-      <c r="E801" t="s">
-        <v>2656</v>
-      </c>
-      <c r="F801" t="s">
-        <v>5</v>
-      </c>
-      <c r="G801" t="s">
-        <v>2657</v>
-      </c>
       <c r="H801" s="2">
-        <v>45316</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="802" spans="1:8">
       <c r="A802" t="s">
-        <v>2653</v>
+        <v>2656</v>
       </c>
       <c r="B802" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C802" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D802" t="s">
         <v>2658</v>
       </c>
-      <c r="C802" t="s">
-        <v>2638</v>
-      </c>
-      <c r="D802" t="s">
+      <c r="E802" t="s">
         <v>2659</v>
       </c>
-      <c r="E802" t="s">
+      <c r="F802" t="s">
+        <v>5</v>
+      </c>
+      <c r="G802" t="s">
         <v>2660</v>
       </c>
-      <c r="F802" t="s">
-        <v>26</v>
-      </c>
-      <c r="G802" t="s">
-        <v>2661</v>
-      </c>
       <c r="H802" s="2">
-        <v>45315</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="803" spans="1:8">
       <c r="A803" t="s">
-        <v>443</v>
+        <v>2656</v>
       </c>
       <c r="B803" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C803" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D803" t="s">
         <v>2662</v>
       </c>
-      <c r="C803" t="s">
-        <v>2638</v>
-      </c>
-      <c r="D803" t="s">
+      <c r="E803" t="s">
         <v>2663</v>
       </c>
-      <c r="E803" t="s">
-        <v>1499</v>
-      </c>
       <c r="F803" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G803" t="s">
         <v>2664</v>
       </c>
       <c r="H803" s="2">
-        <v>45316</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="804" spans="1:8">
       <c r="A804" t="s">
+        <v>443</v>
+      </c>
+      <c r="B804" t="s">
         <v>2665</v>
       </c>
-      <c r="B804" t="s">
+      <c r="C804" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D804" t="s">
         <v>2666</v>
       </c>
-      <c r="C804" t="s">
-        <v>2638</v>
-      </c>
-      <c r="D804" t="s">
+      <c r="E804" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F804" t="s">
+        <v>5</v>
+      </c>
+      <c r="G804" t="s">
         <v>2667</v>
-      </c>
-      <c r="E804" t="s">
-        <v>596</v>
-      </c>
-      <c r="F804" t="s">
-        <v>11</v>
-      </c>
-      <c r="G804" t="s">
-        <v>2</v>
       </c>
       <c r="H804" s="2">
         <v>45316</v>
@@ -30466,19 +30473,19 @@
     </row>
     <row r="805" spans="1:8">
       <c r="A805" t="s">
-        <v>2665</v>
+        <v>2668</v>
       </c>
       <c r="B805" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="C805" t="s">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="D805" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="E805" t="s">
-        <v>84</v>
+        <v>596</v>
       </c>
       <c r="F805" t="s">
         <v>11</v>
@@ -30492,16 +30499,16 @@
     </row>
     <row r="806" spans="1:8">
       <c r="A806" t="s">
-        <v>443</v>
+        <v>2668</v>
       </c>
       <c r="B806" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="C806" t="s">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="D806" t="s">
-        <v>2669</v>
+        <v>2672</v>
       </c>
       <c r="E806" t="s">
         <v>84</v>
@@ -30510,7 +30517,7 @@
         <v>11</v>
       </c>
       <c r="G806" t="s">
-        <v>2671</v>
+        <v>2</v>
       </c>
       <c r="H806" s="2">
         <v>45316</v>
@@ -30518,25 +30525,25 @@
     </row>
     <row r="807" spans="1:8">
       <c r="A807" t="s">
-        <v>2665</v>
+        <v>443</v>
       </c>
       <c r="B807" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C807" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D807" t="s">
         <v>2672</v>
       </c>
-      <c r="C807" t="s">
-        <v>2638</v>
-      </c>
-      <c r="D807" t="s">
-        <v>2673</v>
-      </c>
       <c r="E807" t="s">
-        <v>275</v>
+        <v>84</v>
       </c>
       <c r="F807" t="s">
         <v>11</v>
       </c>
       <c r="G807" t="s">
-        <v>2</v>
+        <v>2674</v>
       </c>
       <c r="H807" s="2">
         <v>45316</v>
@@ -30544,22 +30551,22 @@
     </row>
     <row r="808" spans="1:8">
       <c r="A808" t="s">
-        <v>2665</v>
+        <v>2668</v>
       </c>
       <c r="B808" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="C808" t="s">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="D808" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="E808" t="s">
-        <v>2676</v>
+        <v>275</v>
       </c>
       <c r="F808" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G808" t="s">
         <v>2</v>
@@ -30570,22 +30577,22 @@
     </row>
     <row r="809" spans="1:8">
       <c r="A809" t="s">
-        <v>443</v>
+        <v>2668</v>
       </c>
       <c r="B809" t="s">
         <v>2677</v>
       </c>
       <c r="C809" t="s">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="D809" t="s">
-        <v>2675</v>
+        <v>2678</v>
       </c>
       <c r="E809" t="s">
-        <v>2676</v>
+        <v>2679</v>
       </c>
       <c r="F809" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G809" t="s">
         <v>2</v>
@@ -30599,16 +30606,16 @@
         <v>443</v>
       </c>
       <c r="B810" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C810" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D810" t="s">
         <v>2678</v>
       </c>
-      <c r="C810" t="s">
-        <v>2638</v>
-      </c>
-      <c r="D810" t="s">
-        <v>2675</v>
-      </c>
       <c r="E810" t="s">
-        <v>2676</v>
+        <v>2679</v>
       </c>
       <c r="F810" t="s">
         <v>11</v>
@@ -30625,19 +30632,19 @@
         <v>443</v>
       </c>
       <c r="B811" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C811" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D811" t="s">
+        <v>2678</v>
+      </c>
+      <c r="E811" t="s">
         <v>2679</v>
       </c>
-      <c r="C811" t="s">
-        <v>2638</v>
-      </c>
-      <c r="D811" t="s">
-        <v>2680</v>
-      </c>
-      <c r="E811" t="s">
-        <v>2681</v>
-      </c>
       <c r="F811" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G811" t="s">
         <v>2</v>
@@ -30654,19 +30661,19 @@
         <v>2682</v>
       </c>
       <c r="C812" t="s">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="D812" t="s">
-        <v>2680</v>
+        <v>2683</v>
       </c>
       <c r="E812" t="s">
-        <v>2681</v>
+        <v>2684</v>
       </c>
       <c r="F812" t="s">
         <v>5</v>
       </c>
       <c r="G812" t="s">
-        <v>2683</v>
+        <v>2</v>
       </c>
       <c r="H812" s="2">
         <v>45316</v>
@@ -30677,22 +30684,22 @@
         <v>443</v>
       </c>
       <c r="B813" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C813" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D813" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E813" t="s">
         <v>2684</v>
-      </c>
-      <c r="C813" t="s">
-        <v>2638</v>
-      </c>
-      <c r="D813" t="s">
-        <v>2680</v>
-      </c>
-      <c r="E813" t="s">
-        <v>2681</v>
       </c>
       <c r="F813" t="s">
         <v>5</v>
       </c>
       <c r="G813" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="H813" s="2">
         <v>45316</v>
@@ -30703,22 +30710,22 @@
         <v>443</v>
       </c>
       <c r="B814" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="C814" t="s">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="D814" t="s">
-        <v>2687</v>
+        <v>2683</v>
       </c>
       <c r="E814" t="s">
+        <v>2684</v>
+      </c>
+      <c r="F814" t="s">
+        <v>5</v>
+      </c>
+      <c r="G814" t="s">
         <v>2688</v>
-      </c>
-      <c r="F814" t="s">
-        <v>11</v>
-      </c>
-      <c r="G814" t="s">
-        <v>2689</v>
       </c>
       <c r="H814" s="2">
         <v>45316</v>
@@ -30729,22 +30736,22 @@
         <v>443</v>
       </c>
       <c r="B815" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C815" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D815" t="s">
         <v>2690</v>
       </c>
-      <c r="C815" t="s">
-        <v>2638</v>
-      </c>
-      <c r="D815" t="s">
+      <c r="E815" t="s">
         <v>2691</v>
       </c>
-      <c r="E815" t="s">
+      <c r="F815" t="s">
+        <v>11</v>
+      </c>
+      <c r="G815" t="s">
         <v>2692</v>
-      </c>
-      <c r="F815" t="s">
-        <v>11</v>
-      </c>
-      <c r="G815" t="s">
-        <v>2693</v>
       </c>
       <c r="H815" s="2">
         <v>45316</v>
@@ -30752,37 +30759,39 @@
     </row>
     <row r="816" spans="1:8">
       <c r="A816" t="s">
-        <v>231</v>
+        <v>443</v>
       </c>
       <c r="B816" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C816" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D816" t="s">
         <v>2694</v>
       </c>
-      <c r="C816" t="s">
+      <c r="E816" t="s">
         <v>2695</v>
       </c>
-      <c r="D816" t="s">
+      <c r="F816" t="s">
+        <v>11</v>
+      </c>
+      <c r="G816" t="s">
         <v>2696</v>
       </c>
-      <c r="E816" t="s">
-        <v>2697</v>
-      </c>
-      <c r="F816" t="s">
-        <v>11</v>
-      </c>
-      <c r="G816" t="s">
-        <v>2</v>
-      </c>
-      <c r="H816" s="2"/>
+      <c r="H816" s="2">
+        <v>45316</v>
+      </c>
     </row>
     <row r="817" spans="1:8">
       <c r="A817" t="s">
         <v>231</v>
       </c>
       <c r="B817" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C817" t="s">
         <v>2698</v>
-      </c>
-      <c r="C817" t="s">
-        <v>2695</v>
       </c>
       <c r="D817" t="s">
         <v>2699</v>
@@ -30794,11 +30803,9 @@
         <v>11</v>
       </c>
       <c r="G817" t="s">
-        <v>198</v>
-      </c>
-      <c r="H817" s="2">
-        <v>45315</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H817" s="2"/>
     </row>
     <row r="818" spans="1:8">
       <c r="A818" t="s">
@@ -30808,7 +30815,7 @@
         <v>2701</v>
       </c>
       <c r="C818" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="D818" t="s">
         <v>2702</v>
@@ -30820,36 +30827,36 @@
         <v>11</v>
       </c>
       <c r="G818" t="s">
-        <v>2704</v>
+        <v>198</v>
       </c>
       <c r="H818" s="2">
-        <v>45310</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="819" spans="1:8">
       <c r="A819" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="B819" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C819" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D819" t="s">
         <v>2705</v>
       </c>
-      <c r="C819" t="s">
-        <v>2695</v>
-      </c>
-      <c r="D819" t="s">
-        <v>1293</v>
-      </c>
       <c r="E819" t="s">
-        <v>1294</v>
+        <v>2706</v>
       </c>
       <c r="F819" t="s">
         <v>11</v>
       </c>
       <c r="G819" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="H819" s="2">
-        <v>45307</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -30857,25 +30864,25 @@
         <v>81</v>
       </c>
       <c r="B820" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="C820" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="D820" t="s">
-        <v>2708</v>
+        <v>1293</v>
       </c>
       <c r="E820" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F820" t="s">
+        <v>11</v>
+      </c>
+      <c r="G820" t="s">
         <v>2709</v>
       </c>
-      <c r="F820" t="s">
-        <v>11</v>
-      </c>
-      <c r="G820" t="s">
-        <v>2710</v>
-      </c>
       <c r="H820" s="2">
-        <v>45314</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -30883,25 +30890,25 @@
         <v>81</v>
       </c>
       <c r="B821" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C821" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D821" t="s">
         <v>2711</v>
       </c>
-      <c r="C821" t="s">
-        <v>2695</v>
-      </c>
-      <c r="D821" t="s">
+      <c r="E821" t="s">
         <v>2712</v>
       </c>
-      <c r="E821" t="s">
+      <c r="F821" t="s">
+        <v>11</v>
+      </c>
+      <c r="G821" t="s">
         <v>2713</v>
       </c>
-      <c r="F821" t="s">
-        <v>26</v>
-      </c>
-      <c r="G821" t="s">
-        <v>2714</v>
-      </c>
       <c r="H821" s="2">
-        <v>45315</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -30909,25 +30916,25 @@
         <v>81</v>
       </c>
       <c r="B822" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C822" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D822" t="s">
         <v>2715</v>
       </c>
-      <c r="C822" t="s">
-        <v>2695</v>
-      </c>
-      <c r="D822" t="s">
+      <c r="E822" t="s">
         <v>2716</v>
       </c>
-      <c r="E822" t="s">
-        <v>596</v>
-      </c>
       <c r="F822" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G822" t="s">
-        <v>682</v>
+        <v>2717</v>
       </c>
       <c r="H822" s="2">
-        <v>45278</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -30935,13 +30942,13 @@
         <v>81</v>
       </c>
       <c r="B823" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="C823" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="D823" t="s">
-        <v>1113</v>
+        <v>2719</v>
       </c>
       <c r="E823" t="s">
         <v>596</v>
@@ -30950,60 +30957,60 @@
         <v>11</v>
       </c>
       <c r="G823" t="s">
-        <v>2</v>
-      </c>
-      <c r="H823" s="2"/>
+        <v>682</v>
+      </c>
+      <c r="H823" s="2">
+        <v>45278</v>
+      </c>
     </row>
     <row r="824" spans="1:8">
       <c r="A824" t="s">
-        <v>838</v>
+        <v>81</v>
       </c>
       <c r="B824" t="s">
-        <v>2718</v>
+        <v>2720</v>
       </c>
       <c r="C824" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="D824" t="s">
-        <v>2719</v>
+        <v>1113</v>
       </c>
       <c r="E824" t="s">
-        <v>556</v>
+        <v>596</v>
       </c>
       <c r="F824" t="s">
         <v>11</v>
       </c>
       <c r="G824" t="s">
-        <v>2720</v>
-      </c>
-      <c r="H824" s="2">
-        <v>45308</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H824" s="2"/>
     </row>
     <row r="825" spans="1:8">
       <c r="A825" t="s">
-        <v>81</v>
+        <v>838</v>
       </c>
       <c r="B825" t="s">
         <v>2721</v>
       </c>
       <c r="C825" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="D825" t="s">
-        <v>1122</v>
+        <v>2722</v>
       </c>
       <c r="E825" t="s">
-        <v>1123</v>
+        <v>556</v>
       </c>
       <c r="F825" t="s">
         <v>11</v>
       </c>
       <c r="G825" t="s">
-        <v>1124</v>
+        <v>2723</v>
       </c>
       <c r="H825" s="2">
-        <v>45314</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -31011,25 +31018,25 @@
         <v>81</v>
       </c>
       <c r="B826" t="s">
-        <v>2722</v>
+        <v>2724</v>
       </c>
       <c r="C826" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="D826" t="s">
-        <v>2723</v>
+        <v>1122</v>
       </c>
       <c r="E826" t="s">
-        <v>311</v>
+        <v>1123</v>
       </c>
       <c r="F826" t="s">
         <v>11</v>
       </c>
       <c r="G826" t="s">
-        <v>2724</v>
+        <v>1124</v>
       </c>
       <c r="H826" s="2">
-        <v>45271</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -31040,22 +31047,22 @@
         <v>2725</v>
       </c>
       <c r="C827" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="D827" t="s">
         <v>2726</v>
       </c>
       <c r="E827" t="s">
-        <v>1392</v>
+        <v>311</v>
       </c>
       <c r="F827" t="s">
         <v>11</v>
       </c>
       <c r="G827" t="s">
-        <v>1454</v>
+        <v>2727</v>
       </c>
       <c r="H827" s="2">
-        <v>45282</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -31063,13 +31070,13 @@
         <v>81</v>
       </c>
       <c r="B828" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="C828" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="D828" t="s">
-        <v>2726</v>
+        <v>2729</v>
       </c>
       <c r="E828" t="s">
         <v>1392</v>
@@ -31089,25 +31096,25 @@
         <v>81</v>
       </c>
       <c r="B829" t="s">
-        <v>2728</v>
+        <v>2730</v>
       </c>
       <c r="C829" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="D829" t="s">
         <v>2729</v>
       </c>
       <c r="E829" t="s">
-        <v>2730</v>
+        <v>1392</v>
       </c>
       <c r="F829" t="s">
         <v>11</v>
       </c>
       <c r="G829" t="s">
-        <v>2731</v>
+        <v>1454</v>
       </c>
       <c r="H829" s="2">
-        <v>45295</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -31115,60 +31122,62 @@
         <v>81</v>
       </c>
       <c r="B830" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C830" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D830" t="s">
         <v>2732</v>
       </c>
-      <c r="C830" t="s">
-        <v>2695</v>
-      </c>
-      <c r="D830" t="s">
-        <v>2729</v>
-      </c>
       <c r="E830" t="s">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="F830" t="s">
         <v>11</v>
       </c>
       <c r="G830" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="H830" s="2">
-        <v>45314</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="831" spans="1:8">
       <c r="A831" t="s">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="B831" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="C831" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="D831" t="s">
-        <v>1126</v>
+        <v>2732</v>
       </c>
       <c r="E831" t="s">
-        <v>1127</v>
+        <v>2733</v>
       </c>
       <c r="F831" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G831" t="s">
-        <v>2</v>
-      </c>
-      <c r="H831" s="2"/>
+        <v>2736</v>
+      </c>
+      <c r="H831" s="2">
+        <v>45314</v>
+      </c>
     </row>
     <row r="832" spans="1:8">
       <c r="A832" t="s">
         <v>231</v>
       </c>
       <c r="B832" t="s">
-        <v>2735</v>
+        <v>2737</v>
       </c>
       <c r="C832" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="D832" t="s">
         <v>1126</v>
@@ -31189,19 +31198,19 @@
         <v>231</v>
       </c>
       <c r="B833" t="s">
-        <v>2736</v>
+        <v>2738</v>
       </c>
       <c r="C833" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="D833" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="E833" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="F833" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G833" t="s">
         <v>2</v>
@@ -31213,10 +31222,10 @@
         <v>231</v>
       </c>
       <c r="B834" t="s">
-        <v>2737</v>
+        <v>2739</v>
       </c>
       <c r="C834" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="D834" t="s">
         <v>1129</v>
@@ -31225,7 +31234,7 @@
         <v>1130</v>
       </c>
       <c r="F834" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G834" t="s">
         <v>2</v>
@@ -31234,22 +31243,22 @@
     </row>
     <row r="835" spans="1:8">
       <c r="A835" t="s">
-        <v>562</v>
+        <v>231</v>
       </c>
       <c r="B835" t="s">
-        <v>2738</v>
+        <v>2740</v>
       </c>
       <c r="C835" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="D835" t="s">
-        <v>2739</v>
+        <v>1129</v>
       </c>
       <c r="E835" t="s">
-        <v>2740</v>
+        <v>1130</v>
       </c>
       <c r="F835" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G835" t="s">
         <v>2</v>
@@ -31264,92 +31273,92 @@
         <v>2741</v>
       </c>
       <c r="C836" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="D836" t="s">
-        <v>2739</v>
+        <v>2742</v>
       </c>
       <c r="E836" t="s">
-        <v>2740</v>
+        <v>2743</v>
       </c>
       <c r="F836" t="s">
         <v>11</v>
       </c>
       <c r="G836" t="s">
-        <v>2742</v>
-      </c>
-      <c r="H836" s="2">
-        <v>45282</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H836" s="2"/>
     </row>
     <row r="837" spans="1:8">
       <c r="A837" t="s">
         <v>562</v>
       </c>
       <c r="B837" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C837" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D837" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E837" t="s">
         <v>2743</v>
       </c>
-      <c r="C837" t="s">
-        <v>2695</v>
-      </c>
-      <c r="D837" t="s">
-        <v>2744</v>
-      </c>
-      <c r="E837" t="s">
+      <c r="F837" t="s">
+        <v>11</v>
+      </c>
+      <c r="G837" t="s">
         <v>2745</v>
       </c>
-      <c r="F837" t="s">
-        <v>11</v>
-      </c>
-      <c r="G837" t="s">
-        <v>2746</v>
-      </c>
       <c r="H837" s="2">
-        <v>45317</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="838" spans="1:8">
       <c r="A838" t="s">
-        <v>1585</v>
+        <v>562</v>
       </c>
       <c r="B838" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C838" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D838" t="s">
         <v>2747</v>
       </c>
-      <c r="C838" t="s">
+      <c r="E838" t="s">
         <v>2748</v>
       </c>
-      <c r="D838" t="s">
+      <c r="F838" t="s">
+        <v>11</v>
+      </c>
+      <c r="G838" t="s">
         <v>2749</v>
       </c>
-      <c r="E838" t="s">
-        <v>2750</v>
-      </c>
-      <c r="F838" t="s">
-        <v>11</v>
-      </c>
-      <c r="G838" t="s">
-        <v>2</v>
-      </c>
-      <c r="H838" s="2"/>
+      <c r="H838" s="2">
+        <v>45317</v>
+      </c>
     </row>
     <row r="839" spans="1:8">
       <c r="A839" t="s">
         <v>1585</v>
       </c>
       <c r="B839" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C839" t="s">
         <v>2751</v>
       </c>
-      <c r="C839" t="s">
-        <v>2748</v>
-      </c>
       <c r="D839" t="s">
-        <v>2749</v>
+        <v>2752</v>
       </c>
       <c r="E839" t="s">
-        <v>2750</v>
+        <v>2753</v>
       </c>
       <c r="F839" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G839" t="s">
         <v>2</v>
@@ -31361,19 +31370,19 @@
         <v>1585</v>
       </c>
       <c r="B840" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C840" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D840" t="s">
         <v>2752</v>
       </c>
-      <c r="C840" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D840" t="s">
+      <c r="E840" t="s">
         <v>2753</v>
       </c>
-      <c r="E840" t="s">
-        <v>2754</v>
-      </c>
       <c r="F840" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G840" t="s">
         <v>2</v>
@@ -31388,16 +31397,16 @@
         <v>2755</v>
       </c>
       <c r="C841" t="s">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="D841" t="s">
-        <v>2753</v>
+        <v>2756</v>
       </c>
       <c r="E841" t="s">
-        <v>2754</v>
+        <v>2757</v>
       </c>
       <c r="F841" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G841" t="s">
         <v>2</v>
@@ -31409,19 +31418,19 @@
         <v>1585</v>
       </c>
       <c r="B842" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C842" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D842" t="s">
         <v>2756</v>
       </c>
-      <c r="C842" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D842" t="s">
+      <c r="E842" t="s">
         <v>2757</v>
       </c>
-      <c r="E842" t="s">
-        <v>2758</v>
-      </c>
       <c r="F842" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G842" t="s">
         <v>2</v>
@@ -31436,16 +31445,16 @@
         <v>2759</v>
       </c>
       <c r="C843" t="s">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="D843" t="s">
-        <v>2757</v>
+        <v>2760</v>
       </c>
       <c r="E843" t="s">
-        <v>2758</v>
+        <v>2761</v>
       </c>
       <c r="F843" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G843" t="s">
         <v>2</v>
@@ -31457,19 +31466,19 @@
         <v>1585</v>
       </c>
       <c r="B844" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C844" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D844" t="s">
         <v>2760</v>
       </c>
-      <c r="C844" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D844" t="s">
+      <c r="E844" t="s">
         <v>2761</v>
       </c>
-      <c r="E844" t="s">
-        <v>2762</v>
-      </c>
       <c r="F844" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G844" t="s">
         <v>2</v>
@@ -31478,13 +31487,13 @@
     </row>
     <row r="845" spans="1:8">
       <c r="A845" t="s">
-        <v>471</v>
+        <v>1585</v>
       </c>
       <c r="B845" t="s">
         <v>2763</v>
       </c>
       <c r="C845" t="s">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="D845" t="s">
         <v>2764</v>
@@ -31493,64 +31502,64 @@
         <v>2765</v>
       </c>
       <c r="F845" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G845" t="s">
-        <v>2766</v>
-      </c>
-      <c r="H845" s="2">
-        <v>45310</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H845" s="2"/>
     </row>
     <row r="846" spans="1:8">
       <c r="A846" t="s">
-        <v>1979</v>
+        <v>471</v>
       </c>
       <c r="B846" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C846" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D846" t="s">
         <v>2767</v>
       </c>
-      <c r="C846" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D846" t="s">
+      <c r="E846" t="s">
         <v>2768</v>
-      </c>
-      <c r="E846" t="s">
-        <v>2769</v>
       </c>
       <c r="F846" t="s">
         <v>17</v>
       </c>
       <c r="G846" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="H846" s="2">
-        <v>45272</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="847" spans="1:8">
       <c r="A847" t="s">
-        <v>1585</v>
+        <v>1979</v>
       </c>
       <c r="B847" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C847" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D847" t="s">
         <v>2771</v>
       </c>
-      <c r="C847" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D847" t="s">
+      <c r="E847" t="s">
         <v>2772</v>
       </c>
-      <c r="E847" t="s">
+      <c r="F847" t="s">
+        <v>17</v>
+      </c>
+      <c r="G847" t="s">
         <v>2773</v>
       </c>
-      <c r="F847" t="s">
-        <v>11</v>
-      </c>
-      <c r="G847" t="s">
-        <v>2</v>
-      </c>
-      <c r="H847" s="2"/>
+      <c r="H847" s="2">
+        <v>45272</v>
+      </c>
     </row>
     <row r="848" spans="1:8">
       <c r="A848" t="s">
@@ -31560,7 +31569,7 @@
         <v>2774</v>
       </c>
       <c r="C848" t="s">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="D848" t="s">
         <v>2775</v>
@@ -31578,19 +31587,19 @@
     </row>
     <row r="849" spans="1:8">
       <c r="A849" t="s">
-        <v>2237</v>
+        <v>1585</v>
       </c>
       <c r="B849" t="s">
         <v>2777</v>
       </c>
       <c r="C849" t="s">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="D849" t="s">
         <v>2778</v>
       </c>
       <c r="E849" t="s">
-        <v>596</v>
+        <v>2779</v>
       </c>
       <c r="F849" t="s">
         <v>11</v>
@@ -31602,105 +31611,105 @@
     </row>
     <row r="850" spans="1:8">
       <c r="A850" t="s">
-        <v>1585</v>
+        <v>2237</v>
       </c>
       <c r="B850" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="C850" t="s">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="D850" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="E850" t="s">
-        <v>2781</v>
+        <v>596</v>
       </c>
       <c r="F850" t="s">
         <v>11</v>
       </c>
       <c r="G850" t="s">
-        <v>2782</v>
-      </c>
-      <c r="H850" s="2">
-        <v>45299</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H850" s="2"/>
     </row>
     <row r="851" spans="1:8">
       <c r="A851" t="s">
         <v>1585</v>
       </c>
       <c r="B851" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C851" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D851" t="s">
         <v>2783</v>
       </c>
-      <c r="C851" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D851" t="s">
-        <v>2780</v>
-      </c>
       <c r="E851" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="F851" t="s">
         <v>11</v>
       </c>
       <c r="G851" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="H851" s="2">
-        <v>45216</v>
+        <v>45299</v>
       </c>
     </row>
     <row r="852" spans="1:8">
       <c r="A852" t="s">
-        <v>2785</v>
+        <v>1585</v>
       </c>
       <c r="B852" t="s">
         <v>2786</v>
       </c>
       <c r="C852" t="s">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="D852" t="s">
+        <v>2783</v>
+      </c>
+      <c r="E852" t="s">
+        <v>2784</v>
+      </c>
+      <c r="F852" t="s">
+        <v>11</v>
+      </c>
+      <c r="G852" t="s">
         <v>2787</v>
       </c>
-      <c r="E852" t="s">
-        <v>2788</v>
-      </c>
-      <c r="F852" t="s">
-        <v>5</v>
-      </c>
-      <c r="G852" t="s">
-        <v>2789</v>
-      </c>
       <c r="H852" s="2">
-        <v>45267</v>
+        <v>45216</v>
       </c>
     </row>
     <row r="853" spans="1:8">
       <c r="A853" t="s">
-        <v>1585</v>
+        <v>2788</v>
       </c>
       <c r="B853" t="s">
+        <v>2789</v>
+      </c>
+      <c r="C853" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D853" t="s">
         <v>2790</v>
       </c>
-      <c r="C853" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D853" t="s">
+      <c r="E853" t="s">
         <v>2791</v>
       </c>
-      <c r="E853" t="s">
+      <c r="F853" t="s">
+        <v>5</v>
+      </c>
+      <c r="G853" t="s">
         <v>2792</v>
       </c>
-      <c r="F853" t="s">
-        <v>11</v>
-      </c>
-      <c r="G853" t="s">
-        <v>2</v>
-      </c>
-      <c r="H853" s="2"/>
+      <c r="H853" s="2">
+        <v>45267</v>
+      </c>
     </row>
     <row r="854" spans="1:8">
       <c r="A854" t="s">
@@ -31710,7 +31719,7 @@
         <v>2793</v>
       </c>
       <c r="C854" t="s">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="D854" t="s">
         <v>2794</v>
@@ -31719,7 +31728,7 @@
         <v>2795</v>
       </c>
       <c r="F854" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G854" t="s">
         <v>2</v>
@@ -31728,22 +31737,22 @@
     </row>
     <row r="855" spans="1:8">
       <c r="A855" t="s">
-        <v>790</v>
+        <v>1585</v>
       </c>
       <c r="B855" t="s">
         <v>2796</v>
       </c>
       <c r="C855" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D855" t="s">
         <v>2797</v>
       </c>
-      <c r="D855" t="s">
+      <c r="E855" t="s">
         <v>2798</v>
       </c>
-      <c r="E855" t="s">
-        <v>2799</v>
-      </c>
       <c r="F855" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G855" t="s">
         <v>2</v>
@@ -31752,13 +31761,13 @@
     </row>
     <row r="856" spans="1:8">
       <c r="A856" t="s">
-        <v>1855</v>
+        <v>790</v>
       </c>
       <c r="B856" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C856" t="s">
         <v>2800</v>
-      </c>
-      <c r="C856" t="s">
-        <v>2797</v>
       </c>
       <c r="D856" t="s">
         <v>2801</v>
@@ -31770,35 +31779,35 @@
         <v>11</v>
       </c>
       <c r="G856" t="s">
-        <v>2803</v>
-      </c>
-      <c r="H856" s="2">
-        <v>45315</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H856" s="2"/>
     </row>
     <row r="857" spans="1:8">
       <c r="A857" t="s">
         <v>1855</v>
       </c>
       <c r="B857" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C857" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D857" t="s">
         <v>2804</v>
       </c>
-      <c r="C857" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D857" t="s">
+      <c r="E857" t="s">
         <v>2805</v>
       </c>
-      <c r="E857" t="s">
+      <c r="F857" t="s">
+        <v>11</v>
+      </c>
+      <c r="G857" t="s">
         <v>2806</v>
       </c>
-      <c r="F857" t="s">
-        <v>26</v>
-      </c>
-      <c r="G857" t="s">
-        <v>2</v>
-      </c>
-      <c r="H857" s="2"/>
+      <c r="H857" s="2">
+        <v>45315</v>
+      </c>
     </row>
     <row r="858" spans="1:8">
       <c r="A858" t="s">
@@ -31808,7 +31817,7 @@
         <v>2807</v>
       </c>
       <c r="C858" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="D858" t="s">
         <v>2808</v>
@@ -31826,63 +31835,63 @@
     </row>
     <row r="859" spans="1:8">
       <c r="A859" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B859" t="s">
         <v>2810</v>
       </c>
-      <c r="B859" t="s">
+      <c r="C859" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D859" t="s">
         <v>2811</v>
       </c>
-      <c r="C859" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D859" t="s">
+      <c r="E859" t="s">
         <v>2812</v>
       </c>
-      <c r="E859" t="s">
-        <v>2813</v>
-      </c>
       <c r="F859" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G859" t="s">
-        <v>2814</v>
-      </c>
-      <c r="H859" s="2">
-        <v>45260</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H859" s="2"/>
     </row>
     <row r="860" spans="1:8">
       <c r="A860" t="s">
-        <v>1855</v>
+        <v>2813</v>
       </c>
       <c r="B860" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C860" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D860" t="s">
         <v>2815</v>
       </c>
-      <c r="C860" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D860" t="s">
+      <c r="E860" t="s">
         <v>2816</v>
       </c>
-      <c r="E860" t="s">
+      <c r="F860" t="s">
+        <v>5</v>
+      </c>
+      <c r="G860" t="s">
         <v>2817</v>
       </c>
-      <c r="F860" t="s">
-        <v>26</v>
-      </c>
-      <c r="G860" t="s">
-        <v>2</v>
-      </c>
-      <c r="H860" s="2"/>
+      <c r="H860" s="2">
+        <v>45260</v>
+      </c>
     </row>
     <row r="861" spans="1:8">
       <c r="A861" t="s">
-        <v>2810</v>
+        <v>1855</v>
       </c>
       <c r="B861" t="s">
         <v>2818</v>
       </c>
       <c r="C861" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="D861" t="s">
         <v>2819</v>
@@ -31891,7 +31900,7 @@
         <v>2820</v>
       </c>
       <c r="F861" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G861" t="s">
         <v>2</v>
@@ -31900,13 +31909,13 @@
     </row>
     <row r="862" spans="1:8">
       <c r="A862" t="s">
-        <v>790</v>
+        <v>2813</v>
       </c>
       <c r="B862" t="s">
         <v>2821</v>
       </c>
       <c r="C862" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="D862" t="s">
         <v>2822</v>
@@ -31915,7 +31924,7 @@
         <v>2823</v>
       </c>
       <c r="F862" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G862" t="s">
         <v>2</v>
@@ -31924,13 +31933,13 @@
     </row>
     <row r="863" spans="1:8">
       <c r="A863" t="s">
-        <v>471</v>
+        <v>790</v>
       </c>
       <c r="B863" t="s">
         <v>2824</v>
       </c>
       <c r="C863" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="D863" t="s">
         <v>2825</v>
@@ -31939,39 +31948,37 @@
         <v>2826</v>
       </c>
       <c r="F863" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G863" t="s">
-        <v>2827</v>
-      </c>
-      <c r="H863" s="2">
-        <v>45302</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H863" s="2"/>
     </row>
     <row r="864" spans="1:8">
       <c r="A864" t="s">
-        <v>385</v>
+        <v>471</v>
       </c>
       <c r="B864" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C864" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D864" t="s">
         <v>2828</v>
       </c>
-      <c r="C864" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D864" t="s">
+      <c r="E864" t="s">
         <v>2829</v>
       </c>
-      <c r="E864" t="s">
+      <c r="F864" t="s">
+        <v>5</v>
+      </c>
+      <c r="G864" t="s">
         <v>2830</v>
       </c>
-      <c r="F864" t="s">
-        <v>17</v>
-      </c>
-      <c r="G864" t="s">
-        <v>2831</v>
-      </c>
       <c r="H864" s="2">
-        <v>45295</v>
+        <v>45302</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -31979,25 +31986,25 @@
         <v>385</v>
       </c>
       <c r="B865" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C865" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D865" t="s">
         <v>2832</v>
       </c>
-      <c r="C865" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D865" t="s">
+      <c r="E865" t="s">
         <v>2833</v>
-      </c>
-      <c r="E865" t="s">
-        <v>2834</v>
       </c>
       <c r="F865" t="s">
         <v>17</v>
       </c>
       <c r="G865" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="H865" s="2">
-        <v>45161</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -32005,36 +32012,36 @@
         <v>385</v>
       </c>
       <c r="B866" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C866" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D866" t="s">
         <v>2836</v>
       </c>
-      <c r="C866" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D866" t="s">
+      <c r="E866" t="s">
         <v>2837</v>
-      </c>
-      <c r="E866" t="s">
-        <v>2838</v>
       </c>
       <c r="F866" t="s">
         <v>17</v>
       </c>
       <c r="G866" t="s">
-        <v>901</v>
+        <v>2838</v>
       </c>
       <c r="H866" s="2">
-        <v>45198</v>
+        <v>45161</v>
       </c>
     </row>
     <row r="867" spans="1:8">
       <c r="A867" t="s">
-        <v>2810</v>
+        <v>385</v>
       </c>
       <c r="B867" t="s">
         <v>2839</v>
       </c>
       <c r="C867" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="D867" t="s">
         <v>2840</v>
@@ -32043,80 +32050,82 @@
         <v>2841</v>
       </c>
       <c r="F867" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G867" t="s">
-        <v>2842</v>
+        <v>901</v>
       </c>
       <c r="H867" s="2">
-        <v>45315</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="868" spans="1:8">
       <c r="A868" t="s">
-        <v>2810</v>
+        <v>2813</v>
       </c>
       <c r="B868" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C868" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D868" t="s">
         <v>2843</v>
       </c>
-      <c r="C868" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D868" t="s">
+      <c r="E868" t="s">
         <v>2844</v>
       </c>
-      <c r="E868" t="s">
+      <c r="F868" t="s">
+        <v>11</v>
+      </c>
+      <c r="G868" t="s">
         <v>2845</v>
       </c>
-      <c r="F868" t="s">
-        <v>11</v>
-      </c>
-      <c r="G868" t="s">
-        <v>901</v>
-      </c>
       <c r="H868" s="2">
-        <v>45246</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="869" spans="1:8">
       <c r="A869" t="s">
-        <v>1426</v>
+        <v>2813</v>
       </c>
       <c r="B869" t="s">
         <v>2846</v>
       </c>
       <c r="C869" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="D869" t="s">
         <v>2847</v>
       </c>
       <c r="E869" t="s">
-        <v>84</v>
+        <v>2848</v>
       </c>
       <c r="F869" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G869" t="s">
-        <v>2</v>
-      </c>
-      <c r="H869" s="2"/>
+        <v>901</v>
+      </c>
+      <c r="H869" s="2">
+        <v>45246</v>
+      </c>
     </row>
     <row r="870" spans="1:8">
       <c r="A870" t="s">
         <v>1426</v>
       </c>
       <c r="B870" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="C870" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="D870" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="E870" t="s">
-        <v>2850</v>
+        <v>84</v>
       </c>
       <c r="F870" t="s">
         <v>17</v>
@@ -32134,7 +32143,7 @@
         <v>2851</v>
       </c>
       <c r="C871" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="D871" t="s">
         <v>2852</v>
@@ -32143,7 +32152,7 @@
         <v>2853</v>
       </c>
       <c r="F871" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G871" t="s">
         <v>2</v>
@@ -32158,23 +32167,21 @@
         <v>2854</v>
       </c>
       <c r="C872" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="D872" t="s">
         <v>2855</v>
       </c>
       <c r="E872" t="s">
-        <v>596</v>
+        <v>2856</v>
       </c>
       <c r="F872" t="s">
         <v>11</v>
       </c>
       <c r="G872" t="s">
-        <v>2856</v>
-      </c>
-      <c r="H872" s="2">
-        <v>45279</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H872" s="2"/>
     </row>
     <row r="873" spans="1:8">
       <c r="A873" t="s">
@@ -32184,37 +32191,39 @@
         <v>2857</v>
       </c>
       <c r="C873" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="D873" t="s">
         <v>2858</v>
       </c>
       <c r="E873" t="s">
-        <v>1887</v>
+        <v>596</v>
       </c>
       <c r="F873" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G873" t="s">
-        <v>2</v>
-      </c>
-      <c r="H873" s="2"/>
+        <v>2859</v>
+      </c>
+      <c r="H873" s="2">
+        <v>45279</v>
+      </c>
     </row>
     <row r="874" spans="1:8">
       <c r="A874" t="s">
         <v>1426</v>
       </c>
       <c r="B874" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
       <c r="C874" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="D874" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="E874" t="s">
-        <v>2861</v>
+        <v>1887</v>
       </c>
       <c r="F874" t="s">
         <v>17</v>
@@ -32226,13 +32235,13 @@
     </row>
     <row r="875" spans="1:8">
       <c r="A875" t="s">
-        <v>786</v>
+        <v>1426</v>
       </c>
       <c r="B875" t="s">
         <v>2862</v>
       </c>
       <c r="C875" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="D875" t="s">
         <v>2863</v>
@@ -32241,65 +32250,63 @@
         <v>2864</v>
       </c>
       <c r="F875" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G875" t="s">
-        <v>2865</v>
-      </c>
-      <c r="H875" s="2">
-        <v>45299</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H875" s="2"/>
     </row>
     <row r="876" spans="1:8">
       <c r="A876" t="s">
         <v>786</v>
       </c>
       <c r="B876" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C876" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D876" t="s">
         <v>2866</v>
       </c>
-      <c r="C876" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D876" t="s">
+      <c r="E876" t="s">
         <v>2867</v>
       </c>
-      <c r="E876" t="s">
+      <c r="F876" t="s">
+        <v>11</v>
+      </c>
+      <c r="G876" t="s">
         <v>2868</v>
       </c>
-      <c r="F876" t="s">
-        <v>11</v>
-      </c>
-      <c r="G876" t="s">
-        <v>2869</v>
-      </c>
       <c r="H876" s="2">
-        <v>45317</v>
+        <v>45299</v>
       </c>
     </row>
     <row r="877" spans="1:8">
       <c r="A877" t="s">
-        <v>1426</v>
+        <v>786</v>
       </c>
       <c r="B877" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C877" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D877" t="s">
         <v>2870</v>
       </c>
-      <c r="C877" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D877" t="s">
+      <c r="E877" t="s">
         <v>2871</v>
       </c>
-      <c r="E877" t="s">
+      <c r="F877" t="s">
+        <v>11</v>
+      </c>
+      <c r="G877" t="s">
         <v>2872</v>
       </c>
-      <c r="F877" t="s">
-        <v>17</v>
-      </c>
-      <c r="G877" t="s">
-        <v>2873</v>
-      </c>
       <c r="H877" s="2">
-        <v>45308</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -32307,25 +32314,25 @@
         <v>1426</v>
       </c>
       <c r="B878" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C878" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D878" t="s">
         <v>2874</v>
       </c>
-      <c r="C878" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D878" t="s">
+      <c r="E878" t="s">
         <v>2875</v>
       </c>
-      <c r="E878" t="s">
+      <c r="F878" t="s">
+        <v>17</v>
+      </c>
+      <c r="G878" t="s">
         <v>2876</v>
       </c>
-      <c r="F878" t="s">
-        <v>11</v>
-      </c>
-      <c r="G878" t="s">
-        <v>2877</v>
-      </c>
       <c r="H878" s="2">
-        <v>45301</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -32333,22 +32340,22 @@
         <v>1426</v>
       </c>
       <c r="B879" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C879" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D879" t="s">
         <v>2878</v>
       </c>
-      <c r="C879" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D879" t="s">
+      <c r="E879" t="s">
         <v>2879</v>
       </c>
-      <c r="E879" t="s">
+      <c r="F879" t="s">
+        <v>11</v>
+      </c>
+      <c r="G879" t="s">
         <v>2880</v>
-      </c>
-      <c r="F879" t="s">
-        <v>5</v>
-      </c>
-      <c r="G879" t="s">
-        <v>2881</v>
       </c>
       <c r="H879" s="2">
         <v>45301</v>
@@ -32359,24 +32366,26 @@
         <v>1426</v>
       </c>
       <c r="B880" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C880" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D880" t="s">
         <v>2882</v>
       </c>
-      <c r="C880" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D880" t="s">
+      <c r="E880" t="s">
         <v>2883</v>
       </c>
-      <c r="E880" t="s">
+      <c r="F880" t="s">
+        <v>5</v>
+      </c>
+      <c r="G880" t="s">
         <v>2884</v>
       </c>
-      <c r="F880" t="s">
-        <v>17</v>
-      </c>
-      <c r="G880" t="s">
-        <v>2</v>
-      </c>
-      <c r="H880" s="2"/>
+      <c r="H880" s="2">
+        <v>45301</v>
+      </c>
     </row>
     <row r="881" spans="1:8">
       <c r="A881" t="s">
@@ -32386,13 +32395,13 @@
         <v>2885</v>
       </c>
       <c r="C881" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="D881" t="s">
-        <v>2883</v>
+        <v>2886</v>
       </c>
       <c r="E881" t="s">
-        <v>2884</v>
+        <v>2887</v>
       </c>
       <c r="F881" t="s">
         <v>17</v>
@@ -32407,16 +32416,16 @@
         <v>1426</v>
       </c>
       <c r="B882" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C882" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D882" t="s">
         <v>2886</v>
       </c>
-      <c r="C882" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D882" t="s">
+      <c r="E882" t="s">
         <v>2887</v>
-      </c>
-      <c r="E882" t="s">
-        <v>2888</v>
       </c>
       <c r="F882" t="s">
         <v>17</v>
@@ -32428,51 +32437,49 @@
     </row>
     <row r="883" spans="1:8">
       <c r="A883" t="s">
-        <v>762</v>
+        <v>1426</v>
       </c>
       <c r="B883" t="s">
         <v>2889</v>
       </c>
       <c r="C883" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D883" t="s">
         <v>2890</v>
       </c>
-      <c r="D883" t="s">
+      <c r="E883" t="s">
         <v>2891</v>
       </c>
-      <c r="E883" t="s">
-        <v>2892</v>
-      </c>
       <c r="F883" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G883" t="s">
-        <v>2893</v>
-      </c>
-      <c r="H883" s="2">
-        <v>45315</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H883" s="2"/>
     </row>
     <row r="884" spans="1:8">
       <c r="A884" t="s">
         <v>762</v>
       </c>
       <c r="B884" t="s">
+        <v>2892</v>
+      </c>
+      <c r="C884" t="s">
+        <v>2893</v>
+      </c>
+      <c r="D884" t="s">
         <v>2894</v>
       </c>
-      <c r="C884" t="s">
-        <v>2890</v>
-      </c>
-      <c r="D884" t="s">
+      <c r="E884" t="s">
         <v>2895</v>
       </c>
-      <c r="E884" t="s">
+      <c r="F884" t="s">
+        <v>26</v>
+      </c>
+      <c r="G884" t="s">
         <v>2896</v>
-      </c>
-      <c r="F884" t="s">
-        <v>11</v>
-      </c>
-      <c r="G884" t="s">
-        <v>2897</v>
       </c>
       <c r="H884" s="2">
         <v>45315</v>
@@ -32483,34 +32490,36 @@
         <v>762</v>
       </c>
       <c r="B885" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C885" t="s">
+        <v>2893</v>
+      </c>
+      <c r="D885" t="s">
         <v>2898</v>
       </c>
-      <c r="C885" t="s">
-        <v>2890</v>
-      </c>
-      <c r="D885" t="s">
+      <c r="E885" t="s">
         <v>2899</v>
       </c>
-      <c r="E885" t="s">
+      <c r="F885" t="s">
+        <v>11</v>
+      </c>
+      <c r="G885" t="s">
         <v>2900</v>
       </c>
-      <c r="F885" t="s">
-        <v>11</v>
-      </c>
-      <c r="G885" t="s">
-        <v>2</v>
-      </c>
-      <c r="H885" s="2"/>
+      <c r="H885" s="2">
+        <v>45315</v>
+      </c>
     </row>
     <row r="886" spans="1:8">
       <c r="A886" t="s">
-        <v>471</v>
+        <v>762</v>
       </c>
       <c r="B886" t="s">
         <v>2901</v>
       </c>
       <c r="C886" t="s">
-        <v>2890</v>
+        <v>2893</v>
       </c>
       <c r="D886" t="s">
         <v>2902</v>
@@ -32519,24 +32528,22 @@
         <v>2903</v>
       </c>
       <c r="F886" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G886" t="s">
-        <v>2827</v>
-      </c>
-      <c r="H886" s="2">
-        <v>45302</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H886" s="2"/>
     </row>
     <row r="887" spans="1:8">
       <c r="A887" t="s">
-        <v>762</v>
+        <v>471</v>
       </c>
       <c r="B887" t="s">
         <v>2904</v>
       </c>
       <c r="C887" t="s">
-        <v>2890</v>
+        <v>2893</v>
       </c>
       <c r="D887" t="s">
         <v>2905</v>
@@ -32545,22 +32552,24 @@
         <v>2906</v>
       </c>
       <c r="F887" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G887" t="s">
-        <v>2</v>
-      </c>
-      <c r="H887" s="2"/>
+        <v>2830</v>
+      </c>
+      <c r="H887" s="2">
+        <v>45302</v>
+      </c>
     </row>
     <row r="888" spans="1:8">
       <c r="A888" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="B888" t="s">
         <v>2907</v>
       </c>
       <c r="C888" t="s">
-        <v>2890</v>
+        <v>2893</v>
       </c>
       <c r="D888" t="s">
         <v>2908</v>
@@ -32578,22 +32587,22 @@
     </row>
     <row r="889" spans="1:8">
       <c r="A889" t="s">
-        <v>1651</v>
+        <v>775</v>
       </c>
       <c r="B889" t="s">
         <v>2910</v>
       </c>
       <c r="C889" t="s">
+        <v>2893</v>
+      </c>
+      <c r="D889" t="s">
         <v>2911</v>
       </c>
-      <c r="D889" t="s">
+      <c r="E889" t="s">
         <v>2912</v>
       </c>
-      <c r="E889" t="s">
-        <v>2913</v>
-      </c>
       <c r="F889" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G889" t="s">
         <v>2</v>
@@ -32602,13 +32611,13 @@
     </row>
     <row r="890" spans="1:8">
       <c r="A890" t="s">
-        <v>1585</v>
+        <v>1651</v>
       </c>
       <c r="B890" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C890" t="s">
         <v>2914</v>
-      </c>
-      <c r="C890" t="s">
-        <v>2911</v>
       </c>
       <c r="D890" t="s">
         <v>2915</v>
@@ -32617,7 +32626,7 @@
         <v>2916</v>
       </c>
       <c r="F890" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G890" t="s">
         <v>2</v>
@@ -32632,16 +32641,16 @@
         <v>2917</v>
       </c>
       <c r="C891" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="D891" t="s">
-        <v>2915</v>
+        <v>2918</v>
       </c>
       <c r="E891" t="s">
-        <v>2916</v>
+        <v>2919</v>
       </c>
       <c r="F891" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G891" t="s">
         <v>2</v>
@@ -32653,19 +32662,19 @@
         <v>1585</v>
       </c>
       <c r="B892" t="s">
+        <v>2920</v>
+      </c>
+      <c r="C892" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D892" t="s">
         <v>2918</v>
       </c>
-      <c r="C892" t="s">
-        <v>2911</v>
-      </c>
-      <c r="D892" t="s">
+      <c r="E892" t="s">
         <v>2919</v>
       </c>
-      <c r="E892" t="s">
-        <v>2920</v>
-      </c>
       <c r="F892" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G892" t="s">
         <v>2</v>
@@ -32680,16 +32689,16 @@
         <v>2921</v>
       </c>
       <c r="C893" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="D893" t="s">
-        <v>2919</v>
+        <v>2922</v>
       </c>
       <c r="E893" t="s">
-        <v>2920</v>
+        <v>2923</v>
       </c>
       <c r="F893" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G893" t="s">
         <v>2</v>
@@ -32701,19 +32710,19 @@
         <v>1585</v>
       </c>
       <c r="B894" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C894" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D894" t="s">
         <v>2922</v>
       </c>
-      <c r="C894" t="s">
-        <v>2911</v>
-      </c>
-      <c r="D894" t="s">
+      <c r="E894" t="s">
         <v>2923</v>
       </c>
-      <c r="E894" t="s">
-        <v>2924</v>
-      </c>
       <c r="F894" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G894" t="s">
         <v>2</v>
@@ -32728,16 +32737,16 @@
         <v>2925</v>
       </c>
       <c r="C895" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="D895" t="s">
-        <v>2923</v>
+        <v>2926</v>
       </c>
       <c r="E895" t="s">
-        <v>2924</v>
+        <v>2927</v>
       </c>
       <c r="F895" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G895" t="s">
         <v>2</v>
@@ -32749,19 +32758,19 @@
         <v>1585</v>
       </c>
       <c r="B896" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C896" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D896" t="s">
         <v>2926</v>
       </c>
-      <c r="C896" t="s">
-        <v>2911</v>
-      </c>
-      <c r="D896" t="s">
+      <c r="E896" t="s">
         <v>2927</v>
       </c>
-      <c r="E896" t="s">
-        <v>2928</v>
-      </c>
       <c r="F896" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G896" t="s">
         <v>2</v>
@@ -32776,7 +32785,7 @@
         <v>2929</v>
       </c>
       <c r="C897" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="D897" t="s">
         <v>2930</v>
@@ -32800,7 +32809,7 @@
         <v>2932</v>
       </c>
       <c r="C898" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="D898" t="s">
         <v>2933</v>
@@ -32824,7 +32833,7 @@
         <v>2935</v>
       </c>
       <c r="C899" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="D899" t="s">
         <v>2936</v>
@@ -32833,7 +32842,7 @@
         <v>2937</v>
       </c>
       <c r="F899" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G899" t="s">
         <v>2</v>
@@ -32842,13 +32851,13 @@
     </row>
     <row r="900" spans="1:8">
       <c r="A900" t="s">
-        <v>1651</v>
+        <v>1585</v>
       </c>
       <c r="B900" t="s">
         <v>2938</v>
       </c>
       <c r="C900" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="D900" t="s">
         <v>2939</v>
@@ -32857,7 +32866,7 @@
         <v>2940</v>
       </c>
       <c r="F900" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G900" t="s">
         <v>2</v>
@@ -32872,13 +32881,13 @@
         <v>2941</v>
       </c>
       <c r="C901" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="D901" t="s">
-        <v>2939</v>
+        <v>2942</v>
       </c>
       <c r="E901" t="s">
-        <v>2940</v>
+        <v>2943</v>
       </c>
       <c r="F901" t="s">
         <v>17</v>
@@ -32890,29 +32899,27 @@
     </row>
     <row r="902" spans="1:8">
       <c r="A902" t="s">
-        <v>2237</v>
+        <v>1651</v>
       </c>
       <c r="B902" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C902" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D902" t="s">
         <v>2942</v>
       </c>
-      <c r="C902" t="s">
-        <v>2911</v>
-      </c>
-      <c r="D902" t="s">
+      <c r="E902" t="s">
         <v>2943</v>
       </c>
-      <c r="E902" t="s">
-        <v>1887</v>
-      </c>
       <c r="F902" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G902" t="s">
-        <v>2944</v>
-      </c>
-      <c r="H902" s="2">
-        <v>45314</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H902" s="2"/>
     </row>
     <row r="903" spans="1:8">
       <c r="A903" t="s">
@@ -32922,31 +32929,33 @@
         <v>2945</v>
       </c>
       <c r="C903" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="D903" t="s">
         <v>2946</v>
       </c>
       <c r="E903" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F903" t="s">
+        <v>11</v>
+      </c>
+      <c r="G903" t="s">
         <v>2947</v>
       </c>
-      <c r="F903" t="s">
-        <v>11</v>
-      </c>
-      <c r="G903" t="s">
-        <v>2</v>
-      </c>
-      <c r="H903" s="2"/>
+      <c r="H903" s="2">
+        <v>45314</v>
+      </c>
     </row>
     <row r="904" spans="1:8">
       <c r="A904" t="s">
-        <v>1585</v>
+        <v>2237</v>
       </c>
       <c r="B904" t="s">
         <v>2948</v>
       </c>
       <c r="C904" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="D904" t="s">
         <v>2949</v>
@@ -32955,7 +32964,7 @@
         <v>2950</v>
       </c>
       <c r="F904" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G904" t="s">
         <v>2</v>
@@ -32970,45 +32979,43 @@
         <v>2951</v>
       </c>
       <c r="C905" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="D905" t="s">
-        <v>2949</v>
+        <v>2952</v>
       </c>
       <c r="E905" t="s">
-        <v>2950</v>
+        <v>2953</v>
       </c>
       <c r="F905" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G905" t="s">
-        <v>2952</v>
-      </c>
-      <c r="H905" s="2">
-        <v>45217</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H905" s="2"/>
     </row>
     <row r="906" spans="1:8">
       <c r="A906" t="s">
         <v>1585</v>
       </c>
       <c r="B906" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C906" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D906" t="s">
+        <v>2952</v>
+      </c>
+      <c r="E906" t="s">
         <v>2953</v>
-      </c>
-      <c r="C906" t="s">
-        <v>2911</v>
-      </c>
-      <c r="D906" t="s">
-        <v>2954</v>
-      </c>
-      <c r="E906" t="s">
-        <v>2955</v>
       </c>
       <c r="F906" t="s">
         <v>26</v>
       </c>
       <c r="G906" t="s">
-        <v>2952</v>
+        <v>2955</v>
       </c>
       <c r="H906" s="2">
         <v>45217</v>
@@ -33022,125 +33029,127 @@
         <v>2956</v>
       </c>
       <c r="C907" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="D907" t="s">
-        <v>2954</v>
+        <v>2957</v>
       </c>
       <c r="E907" t="s">
+        <v>2958</v>
+      </c>
+      <c r="F907" t="s">
+        <v>26</v>
+      </c>
+      <c r="G907" t="s">
         <v>2955</v>
       </c>
-      <c r="F907" t="s">
-        <v>11</v>
-      </c>
-      <c r="G907" t="s">
-        <v>2957</v>
-      </c>
       <c r="H907" s="2">
-        <v>45301</v>
+        <v>45217</v>
       </c>
     </row>
     <row r="908" spans="1:8">
       <c r="A908" t="s">
-        <v>244</v>
+        <v>1585</v>
       </c>
       <c r="B908" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C908" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D908" t="s">
+        <v>2957</v>
+      </c>
+      <c r="E908" t="s">
         <v>2958</v>
       </c>
-      <c r="C908" t="s">
-        <v>2911</v>
-      </c>
-      <c r="D908" t="s">
-        <v>2959</v>
-      </c>
-      <c r="E908" t="s">
+      <c r="F908" t="s">
+        <v>11</v>
+      </c>
+      <c r="G908" t="s">
         <v>2960</v>
       </c>
-      <c r="F908" t="s">
-        <v>11</v>
-      </c>
-      <c r="G908" t="s">
-        <v>2961</v>
-      </c>
       <c r="H908" s="2">
-        <v>45309</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="909" spans="1:8">
       <c r="A909" t="s">
-        <v>817</v>
+        <v>244</v>
       </c>
       <c r="B909" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C909" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D909" t="s">
         <v>2962</v>
       </c>
-      <c r="C909" t="s">
+      <c r="E909" t="s">
         <v>2963</v>
       </c>
-      <c r="D909" t="s">
+      <c r="F909" t="s">
+        <v>11</v>
+      </c>
+      <c r="G909" t="s">
         <v>2964</v>
       </c>
-      <c r="E909" t="s">
-        <v>2965</v>
-      </c>
-      <c r="F909" t="s">
-        <v>26</v>
-      </c>
-      <c r="G909" t="s">
-        <v>2966</v>
-      </c>
       <c r="H909" s="2">
-        <v>45217</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="910" spans="1:8">
       <c r="A910" t="s">
-        <v>858</v>
+        <v>817</v>
       </c>
       <c r="B910" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C910" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D910" t="s">
         <v>2967</v>
       </c>
-      <c r="C910" t="s">
-        <v>2963</v>
-      </c>
-      <c r="D910" t="s">
+      <c r="E910" t="s">
         <v>2968</v>
       </c>
-      <c r="E910" t="s">
+      <c r="F910" t="s">
+        <v>26</v>
+      </c>
+      <c r="G910" t="s">
         <v>2969</v>
       </c>
-      <c r="F910" t="s">
-        <v>11</v>
-      </c>
-      <c r="G910" t="s">
-        <v>2970</v>
-      </c>
       <c r="H910" s="2">
-        <v>45295</v>
+        <v>45217</v>
       </c>
     </row>
     <row r="911" spans="1:8">
       <c r="A911" t="s">
-        <v>817</v>
+        <v>858</v>
       </c>
       <c r="B911" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C911" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D911" t="s">
         <v>2971</v>
       </c>
-      <c r="C911" t="s">
-        <v>2963</v>
-      </c>
-      <c r="D911" t="s">
+      <c r="E911" t="s">
         <v>2972</v>
       </c>
-      <c r="E911" t="s">
+      <c r="F911" t="s">
+        <v>11</v>
+      </c>
+      <c r="G911" t="s">
         <v>2973</v>
       </c>
-      <c r="F911" t="s">
-        <v>11</v>
-      </c>
-      <c r="G911" t="s">
-        <v>2</v>
-      </c>
-      <c r="H911" s="2"/>
+      <c r="H911" s="2">
+        <v>45295</v>
+      </c>
     </row>
     <row r="912" spans="1:8">
       <c r="A912" t="s">
@@ -33150,7 +33159,7 @@
         <v>2974</v>
       </c>
       <c r="C912" t="s">
-        <v>2963</v>
+        <v>2966</v>
       </c>
       <c r="D912" t="s">
         <v>2975</v>
@@ -33174,7 +33183,7 @@
         <v>2977</v>
       </c>
       <c r="C913" t="s">
-        <v>2963</v>
+        <v>2966</v>
       </c>
       <c r="D913" t="s">
         <v>2978</v>
@@ -33192,13 +33201,13 @@
     </row>
     <row r="914" spans="1:8">
       <c r="A914" t="s">
-        <v>858</v>
+        <v>817</v>
       </c>
       <c r="B914" t="s">
         <v>2980</v>
       </c>
       <c r="C914" t="s">
-        <v>2963</v>
+        <v>2966</v>
       </c>
       <c r="D914" t="s">
         <v>2981</v>
@@ -33210,36 +33219,34 @@
         <v>11</v>
       </c>
       <c r="G914" t="s">
-        <v>2983</v>
-      </c>
-      <c r="H914" s="2">
-        <v>45295</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H914" s="2"/>
     </row>
     <row r="915" spans="1:8">
       <c r="A915" t="s">
         <v>858</v>
       </c>
       <c r="B915" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C915" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D915" t="s">
         <v>2984</v>
       </c>
-      <c r="C915" t="s">
-        <v>2963</v>
-      </c>
-      <c r="D915" t="s">
+      <c r="E915" t="s">
         <v>2985</v>
       </c>
-      <c r="E915" t="s">
+      <c r="F915" t="s">
+        <v>11</v>
+      </c>
+      <c r="G915" t="s">
         <v>2986</v>
       </c>
-      <c r="F915" t="s">
-        <v>17</v>
-      </c>
-      <c r="G915" t="s">
-        <v>2987</v>
-      </c>
       <c r="H915" s="2">
-        <v>45315</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -33247,22 +33254,22 @@
         <v>858</v>
       </c>
       <c r="B916" t="s">
+        <v>2987</v>
+      </c>
+      <c r="C916" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D916" t="s">
         <v>2988</v>
       </c>
-      <c r="C916" t="s">
-        <v>2963</v>
-      </c>
-      <c r="D916" t="s">
+      <c r="E916" t="s">
         <v>2989</v>
       </c>
-      <c r="E916" t="s">
+      <c r="F916" t="s">
+        <v>17</v>
+      </c>
+      <c r="G916" t="s">
         <v>2990</v>
-      </c>
-      <c r="F916" t="s">
-        <v>11</v>
-      </c>
-      <c r="G916" t="s">
-        <v>198</v>
       </c>
       <c r="H916" s="2">
         <v>45315</v>
@@ -33270,37 +33277,39 @@
     </row>
     <row r="917" spans="1:8">
       <c r="A917" t="s">
-        <v>817</v>
+        <v>858</v>
       </c>
       <c r="B917" t="s">
         <v>2991</v>
       </c>
       <c r="C917" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D917" t="s">
         <v>2992</v>
       </c>
-      <c r="D917" t="s">
+      <c r="E917" t="s">
         <v>2993</v>
       </c>
-      <c r="E917" t="s">
-        <v>2994</v>
-      </c>
       <c r="F917" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G917" t="s">
-        <v>2</v>
-      </c>
-      <c r="H917" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="H917" s="2">
+        <v>45315</v>
+      </c>
     </row>
     <row r="918" spans="1:8">
       <c r="A918" t="s">
         <v>817</v>
       </c>
       <c r="B918" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C918" t="s">
         <v>2995</v>
-      </c>
-      <c r="C918" t="s">
-        <v>2992</v>
       </c>
       <c r="D918" t="s">
         <v>2996</v>
@@ -33309,36 +33318,34 @@
         <v>2997</v>
       </c>
       <c r="F918" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G918" t="s">
-        <v>2998</v>
-      </c>
-      <c r="H918" s="2">
-        <v>45314</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H918" s="2"/>
     </row>
     <row r="919" spans="1:8">
       <c r="A919" t="s">
         <v>817</v>
       </c>
       <c r="B919" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C919" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D919" t="s">
         <v>2999</v>
       </c>
-      <c r="C919" t="s">
-        <v>2992</v>
-      </c>
-      <c r="D919" t="s">
+      <c r="E919" t="s">
         <v>3000</v>
       </c>
-      <c r="E919" t="s">
+      <c r="F919" t="s">
+        <v>11</v>
+      </c>
+      <c r="G919" t="s">
         <v>3001</v>
-      </c>
-      <c r="F919" t="s">
-        <v>11</v>
-      </c>
-      <c r="G919" t="s">
-        <v>3002</v>
       </c>
       <c r="H919" s="2">
         <v>45314</v>
@@ -33346,37 +33353,39 @@
     </row>
     <row r="920" spans="1:8">
       <c r="A920" t="s">
-        <v>385</v>
+        <v>817</v>
       </c>
       <c r="B920" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C920" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D920" t="s">
         <v>3003</v>
       </c>
-      <c r="C920" t="s">
-        <v>2992</v>
-      </c>
-      <c r="D920" t="s">
+      <c r="E920" t="s">
         <v>3004</v>
       </c>
-      <c r="E920" t="s">
+      <c r="F920" t="s">
+        <v>11</v>
+      </c>
+      <c r="G920" t="s">
         <v>3005</v>
       </c>
-      <c r="F920" t="s">
-        <v>17</v>
-      </c>
-      <c r="G920" t="s">
-        <v>2</v>
-      </c>
-      <c r="H920" s="2"/>
+      <c r="H920" s="2">
+        <v>45314</v>
+      </c>
     </row>
     <row r="921" spans="1:8">
       <c r="A921" t="s">
-        <v>817</v>
+        <v>385</v>
       </c>
       <c r="B921" t="s">
         <v>3006</v>
       </c>
       <c r="C921" t="s">
-        <v>2992</v>
+        <v>2995</v>
       </c>
       <c r="D921" t="s">
         <v>3007</v>
@@ -33385,7 +33394,7 @@
         <v>3008</v>
       </c>
       <c r="F921" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G921" t="s">
         <v>2</v>
@@ -33400,48 +33409,46 @@
         <v>3009</v>
       </c>
       <c r="C922" t="s">
-        <v>2992</v>
+        <v>2995</v>
       </c>
       <c r="D922" t="s">
-        <v>3007</v>
+        <v>3010</v>
       </c>
       <c r="E922" t="s">
-        <v>3008</v>
+        <v>3011</v>
       </c>
       <c r="F922" t="s">
         <v>11</v>
       </c>
       <c r="G922" t="s">
-        <v>3010</v>
-      </c>
-      <c r="H922" s="2">
-        <v>45316</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H922" s="2"/>
     </row>
     <row r="923" spans="1:8">
       <c r="A923" t="s">
-        <v>385</v>
+        <v>817</v>
       </c>
       <c r="B923" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C923" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D923" t="s">
+        <v>3010</v>
+      </c>
+      <c r="E923" t="s">
         <v>3011</v>
       </c>
-      <c r="C923" t="s">
-        <v>2992</v>
-      </c>
-      <c r="D923" t="s">
-        <v>3012</v>
-      </c>
-      <c r="E923" t="s">
+      <c r="F923" t="s">
+        <v>11</v>
+      </c>
+      <c r="G923" t="s">
         <v>3013</v>
       </c>
-      <c r="F923" t="s">
-        <v>11</v>
-      </c>
-      <c r="G923" t="s">
-        <v>198</v>
-      </c>
       <c r="H923" s="2">
-        <v>45315</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -33452,22 +33459,22 @@
         <v>3014</v>
       </c>
       <c r="C924" t="s">
-        <v>2992</v>
+        <v>2995</v>
       </c>
       <c r="D924" t="s">
-        <v>3012</v>
+        <v>3015</v>
       </c>
       <c r="E924" t="s">
-        <v>3013</v>
+        <v>3016</v>
       </c>
       <c r="F924" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G924" t="s">
-        <v>3015</v>
+        <v>198</v>
       </c>
       <c r="H924" s="2">
-        <v>45295</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -33475,25 +33482,25 @@
         <v>385</v>
       </c>
       <c r="B925" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C925" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D925" t="s">
+        <v>3015</v>
+      </c>
+      <c r="E925" t="s">
         <v>3016</v>
       </c>
-      <c r="C925" t="s">
-        <v>2992</v>
-      </c>
-      <c r="D925" t="s">
-        <v>3017</v>
-      </c>
-      <c r="E925" t="s">
+      <c r="F925" t="s">
+        <v>26</v>
+      </c>
+      <c r="G925" t="s">
         <v>3018</v>
       </c>
-      <c r="F925" t="s">
-        <v>11</v>
-      </c>
-      <c r="G925" t="s">
-        <v>3019</v>
-      </c>
       <c r="H925" s="2">
-        <v>45315</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -33501,25 +33508,25 @@
         <v>385</v>
       </c>
       <c r="B926" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C926" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D926" t="s">
         <v>3020</v>
       </c>
-      <c r="C926" t="s">
-        <v>2992</v>
-      </c>
-      <c r="D926" t="s">
+      <c r="E926" t="s">
         <v>3021</v>
       </c>
-      <c r="E926" t="s">
+      <c r="F926" t="s">
+        <v>11</v>
+      </c>
+      <c r="G926" t="s">
         <v>3022</v>
       </c>
-      <c r="F926" t="s">
-        <v>11</v>
-      </c>
-      <c r="G926" t="s">
-        <v>901</v>
-      </c>
       <c r="H926" s="2">
-        <v>45253</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -33530,7 +33537,7 @@
         <v>3023</v>
       </c>
       <c r="C927" t="s">
-        <v>2992</v>
+        <v>2995</v>
       </c>
       <c r="D927" t="s">
         <v>3024</v>
@@ -33542,19 +33549,21 @@
         <v>11</v>
       </c>
       <c r="G927" t="s">
-        <v>2</v>
-      </c>
-      <c r="H927" s="2"/>
+        <v>901</v>
+      </c>
+      <c r="H927" s="2">
+        <v>45253</v>
+      </c>
     </row>
     <row r="928" spans="1:8">
       <c r="A928" t="s">
-        <v>817</v>
+        <v>385</v>
       </c>
       <c r="B928" t="s">
         <v>3026</v>
       </c>
       <c r="C928" t="s">
-        <v>2992</v>
+        <v>2995</v>
       </c>
       <c r="D928" t="s">
         <v>3027</v>
@@ -33563,39 +33572,37 @@
         <v>3028</v>
       </c>
       <c r="F928" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G928" t="s">
-        <v>3029</v>
-      </c>
-      <c r="H928" s="2">
-        <v>45203</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H928" s="2"/>
     </row>
     <row r="929" spans="1:8">
       <c r="A929" t="s">
-        <v>231</v>
+        <v>817</v>
       </c>
       <c r="B929" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C929" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D929" t="s">
         <v>3030</v>
       </c>
-      <c r="C929" t="s">
+      <c r="E929" t="s">
         <v>3031</v>
       </c>
-      <c r="D929" t="s">
+      <c r="F929" t="s">
+        <v>26</v>
+      </c>
+      <c r="G929" t="s">
         <v>3032</v>
       </c>
-      <c r="E929" t="s">
-        <v>3033</v>
-      </c>
-      <c r="F929" t="s">
-        <v>17</v>
-      </c>
-      <c r="G929" t="s">
-        <v>3034</v>
-      </c>
       <c r="H929" s="2">
-        <v>45306</v>
+        <v>45203</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -33603,34 +33610,36 @@
         <v>231</v>
       </c>
       <c r="B930" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C930" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D930" t="s">
         <v>3035</v>
       </c>
-      <c r="C930" t="s">
-        <v>3031</v>
-      </c>
-      <c r="D930" t="s">
+      <c r="E930" t="s">
         <v>3036</v>
-      </c>
-      <c r="E930" t="s">
-        <v>3037</v>
       </c>
       <c r="F930" t="s">
         <v>17</v>
       </c>
       <c r="G930" t="s">
-        <v>2</v>
-      </c>
-      <c r="H930" s="2"/>
+        <v>3037</v>
+      </c>
+      <c r="H930" s="2">
+        <v>45306</v>
+      </c>
     </row>
     <row r="931" spans="1:8">
       <c r="A931" t="s">
-        <v>1585</v>
+        <v>231</v>
       </c>
       <c r="B931" t="s">
         <v>3038</v>
       </c>
       <c r="C931" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="D931" t="s">
         <v>3039</v>
@@ -33639,7 +33648,7 @@
         <v>3040</v>
       </c>
       <c r="F931" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G931" t="s">
         <v>2</v>
@@ -33648,13 +33657,13 @@
     </row>
     <row r="932" spans="1:8">
       <c r="A932" t="s">
-        <v>231</v>
+        <v>1585</v>
       </c>
       <c r="B932" t="s">
         <v>3041</v>
       </c>
       <c r="C932" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="D932" t="s">
         <v>3042</v>
@@ -33663,48 +33672,48 @@
         <v>3043</v>
       </c>
       <c r="F932" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G932" t="s">
-        <v>3044</v>
-      </c>
-      <c r="H932" s="2">
-        <v>45274</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H932" s="2"/>
     </row>
     <row r="933" spans="1:8">
       <c r="A933" t="s">
         <v>231</v>
       </c>
       <c r="B933" t="s">
+        <v>3044</v>
+      </c>
+      <c r="C933" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D933" t="s">
         <v>3045</v>
       </c>
-      <c r="C933" t="s">
-        <v>3031</v>
-      </c>
-      <c r="D933" t="s">
+      <c r="E933" t="s">
         <v>3046</v>
-      </c>
-      <c r="E933" t="s">
-        <v>3047</v>
       </c>
       <c r="F933" t="s">
         <v>17</v>
       </c>
       <c r="G933" t="s">
-        <v>2</v>
-      </c>
-      <c r="H933" s="2"/>
+        <v>3047</v>
+      </c>
+      <c r="H933" s="2">
+        <v>45274</v>
+      </c>
     </row>
     <row r="934" spans="1:8">
       <c r="A934" t="s">
-        <v>1585</v>
+        <v>231</v>
       </c>
       <c r="B934" t="s">
         <v>3048</v>
       </c>
       <c r="C934" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="D934" t="s">
         <v>3049</v>
@@ -33713,7 +33722,7 @@
         <v>3050</v>
       </c>
       <c r="F934" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G934" t="s">
         <v>2</v>
@@ -33728,7 +33737,7 @@
         <v>3051</v>
       </c>
       <c r="C935" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="D935" t="s">
         <v>3052</v>
@@ -33752,7 +33761,7 @@
         <v>3054</v>
       </c>
       <c r="C936" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="D936" t="s">
         <v>3055</v>
@@ -33776,13 +33785,13 @@
         <v>3057</v>
       </c>
       <c r="C937" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="D937" t="s">
-        <v>3055</v>
+        <v>3058</v>
       </c>
       <c r="E937" t="s">
-        <v>3056</v>
+        <v>3059</v>
       </c>
       <c r="F937" t="s">
         <v>11</v>
@@ -33797,16 +33806,16 @@
         <v>1585</v>
       </c>
       <c r="B938" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C938" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D938" t="s">
         <v>3058</v>
       </c>
-      <c r="C938" t="s">
-        <v>3031</v>
-      </c>
-      <c r="D938" t="s">
+      <c r="E938" t="s">
         <v>3059</v>
-      </c>
-      <c r="E938" t="s">
-        <v>3060</v>
       </c>
       <c r="F938" t="s">
         <v>11</v>
@@ -33824,13 +33833,13 @@
         <v>3061</v>
       </c>
       <c r="C939" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="D939" t="s">
-        <v>3059</v>
+        <v>3062</v>
       </c>
       <c r="E939" t="s">
-        <v>3060</v>
+        <v>3063</v>
       </c>
       <c r="F939" t="s">
         <v>11</v>
@@ -33845,51 +33854,49 @@
         <v>1585</v>
       </c>
       <c r="B940" t="s">
+        <v>3064</v>
+      </c>
+      <c r="C940" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D940" t="s">
         <v>3062</v>
       </c>
-      <c r="C940" t="s">
-        <v>3031</v>
-      </c>
-      <c r="D940" t="s">
+      <c r="E940" t="s">
         <v>3063</v>
       </c>
-      <c r="E940" t="s">
-        <v>3064</v>
-      </c>
       <c r="F940" t="s">
         <v>11</v>
       </c>
       <c r="G940" t="s">
-        <v>3065</v>
-      </c>
-      <c r="H940" s="2">
-        <v>45314</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H940" s="2"/>
     </row>
     <row r="941" spans="1:8">
       <c r="A941" t="s">
-        <v>231</v>
+        <v>1585</v>
       </c>
       <c r="B941" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C941" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D941" t="s">
         <v>3066</v>
       </c>
-      <c r="C941" t="s">
-        <v>3031</v>
-      </c>
-      <c r="D941" t="s">
+      <c r="E941" t="s">
         <v>3067</v>
       </c>
-      <c r="E941" t="s">
+      <c r="F941" t="s">
+        <v>11</v>
+      </c>
+      <c r="G941" t="s">
         <v>3068</v>
       </c>
-      <c r="F941" t="s">
-        <v>17</v>
-      </c>
-      <c r="G941" t="s">
-        <v>901</v>
-      </c>
       <c r="H941" s="2">
-        <v>45246</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -33900,7 +33907,7 @@
         <v>3069</v>
       </c>
       <c r="C942" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="D942" t="s">
         <v>3070</v>
@@ -33909,24 +33916,24 @@
         <v>3071</v>
       </c>
       <c r="F942" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G942" t="s">
         <v>901</v>
       </c>
       <c r="H942" s="2">
-        <v>45268</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="943" spans="1:8">
       <c r="A943" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="B943" t="s">
         <v>3072</v>
       </c>
       <c r="C943" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="D943" t="s">
         <v>3073</v>
@@ -33938,10 +33945,10 @@
         <v>11</v>
       </c>
       <c r="G943" t="s">
-        <v>1581</v>
+        <v>901</v>
       </c>
       <c r="H943" s="2">
-        <v>45316</v>
+        <v>45268</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -33952,69 +33959,69 @@
         <v>3075</v>
       </c>
       <c r="C944" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="D944" t="s">
         <v>3076</v>
       </c>
       <c r="E944" t="s">
-        <v>666</v>
+        <v>3077</v>
       </c>
       <c r="F944" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G944" t="s">
-        <v>2</v>
-      </c>
-      <c r="H944" s="2"/>
+        <v>1581</v>
+      </c>
+      <c r="H944" s="2">
+        <v>45316</v>
+      </c>
     </row>
     <row r="945" spans="1:8">
       <c r="A945" t="s">
         <v>13</v>
       </c>
       <c r="B945" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="C945" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="D945" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="E945" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="F945" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G945" t="s">
-        <v>669</v>
-      </c>
-      <c r="H945" s="2">
-        <v>45314</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H945" s="2"/>
     </row>
     <row r="946" spans="1:8">
       <c r="A946" t="s">
         <v>13</v>
       </c>
       <c r="B946" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="C946" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="D946" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="E946" t="s">
-        <v>2040</v>
+        <v>672</v>
       </c>
       <c r="F946" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G946" t="s">
-        <v>3081</v>
+        <v>669</v>
       </c>
       <c r="H946" s="2">
         <v>45314</v>
@@ -34022,28 +34029,28 @@
     </row>
     <row r="947" spans="1:8">
       <c r="A947" t="s">
-        <v>1585</v>
+        <v>13</v>
       </c>
       <c r="B947" t="s">
         <v>3082</v>
       </c>
       <c r="C947" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="D947" t="s">
         <v>3083</v>
       </c>
       <c r="E947" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F947" t="s">
+        <v>11</v>
+      </c>
+      <c r="G947" t="s">
         <v>3084</v>
       </c>
-      <c r="F947" t="s">
-        <v>11</v>
-      </c>
-      <c r="G947" t="s">
-        <v>3085</v>
-      </c>
       <c r="H947" s="2">
-        <v>45204</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -34051,25 +34058,25 @@
         <v>1585</v>
       </c>
       <c r="B948" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C948" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D948" t="s">
         <v>3086</v>
       </c>
-      <c r="C948" t="s">
-        <v>3031</v>
-      </c>
-      <c r="D948" t="s">
-        <v>3083</v>
-      </c>
       <c r="E948" t="s">
-        <v>3084</v>
+        <v>3087</v>
       </c>
       <c r="F948" t="s">
         <v>11</v>
       </c>
       <c r="G948" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="H948" s="2">
-        <v>45306</v>
+        <v>45204</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -34077,24 +34084,26 @@
         <v>1585</v>
       </c>
       <c r="B949" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="C949" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="D949" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="E949" t="s">
+        <v>3087</v>
+      </c>
+      <c r="F949" t="s">
+        <v>11</v>
+      </c>
+      <c r="G949" t="s">
         <v>3090</v>
       </c>
-      <c r="F949" t="s">
-        <v>26</v>
-      </c>
-      <c r="G949" t="s">
-        <v>2</v>
-      </c>
-      <c r="H949" s="2"/>
+      <c r="H949" s="2">
+        <v>45306</v>
+      </c>
     </row>
     <row r="950" spans="1:8">
       <c r="A950" t="s">
@@ -34104,57 +34113,57 @@
         <v>3091</v>
       </c>
       <c r="C950" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="D950" t="s">
-        <v>3089</v>
+        <v>3092</v>
       </c>
       <c r="E950" t="s">
-        <v>3090</v>
+        <v>3093</v>
       </c>
       <c r="F950" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G950" t="s">
-        <v>3092</v>
-      </c>
-      <c r="H950" s="2">
-        <v>45204</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H950" s="2"/>
     </row>
     <row r="951" spans="1:8">
       <c r="A951" t="s">
         <v>1585</v>
       </c>
       <c r="B951" t="s">
+        <v>3094</v>
+      </c>
+      <c r="C951" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D951" t="s">
+        <v>3092</v>
+      </c>
+      <c r="E951" t="s">
         <v>3093</v>
       </c>
-      <c r="C951" t="s">
-        <v>3031</v>
-      </c>
-      <c r="D951" t="s">
-        <v>3094</v>
-      </c>
-      <c r="E951" t="s">
+      <c r="F951" t="s">
+        <v>11</v>
+      </c>
+      <c r="G951" t="s">
         <v>3095</v>
       </c>
-      <c r="F951" t="s">
-        <v>11</v>
-      </c>
-      <c r="G951" t="s">
-        <v>2</v>
-      </c>
-      <c r="H951" s="2"/>
+      <c r="H951" s="2">
+        <v>45204</v>
+      </c>
     </row>
     <row r="952" spans="1:8">
       <c r="A952" t="s">
-        <v>337</v>
+        <v>1585</v>
       </c>
       <c r="B952" t="s">
         <v>3096</v>
       </c>
       <c r="C952" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="D952" t="s">
         <v>3097</v>
@@ -34166,111 +34175,111 @@
         <v>11</v>
       </c>
       <c r="G952" t="s">
-        <v>3099</v>
-      </c>
-      <c r="H952" s="2">
-        <v>45317</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H952" s="2"/>
     </row>
     <row r="953" spans="1:8">
       <c r="A953" t="s">
         <v>337</v>
       </c>
       <c r="B953" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C953" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D953" t="s">
         <v>3100</v>
       </c>
-      <c r="C953" t="s">
-        <v>3031</v>
-      </c>
-      <c r="D953" t="s">
+      <c r="E953" t="s">
         <v>3101</v>
       </c>
-      <c r="E953" t="s">
+      <c r="F953" t="s">
+        <v>11</v>
+      </c>
+      <c r="G953" t="s">
         <v>3102</v>
       </c>
-      <c r="F953" t="s">
-        <v>11</v>
-      </c>
-      <c r="G953" t="s">
-        <v>3103</v>
-      </c>
       <c r="H953" s="2">
-        <v>45300</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="954" spans="1:8">
       <c r="A954" t="s">
-        <v>1491</v>
+        <v>337</v>
       </c>
       <c r="B954" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C954" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D954" t="s">
         <v>3104</v>
       </c>
-      <c r="C954" t="s">
+      <c r="E954" t="s">
         <v>3105</v>
       </c>
-      <c r="D954" t="s">
+      <c r="F954" t="s">
+        <v>11</v>
+      </c>
+      <c r="G954" t="s">
         <v>3106</v>
       </c>
-      <c r="E954" t="s">
-        <v>3107</v>
-      </c>
-      <c r="F954" t="s">
-        <v>11</v>
-      </c>
-      <c r="G954" t="s">
-        <v>2</v>
-      </c>
-      <c r="H954" s="2"/>
+      <c r="H954" s="2">
+        <v>45300</v>
+      </c>
     </row>
     <row r="955" spans="1:8">
       <c r="A955" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B955" t="s">
+        <v>3107</v>
+      </c>
+      <c r="C955" t="s">
         <v>3108</v>
       </c>
-      <c r="B955" t="s">
+      <c r="D955" t="s">
         <v>3109</v>
       </c>
-      <c r="C955" t="s">
-        <v>3105</v>
-      </c>
-      <c r="D955" t="s">
+      <c r="E955" t="s">
         <v>3110</v>
       </c>
-      <c r="E955" t="s">
-        <v>3111</v>
-      </c>
       <c r="F955" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G955" t="s">
-        <v>3112</v>
-      </c>
-      <c r="H955" s="2">
-        <v>45278</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H955" s="2"/>
     </row>
     <row r="956" spans="1:8">
       <c r="A956" t="s">
-        <v>1491</v>
+        <v>3111</v>
       </c>
       <c r="B956" t="s">
+        <v>3112</v>
+      </c>
+      <c r="C956" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D956" t="s">
         <v>3113</v>
       </c>
-      <c r="C956" t="s">
-        <v>3105</v>
-      </c>
-      <c r="D956" t="s">
+      <c r="E956" t="s">
         <v>3114</v>
-      </c>
-      <c r="E956" t="s">
-        <v>3115</v>
       </c>
       <c r="F956" t="s">
         <v>26</v>
       </c>
       <c r="G956" t="s">
-        <v>2</v>
-      </c>
-      <c r="H956" s="2"/>
+        <v>3115</v>
+      </c>
+      <c r="H956" s="2">
+        <v>45278</v>
+      </c>
     </row>
     <row r="957" spans="1:8">
       <c r="A957" t="s">
@@ -34280,7 +34289,7 @@
         <v>3116</v>
       </c>
       <c r="C957" t="s">
-        <v>3105</v>
+        <v>3108</v>
       </c>
       <c r="D957" t="s">
         <v>3117</v>
@@ -34289,7 +34298,7 @@
         <v>3118</v>
       </c>
       <c r="F957" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G957" t="s">
         <v>2</v>
@@ -34304,7 +34313,7 @@
         <v>3119</v>
       </c>
       <c r="C958" t="s">
-        <v>3105</v>
+        <v>3108</v>
       </c>
       <c r="D958" t="s">
         <v>3120</v>
@@ -34322,13 +34331,13 @@
     </row>
     <row r="959" spans="1:8">
       <c r="A959" t="s">
-        <v>902</v>
+        <v>1491</v>
       </c>
       <c r="B959" t="s">
         <v>3122</v>
       </c>
       <c r="C959" t="s">
-        <v>3105</v>
+        <v>3108</v>
       </c>
       <c r="D959" t="s">
         <v>3123</v>
@@ -34346,13 +34355,13 @@
     </row>
     <row r="960" spans="1:8">
       <c r="A960" t="s">
-        <v>443</v>
+        <v>902</v>
       </c>
       <c r="B960" t="s">
         <v>3125</v>
       </c>
       <c r="C960" t="s">
-        <v>3105</v>
+        <v>3108</v>
       </c>
       <c r="D960" t="s">
         <v>3126</v>
@@ -34364,33 +34373,31 @@
         <v>11</v>
       </c>
       <c r="G960" t="s">
-        <v>3128</v>
-      </c>
-      <c r="H960" s="2">
-        <v>45317</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H960" s="2"/>
     </row>
     <row r="961" spans="1:8">
       <c r="A961" t="s">
         <v>443</v>
       </c>
       <c r="B961" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C961" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D961" t="s">
         <v>3129</v>
       </c>
-      <c r="C961" t="s">
-        <v>3105</v>
-      </c>
-      <c r="D961" t="s">
+      <c r="E961" t="s">
         <v>3130</v>
       </c>
-      <c r="E961" t="s">
+      <c r="F961" t="s">
+        <v>11</v>
+      </c>
+      <c r="G961" t="s">
         <v>3131</v>
-      </c>
-      <c r="F961" t="s">
-        <v>11</v>
-      </c>
-      <c r="G961" t="s">
-        <v>3132</v>
       </c>
       <c r="H961" s="2">
         <v>45317</v>
@@ -34398,25 +34405,25 @@
     </row>
     <row r="962" spans="1:8">
       <c r="A962" t="s">
-        <v>2665</v>
+        <v>443</v>
       </c>
       <c r="B962" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C962" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D962" t="s">
         <v>3133</v>
       </c>
-      <c r="C962" t="s">
-        <v>3105</v>
-      </c>
-      <c r="D962" t="s">
+      <c r="E962" t="s">
         <v>3134</v>
       </c>
-      <c r="E962" t="s">
-        <v>596</v>
-      </c>
       <c r="F962" t="s">
         <v>11</v>
       </c>
       <c r="G962" t="s">
-        <v>2</v>
+        <v>3135</v>
       </c>
       <c r="H962" s="2">
         <v>45317</v>
@@ -34424,25 +34431,25 @@
     </row>
     <row r="963" spans="1:8">
       <c r="A963" t="s">
-        <v>443</v>
+        <v>2668</v>
       </c>
       <c r="B963" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="C963" t="s">
-        <v>3105</v>
+        <v>3108</v>
       </c>
       <c r="D963" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="E963" t="s">
-        <v>2448</v>
+        <v>596</v>
       </c>
       <c r="F963" t="s">
         <v>11</v>
       </c>
       <c r="G963" t="s">
-        <v>3137</v>
+        <v>2</v>
       </c>
       <c r="H963" s="2">
         <v>45317</v>
@@ -34450,25 +34457,25 @@
     </row>
     <row r="964" spans="1:8">
       <c r="A964" t="s">
-        <v>2665</v>
+        <v>443</v>
       </c>
       <c r="B964" t="s">
         <v>3138</v>
       </c>
       <c r="C964" t="s">
-        <v>3105</v>
+        <v>3108</v>
       </c>
       <c r="D964" t="s">
         <v>3139</v>
       </c>
       <c r="E964" t="s">
+        <v>2448</v>
+      </c>
+      <c r="F964" t="s">
+        <v>11</v>
+      </c>
+      <c r="G964" t="s">
         <v>3140</v>
-      </c>
-      <c r="F964" t="s">
-        <v>11</v>
-      </c>
-      <c r="G964" t="s">
-        <v>3141</v>
       </c>
       <c r="H964" s="2">
         <v>45317</v>
@@ -34476,106 +34483,106 @@
     </row>
     <row r="965" spans="1:8">
       <c r="A965" t="s">
-        <v>443</v>
+        <v>2668</v>
       </c>
       <c r="B965" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C965" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D965" t="s">
         <v>3142</v>
       </c>
-      <c r="C965" t="s">
-        <v>3105</v>
-      </c>
-      <c r="D965" t="s">
+      <c r="E965" t="s">
         <v>3143</v>
       </c>
-      <c r="E965" t="s">
-        <v>714</v>
-      </c>
       <c r="F965" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G965" t="s">
-        <v>2</v>
+        <v>3144</v>
       </c>
       <c r="H965" s="2">
-        <v>45311</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="966" spans="1:8">
       <c r="A966" t="s">
-        <v>337</v>
+        <v>443</v>
       </c>
       <c r="B966" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="C966" t="s">
-        <v>3145</v>
+        <v>3108</v>
       </c>
       <c r="D966" t="s">
         <v>3146</v>
       </c>
       <c r="E966" t="s">
-        <v>3147</v>
+        <v>714</v>
       </c>
       <c r="F966" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G966" t="s">
-        <v>3148</v>
+        <v>2</v>
       </c>
       <c r="H966" s="2">
-        <v>45308</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="967" spans="1:8">
       <c r="A967" t="s">
-        <v>460</v>
+        <v>337</v>
       </c>
       <c r="B967" t="s">
+        <v>3147</v>
+      </c>
+      <c r="C967" t="s">
+        <v>3148</v>
+      </c>
+      <c r="D967" t="s">
         <v>3149</v>
       </c>
-      <c r="C967" t="s">
-        <v>3145</v>
-      </c>
-      <c r="D967" t="s">
+      <c r="E967" t="s">
         <v>3150</v>
       </c>
-      <c r="E967" t="s">
+      <c r="F967" t="s">
+        <v>5</v>
+      </c>
+      <c r="G967" t="s">
         <v>3151</v>
       </c>
-      <c r="F967" t="s">
-        <v>17</v>
-      </c>
-      <c r="G967" t="s">
-        <v>3152</v>
-      </c>
       <c r="H967" s="2">
-        <v>45315</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="968" spans="1:8">
       <c r="A968" t="s">
-        <v>775</v>
+        <v>460</v>
       </c>
       <c r="B968" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C968" t="s">
+        <v>3148</v>
+      </c>
+      <c r="D968" t="s">
         <v>3153</v>
       </c>
-      <c r="C968" t="s">
-        <v>3145</v>
-      </c>
-      <c r="D968" t="s">
+      <c r="E968" t="s">
         <v>3154</v>
       </c>
-      <c r="E968" t="s">
+      <c r="F968" t="s">
+        <v>17</v>
+      </c>
+      <c r="G968" t="s">
         <v>3155</v>
       </c>
-      <c r="F968" t="s">
-        <v>11</v>
-      </c>
-      <c r="G968" t="s">
-        <v>3156</v>
-      </c>
       <c r="H968" s="2">
-        <v>45295</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -34583,51 +34590,51 @@
         <v>775</v>
       </c>
       <c r="B969" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C969" t="s">
+        <v>3148</v>
+      </c>
+      <c r="D969" t="s">
         <v>3157</v>
       </c>
-      <c r="C969" t="s">
-        <v>3145</v>
-      </c>
-      <c r="D969" t="s">
-        <v>3154</v>
-      </c>
       <c r="E969" t="s">
-        <v>3155</v>
+        <v>3158</v>
       </c>
       <c r="F969" t="s">
         <v>11</v>
       </c>
       <c r="G969" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="H969" s="2">
-        <v>45267</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="970" spans="1:8">
       <c r="A970" t="s">
-        <v>478</v>
+        <v>775</v>
       </c>
       <c r="B970" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="C970" t="s">
-        <v>3145</v>
+        <v>3148</v>
       </c>
       <c r="D970" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="E970" t="s">
+        <v>3158</v>
+      </c>
+      <c r="F970" t="s">
+        <v>11</v>
+      </c>
+      <c r="G970" t="s">
         <v>3161</v>
       </c>
-      <c r="F970" t="s">
-        <v>11</v>
-      </c>
-      <c r="G970" t="s">
-        <v>3162</v>
-      </c>
       <c r="H970" s="2">
-        <v>45246</v>
+        <v>45267</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -34635,43 +34642,45 @@
         <v>478</v>
       </c>
       <c r="B971" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C971" t="s">
+        <v>3148</v>
+      </c>
+      <c r="D971" t="s">
         <v>3163</v>
       </c>
-      <c r="C971" t="s">
-        <v>3145</v>
-      </c>
-      <c r="D971" t="s">
+      <c r="E971" t="s">
         <v>3164</v>
       </c>
-      <c r="E971" t="s">
-        <v>53</v>
-      </c>
       <c r="F971" t="s">
         <v>11</v>
       </c>
       <c r="G971" t="s">
-        <v>2</v>
-      </c>
-      <c r="H971" s="2"/>
+        <v>3165</v>
+      </c>
+      <c r="H971" s="2">
+        <v>45246</v>
+      </c>
     </row>
     <row r="972" spans="1:8">
       <c r="A972" t="s">
-        <v>838</v>
+        <v>478</v>
       </c>
       <c r="B972" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="C972" t="s">
-        <v>3145</v>
+        <v>3148</v>
       </c>
       <c r="D972" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="E972" t="s">
-        <v>3167</v>
+        <v>53</v>
       </c>
       <c r="F972" t="s">
-        <v>3168</v>
+        <v>11</v>
       </c>
       <c r="G972" t="s">
         <v>2</v>
@@ -34683,50 +34692,50 @@
         <v>838</v>
       </c>
       <c r="B973" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C973" t="s">
+        <v>3148</v>
+      </c>
+      <c r="D973" t="s">
         <v>3169</v>
       </c>
-      <c r="C973" t="s">
-        <v>3145</v>
-      </c>
-      <c r="D973" t="s">
+      <c r="E973" t="s">
         <v>3170</v>
       </c>
-      <c r="E973" t="s">
+      <c r="F973" t="s">
         <v>3171</v>
       </c>
-      <c r="F973" t="s">
-        <v>3168</v>
-      </c>
       <c r="G973" t="s">
-        <v>3172</v>
-      </c>
-      <c r="H973" s="2">
-        <v>45265</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H973" s="2"/>
     </row>
     <row r="974" spans="1:8">
       <c r="A974" t="s">
         <v>838</v>
       </c>
       <c r="B974" t="s">
+        <v>3172</v>
+      </c>
+      <c r="C974" t="s">
+        <v>3148</v>
+      </c>
+      <c r="D974" t="s">
         <v>3173</v>
       </c>
-      <c r="C974" t="s">
-        <v>3145</v>
-      </c>
-      <c r="D974" t="s">
+      <c r="E974" t="s">
         <v>3174</v>
       </c>
-      <c r="E974" t="s">
+      <c r="F974" t="s">
+        <v>3171</v>
+      </c>
+      <c r="G974" t="s">
         <v>3175</v>
       </c>
-      <c r="F974" t="s">
-        <v>3168</v>
-      </c>
-      <c r="G974" t="s">
-        <v>2</v>
-      </c>
-      <c r="H974" s="2"/>
+      <c r="H974" s="2">
+        <v>45265</v>
+      </c>
     </row>
     <row r="975" spans="1:8">
       <c r="A975" t="s">
@@ -34736,7 +34745,7 @@
         <v>3176</v>
       </c>
       <c r="C975" t="s">
-        <v>3145</v>
+        <v>3148</v>
       </c>
       <c r="D975" t="s">
         <v>3177</v>
@@ -34745,7 +34754,7 @@
         <v>3178</v>
       </c>
       <c r="F975" t="s">
-        <v>3168</v>
+        <v>3171</v>
       </c>
       <c r="G975" t="s">
         <v>2</v>
@@ -34754,13 +34763,13 @@
     </row>
     <row r="976" spans="1:8">
       <c r="A976" t="s">
-        <v>7</v>
+        <v>838</v>
       </c>
       <c r="B976" t="s">
         <v>3179</v>
       </c>
       <c r="C976" t="s">
-        <v>3145</v>
+        <v>3148</v>
       </c>
       <c r="D976" t="s">
         <v>3180</v>
@@ -34769,36 +34778,34 @@
         <v>3181</v>
       </c>
       <c r="F976" t="s">
-        <v>5</v>
+        <v>3171</v>
       </c>
       <c r="G976" t="s">
-        <v>3182</v>
-      </c>
-      <c r="H976" s="2">
-        <v>45317</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H976" s="2"/>
     </row>
     <row r="977" spans="1:8">
       <c r="A977" t="s">
-        <v>1615</v>
+        <v>7</v>
       </c>
       <c r="B977" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C977" t="s">
+        <v>3148</v>
+      </c>
+      <c r="D977" t="s">
         <v>3183</v>
       </c>
-      <c r="C977" t="s">
+      <c r="E977" t="s">
         <v>3184</v>
       </c>
-      <c r="D977" t="s">
+      <c r="F977" t="s">
+        <v>5</v>
+      </c>
+      <c r="G977" t="s">
         <v>3185</v>
-      </c>
-      <c r="E977" t="s">
-        <v>593</v>
-      </c>
-      <c r="F977" t="s">
-        <v>11</v>
-      </c>
-      <c r="G977" t="s">
-        <v>3186</v>
       </c>
       <c r="H977" s="2">
         <v>45317</v>
@@ -34806,19 +34813,19 @@
     </row>
     <row r="978" spans="1:8">
       <c r="A978" t="s">
-        <v>50</v>
+        <v>1615</v>
       </c>
       <c r="B978" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C978" t="s">
         <v>3187</v>
-      </c>
-      <c r="C978" t="s">
-        <v>3184</v>
       </c>
       <c r="D978" t="s">
         <v>3188</v>
       </c>
       <c r="E978" t="s">
-        <v>1887</v>
+        <v>593</v>
       </c>
       <c r="F978" t="s">
         <v>11</v>
@@ -34827,7 +34834,7 @@
         <v>3189</v>
       </c>
       <c r="H978" s="2">
-        <v>45314</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -34838,72 +34845,72 @@
         <v>3190</v>
       </c>
       <c r="C979" t="s">
-        <v>3184</v>
+        <v>3187</v>
       </c>
       <c r="D979" t="s">
         <v>3191</v>
       </c>
       <c r="E979" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F979" t="s">
+        <v>11</v>
+      </c>
+      <c r="G979" t="s">
         <v>3192</v>
       </c>
-      <c r="F979" t="s">
-        <v>11</v>
-      </c>
-      <c r="G979" t="s">
-        <v>2</v>
-      </c>
-      <c r="H979" s="2"/>
+      <c r="H979" s="2">
+        <v>45314</v>
+      </c>
     </row>
     <row r="980" spans="1:8">
       <c r="A980" t="s">
+        <v>50</v>
+      </c>
+      <c r="B980" t="s">
         <v>3193</v>
       </c>
-      <c r="B980" t="s">
+      <c r="C980" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D980" t="s">
         <v>3194</v>
       </c>
-      <c r="C980" t="s">
+      <c r="E980" t="s">
         <v>3195</v>
       </c>
-      <c r="D980" t="s">
-        <v>3196</v>
-      </c>
-      <c r="E980" t="s">
-        <v>3197</v>
-      </c>
       <c r="F980" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G980" t="s">
-        <v>3198</v>
-      </c>
-      <c r="H980" s="2">
-        <v>45302</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H980" s="2"/>
     </row>
     <row r="981" spans="1:8">
       <c r="A981" t="s">
-        <v>443</v>
+        <v>3196</v>
       </c>
       <c r="B981" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C981" t="s">
+        <v>3198</v>
+      </c>
+      <c r="D981" t="s">
         <v>3199</v>
       </c>
-      <c r="C981" t="s">
-        <v>3195</v>
-      </c>
-      <c r="D981" t="s">
+      <c r="E981" t="s">
         <v>3200</v>
       </c>
-      <c r="E981" t="s">
-        <v>2083</v>
-      </c>
       <c r="F981" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G981" t="s">
         <v>3201</v>
       </c>
       <c r="H981" s="2">
-        <v>45316</v>
+        <v>45302</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -34914,13 +34921,13 @@
         <v>3202</v>
       </c>
       <c r="C982" t="s">
-        <v>3195</v>
+        <v>3198</v>
       </c>
       <c r="D982" t="s">
         <v>3203</v>
       </c>
       <c r="E982" t="s">
-        <v>353</v>
+        <v>2083</v>
       </c>
       <c r="F982" t="s">
         <v>26</v>
@@ -34934,27 +34941,29 @@
     </row>
     <row r="983" spans="1:8">
       <c r="A983" t="s">
-        <v>1782</v>
+        <v>443</v>
       </c>
       <c r="B983" t="s">
         <v>3205</v>
       </c>
       <c r="C983" t="s">
+        <v>3198</v>
+      </c>
+      <c r="D983" t="s">
         <v>3206</v>
       </c>
-      <c r="D983" t="s">
+      <c r="E983" t="s">
+        <v>353</v>
+      </c>
+      <c r="F983" t="s">
+        <v>26</v>
+      </c>
+      <c r="G983" t="s">
         <v>3207</v>
       </c>
-      <c r="E983" t="s">
-        <v>929</v>
-      </c>
-      <c r="F983" t="s">
-        <v>11</v>
-      </c>
-      <c r="G983" t="s">
-        <v>2</v>
-      </c>
-      <c r="H983" s="2"/>
+      <c r="H983" s="2">
+        <v>45316</v>
+      </c>
     </row>
     <row r="984" spans="1:8">
       <c r="A984" t="s">
@@ -34964,10 +34973,10 @@
         <v>3208</v>
       </c>
       <c r="C984" t="s">
-        <v>3206</v>
+        <v>3209</v>
       </c>
       <c r="D984" t="s">
-        <v>3207</v>
+        <v>3210</v>
       </c>
       <c r="E984" t="s">
         <v>929</v>
@@ -34985,60 +34994,60 @@
         <v>1782</v>
       </c>
       <c r="B985" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C985" t="s">
         <v>3209</v>
-      </c>
-      <c r="C985" t="s">
-        <v>3206</v>
       </c>
       <c r="D985" t="s">
         <v>3210</v>
       </c>
       <c r="E985" t="s">
-        <v>3211</v>
+        <v>929</v>
       </c>
       <c r="F985" t="s">
         <v>11</v>
       </c>
       <c r="G985" t="s">
-        <v>3212</v>
-      </c>
-      <c r="H985" s="2">
-        <v>45308</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H985" s="2"/>
     </row>
     <row r="986" spans="1:8">
       <c r="A986" t="s">
-        <v>2785</v>
+        <v>1782</v>
       </c>
       <c r="B986" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C986" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D986" t="s">
         <v>3213</v>
       </c>
-      <c r="C986" t="s">
-        <v>3206</v>
-      </c>
-      <c r="D986" t="s">
+      <c r="E986" t="s">
         <v>3214</v>
       </c>
-      <c r="E986" t="s">
+      <c r="F986" t="s">
+        <v>11</v>
+      </c>
+      <c r="G986" t="s">
         <v>3215</v>
       </c>
-      <c r="F986" t="s">
-        <v>5</v>
-      </c>
-      <c r="G986" t="s">
-        <v>2</v>
-      </c>
-      <c r="H986" s="2"/>
+      <c r="H986" s="2">
+        <v>45308</v>
+      </c>
     </row>
     <row r="987" spans="1:8">
       <c r="A987" t="s">
-        <v>1782</v>
+        <v>2788</v>
       </c>
       <c r="B987" t="s">
         <v>3216</v>
       </c>
       <c r="C987" t="s">
-        <v>3206</v>
+        <v>3209</v>
       </c>
       <c r="D987" t="s">
         <v>3217</v>
@@ -35050,61 +35059,61 @@
         <v>5</v>
       </c>
       <c r="G987" t="s">
-        <v>3219</v>
-      </c>
-      <c r="H987" s="2">
-        <v>45314</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H987" s="2"/>
     </row>
     <row r="988" spans="1:8">
       <c r="A988" t="s">
         <v>1782</v>
       </c>
       <c r="B988" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C988" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D988" t="s">
         <v>3220</v>
       </c>
-      <c r="C988" t="s">
-        <v>3206</v>
-      </c>
-      <c r="D988" t="s">
+      <c r="E988" t="s">
         <v>3221</v>
       </c>
-      <c r="E988" t="s">
+      <c r="F988" t="s">
+        <v>5</v>
+      </c>
+      <c r="G988" t="s">
         <v>3222</v>
       </c>
-      <c r="F988" t="s">
-        <v>11</v>
-      </c>
-      <c r="G988" t="s">
-        <v>3223</v>
-      </c>
       <c r="H988" s="2">
-        <v>45315</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="989" spans="1:8">
       <c r="A989" t="s">
-        <v>1585</v>
+        <v>1782</v>
       </c>
       <c r="B989" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C989" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D989" t="s">
         <v>3224</v>
       </c>
-      <c r="C989" t="s">
-        <v>3206</v>
-      </c>
-      <c r="D989" t="s">
+      <c r="E989" t="s">
         <v>3225</v>
       </c>
-      <c r="E989" t="s">
+      <c r="F989" t="s">
+        <v>11</v>
+      </c>
+      <c r="G989" t="s">
         <v>3226</v>
       </c>
-      <c r="F989" t="s">
-        <v>11</v>
-      </c>
-      <c r="G989" t="s">
-        <v>2</v>
-      </c>
-      <c r="H989" s="2"/>
+      <c r="H989" s="2">
+        <v>45315</v>
+      </c>
     </row>
     <row r="990" spans="1:8">
       <c r="A990" t="s">
@@ -35114,7 +35123,7 @@
         <v>3227</v>
       </c>
       <c r="C990" t="s">
-        <v>3206</v>
+        <v>3209</v>
       </c>
       <c r="D990" t="s">
         <v>3228</v>
@@ -35132,19 +35141,19 @@
     </row>
     <row r="991" spans="1:8">
       <c r="A991" t="s">
-        <v>817</v>
+        <v>1585</v>
       </c>
       <c r="B991" t="s">
         <v>3230</v>
       </c>
       <c r="C991" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D991" t="s">
         <v>3231</v>
       </c>
-      <c r="D991" t="s">
+      <c r="E991" t="s">
         <v>3232</v>
-      </c>
-      <c r="E991" t="s">
-        <v>3233</v>
       </c>
       <c r="F991" t="s">
         <v>11</v>
@@ -35159,10 +35168,10 @@
         <v>817</v>
       </c>
       <c r="B992" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C992" t="s">
         <v>3234</v>
-      </c>
-      <c r="C992" t="s">
-        <v>3231</v>
       </c>
       <c r="D992" t="s">
         <v>3235</v>
@@ -35186,7 +35195,7 @@
         <v>3237</v>
       </c>
       <c r="C993" t="s">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="D993" t="s">
         <v>3238</v>
@@ -35210,16 +35219,16 @@
         <v>3240</v>
       </c>
       <c r="C994" t="s">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="D994" t="s">
-        <v>3238</v>
+        <v>3241</v>
       </c>
       <c r="E994" t="s">
-        <v>3239</v>
+        <v>3242</v>
       </c>
       <c r="F994" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G994" t="s">
         <v>2</v>
@@ -35228,22 +35237,22 @@
     </row>
     <row r="995" spans="1:8">
       <c r="A995" t="s">
-        <v>571</v>
+        <v>817</v>
       </c>
       <c r="B995" t="s">
+        <v>3243</v>
+      </c>
+      <c r="C995" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D995" t="s">
         <v>3241</v>
       </c>
-      <c r="C995" t="s">
-        <v>3231</v>
-      </c>
-      <c r="D995" t="s">
+      <c r="E995" t="s">
         <v>3242</v>
       </c>
-      <c r="E995" t="s">
-        <v>3243</v>
-      </c>
       <c r="F995" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G995" t="s">
         <v>2</v>
@@ -35252,13 +35261,13 @@
     </row>
     <row r="996" spans="1:8">
       <c r="A996" t="s">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="B996" t="s">
         <v>3244</v>
       </c>
       <c r="C996" t="s">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="D996" t="s">
         <v>3245</v>
@@ -35267,48 +35276,48 @@
         <v>3246</v>
       </c>
       <c r="F996" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G996" t="s">
-        <v>3247</v>
-      </c>
-      <c r="H996" s="2">
-        <v>45310</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H996" s="2"/>
     </row>
     <row r="997" spans="1:8">
       <c r="A997" t="s">
-        <v>817</v>
+        <v>0</v>
       </c>
       <c r="B997" t="s">
+        <v>3247</v>
+      </c>
+      <c r="C997" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D997" t="s">
         <v>3248</v>
       </c>
-      <c r="C997" t="s">
-        <v>3231</v>
-      </c>
-      <c r="D997" t="s">
+      <c r="E997" t="s">
         <v>3249</v>
       </c>
-      <c r="E997" t="s">
+      <c r="F997" t="s">
+        <v>26</v>
+      </c>
+      <c r="G997" t="s">
         <v>3250</v>
       </c>
-      <c r="F997" t="s">
-        <v>11</v>
-      </c>
-      <c r="G997" t="s">
-        <v>2</v>
-      </c>
-      <c r="H997" s="2"/>
+      <c r="H997" s="2">
+        <v>45310</v>
+      </c>
     </row>
     <row r="998" spans="1:8">
       <c r="A998" t="s">
-        <v>0</v>
+        <v>817</v>
       </c>
       <c r="B998" t="s">
         <v>3251</v>
       </c>
       <c r="C998" t="s">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="D998" t="s">
         <v>3252</v>
@@ -35317,14 +35326,12 @@
         <v>3253</v>
       </c>
       <c r="F998" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G998" t="s">
-        <v>2597</v>
-      </c>
-      <c r="H998" s="2">
-        <v>45296</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H998" s="2"/>
     </row>
     <row r="999" spans="1:8">
       <c r="A999" t="s">
@@ -35334,7 +35341,7 @@
         <v>3254</v>
       </c>
       <c r="C999" t="s">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="D999" t="s">
         <v>3255</v>
@@ -35346,109 +35353,109 @@
         <v>26</v>
       </c>
       <c r="G999" t="s">
-        <v>2</v>
-      </c>
-      <c r="H999" s="2"/>
+        <v>2600</v>
+      </c>
+      <c r="H999" s="2">
+        <v>45296</v>
+      </c>
     </row>
     <row r="1000" spans="1:8">
       <c r="A1000" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1000" t="s">
         <v>3257</v>
       </c>
-      <c r="B1000" t="s">
+      <c r="C1000" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D1000" t="s">
         <v>3258</v>
       </c>
-      <c r="C1000" t="s">
-        <v>3231</v>
-      </c>
-      <c r="D1000" t="s">
+      <c r="E1000" t="s">
         <v>3259</v>
       </c>
-      <c r="E1000" t="s">
-        <v>3260</v>
-      </c>
       <c r="F1000" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G1000" t="s">
-        <v>3261</v>
-      </c>
-      <c r="H1000" s="2">
-        <v>45229</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H1000" s="2"/>
     </row>
     <row r="1001" spans="1:8">
       <c r="A1001" t="s">
-        <v>3257</v>
+        <v>3260</v>
       </c>
       <c r="B1001" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D1001" t="s">
         <v>3262</v>
       </c>
-      <c r="C1001" t="s">
-        <v>3231</v>
-      </c>
-      <c r="D1001" t="s">
-        <v>3259</v>
-      </c>
       <c r="E1001" t="s">
-        <v>3260</v>
+        <v>3263</v>
       </c>
       <c r="F1001" t="s">
         <v>11</v>
       </c>
       <c r="G1001" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="H1001" s="2">
-        <v>45258</v>
+        <v>45229</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
       <c r="A1002" t="s">
-        <v>3257</v>
+        <v>3260</v>
       </c>
       <c r="B1002" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="C1002" t="s">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="D1002" t="s">
-        <v>3259</v>
+        <v>3262</v>
       </c>
       <c r="E1002" t="s">
-        <v>3260</v>
+        <v>3263</v>
       </c>
       <c r="F1002" t="s">
         <v>11</v>
       </c>
       <c r="G1002" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="H1002" s="2">
-        <v>45239</v>
+        <v>45258</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
       <c r="A1003" t="s">
-        <v>3257</v>
+        <v>3260</v>
       </c>
       <c r="B1003" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="C1003" t="s">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="D1003" t="s">
-        <v>3259</v>
+        <v>3262</v>
       </c>
       <c r="E1003" t="s">
-        <v>3260</v>
+        <v>3263</v>
       </c>
       <c r="F1003" t="s">
         <v>11</v>
       </c>
       <c r="G1003" t="s">
-        <v>3265</v>
+        <v>3268</v>
       </c>
       <c r="H1003" s="2">
         <v>45239</v>
@@ -35456,28 +35463,28 @@
     </row>
     <row r="1004" spans="1:8">
       <c r="A1004" t="s">
-        <v>935</v>
+        <v>3260</v>
       </c>
       <c r="B1004" t="s">
-        <v>3267</v>
+        <v>3269</v>
       </c>
       <c r="C1004" t="s">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="D1004" t="s">
+        <v>3262</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>3263</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1004" t="s">
         <v>3268</v>
       </c>
-      <c r="E1004" t="s">
-        <v>3269</v>
-      </c>
-      <c r="F1004" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1004" t="s">
-        <v>3270</v>
-      </c>
       <c r="H1004" s="2">
-        <v>45279</v>
+        <v>45239</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -35485,24 +35492,26 @@
         <v>935</v>
       </c>
       <c r="B1005" t="s">
+        <v>3270</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D1005" t="s">
         <v>3271</v>
       </c>
-      <c r="C1005" t="s">
-        <v>3231</v>
-      </c>
-      <c r="D1005" t="s">
+      <c r="E1005" t="s">
         <v>3272</v>
       </c>
-      <c r="E1005" t="s">
+      <c r="F1005" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1005" t="s">
         <v>3273</v>
       </c>
-      <c r="F1005" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1005" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1005" s="2"/>
+      <c r="H1005" s="2">
+        <v>45279</v>
+      </c>
     </row>
     <row r="1006" spans="1:8">
       <c r="A1006" t="s">
@@ -35512,7 +35521,7 @@
         <v>3274</v>
       </c>
       <c r="C1006" t="s">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="D1006" t="s">
         <v>3275</v>
@@ -35524,36 +35533,34 @@
         <v>11</v>
       </c>
       <c r="G1006" t="s">
-        <v>3277</v>
-      </c>
-      <c r="H1006" s="2">
-        <v>45315</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H1006" s="2"/>
     </row>
     <row r="1007" spans="1:8">
       <c r="A1007" t="s">
         <v>935</v>
       </c>
       <c r="B1007" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D1007" t="s">
         <v>3278</v>
       </c>
-      <c r="C1007" t="s">
-        <v>3231</v>
-      </c>
-      <c r="D1007" t="s">
+      <c r="E1007" t="s">
         <v>3279</v>
       </c>
-      <c r="E1007" t="s">
+      <c r="F1007" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1007" t="s">
         <v>3280</v>
       </c>
-      <c r="F1007" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1007" t="s">
-        <v>3281</v>
-      </c>
       <c r="H1007" s="2">
-        <v>45314</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -35561,22 +35568,22 @@
         <v>935</v>
       </c>
       <c r="B1008" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D1008" t="s">
         <v>3282</v>
       </c>
-      <c r="C1008" t="s">
-        <v>3231</v>
-      </c>
-      <c r="D1008" t="s">
-        <v>3279</v>
-      </c>
       <c r="E1008" t="s">
-        <v>3280</v>
+        <v>3283</v>
       </c>
       <c r="F1008" t="s">
         <v>11</v>
       </c>
       <c r="G1008" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="H1008" s="2">
         <v>45314</v>
@@ -35584,54 +35591,54 @@
     </row>
     <row r="1009" spans="1:8">
       <c r="A1009" t="s">
-        <v>1615</v>
+        <v>935</v>
       </c>
       <c r="B1009" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="C1009" t="s">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="D1009" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="E1009" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1009" t="s">
         <v>3286</v>
       </c>
-      <c r="F1009" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1009" t="s">
-        <v>3287</v>
-      </c>
       <c r="H1009" s="2">
-        <v>45317</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
       <c r="A1010" t="s">
-        <v>817</v>
+        <v>1615</v>
       </c>
       <c r="B1010" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D1010" t="s">
         <v>3288</v>
       </c>
-      <c r="C1010" t="s">
-        <v>3231</v>
-      </c>
-      <c r="D1010" t="s">
+      <c r="E1010" t="s">
         <v>3289</v>
       </c>
-      <c r="E1010" t="s">
+      <c r="F1010" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1010" t="s">
         <v>3290</v>
       </c>
-      <c r="F1010" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1010" t="s">
-        <v>3291</v>
-      </c>
       <c r="H1010" s="2">
-        <v>45202</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -35639,25 +35646,25 @@
         <v>817</v>
       </c>
       <c r="B1011" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D1011" t="s">
         <v>3292</v>
       </c>
-      <c r="C1011" t="s">
-        <v>3231</v>
-      </c>
-      <c r="D1011" t="s">
+      <c r="E1011" t="s">
         <v>3293</v>
       </c>
-      <c r="E1011" t="s">
+      <c r="F1011" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1011" t="s">
         <v>3294</v>
       </c>
-      <c r="F1011" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1011" t="s">
-        <v>3295</v>
-      </c>
       <c r="H1011" s="2">
-        <v>45215</v>
+        <v>45202</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -35665,24 +35672,26 @@
         <v>817</v>
       </c>
       <c r="B1012" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D1012" t="s">
         <v>3296</v>
       </c>
-      <c r="C1012" t="s">
-        <v>3231</v>
-      </c>
-      <c r="D1012" t="s">
+      <c r="E1012" t="s">
         <v>3297</v>
       </c>
-      <c r="E1012" t="s">
+      <c r="F1012" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1012" t="s">
         <v>3298</v>
       </c>
-      <c r="F1012" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1012" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1012" s="2"/>
+      <c r="H1012" s="2">
+        <v>45215</v>
+      </c>
     </row>
     <row r="1013" spans="1:8">
       <c r="A1013" t="s">
@@ -35692,47 +35701,71 @@
         <v>3299</v>
       </c>
       <c r="C1013" t="s">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="D1013" t="s">
-        <v>3297</v>
+        <v>3300</v>
       </c>
       <c r="E1013" t="s">
-        <v>3298</v>
+        <v>3301</v>
       </c>
       <c r="F1013" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G1013" t="s">
-        <v>3300</v>
-      </c>
-      <c r="H1013" s="2">
-        <v>45215</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H1013" s="2"/>
     </row>
     <row r="1014" spans="1:8">
       <c r="A1014" t="s">
-        <v>0</v>
+        <v>817</v>
       </c>
       <c r="B1014" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>3300</v>
+      </c>
+      <c r="E1014" t="s">
         <v>3301</v>
-      </c>
-      <c r="C1014" t="s">
-        <v>3231</v>
-      </c>
-      <c r="D1014" t="s">
-        <v>3302</v>
-      </c>
-      <c r="E1014" t="s">
-        <v>3303</v>
       </c>
       <c r="F1014" t="s">
         <v>26</v>
       </c>
       <c r="G1014" t="s">
+        <v>3303</v>
+      </c>
+      <c r="H1014" s="2">
+        <v>45215</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:8">
+      <c r="A1015" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1015" t="s">
         <v>3304</v>
       </c>
-      <c r="H1014" s="2">
+      <c r="C1015" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>3306</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1015" t="s">
+        <v>3307</v>
+      </c>
+      <c r="H1015" s="2">
         <v>45309</v>
       </c>
     </row>

--- a/EXPORT.XLSX
+++ b/EXPORT.XLSX
@@ -2316,6 +2316,21 @@
     <t>0000041824</t>
   </si>
   <si>
+    <t>GOCXZ</t>
+  </si>
+  <si>
+    <t>0000043309</t>
+  </si>
+  <si>
+    <t>3317581</t>
+  </si>
+  <si>
+    <t>YASMIN TAFI BLI 1X21 EG</t>
+  </si>
+  <si>
+    <t>MO reduced.</t>
+  </si>
+  <si>
     <t>0000043297</t>
   </si>
   <si>
@@ -2501,9 +2516,6 @@
     <t>YASMIN TAFI BLI 1X21 AME</t>
   </si>
   <si>
-    <t>GOCXZ</t>
-  </si>
-  <si>
     <t>0000043260</t>
   </si>
   <si>
@@ -3383,22 +3395,10 @@
     <t>Quantity was reduced to 165.888 units.</t>
   </si>
   <si>
-    <t>0000043309</t>
+    <t>0000041961</t>
   </si>
   <si>
     <t>EG</t>
-  </si>
-  <si>
-    <t>3317581</t>
-  </si>
-  <si>
-    <t>YASMIN TAFI BLI 1X21 EG</t>
-  </si>
-  <si>
-    <t>MO reduced.</t>
-  </si>
-  <si>
-    <t>0000041961</t>
   </si>
   <si>
     <t>81748153</t>
@@ -15394,43 +15394,45 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
       <c r="B209" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C209" t="s">
         <v>744</v>
       </c>
       <c r="D209" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E209" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F209" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G209" t="s">
-        <v>2</v>
-      </c>
-      <c r="H209" s="2"/>
+        <v>763</v>
+      </c>
+      <c r="H209" s="2">
+        <v>45327</v>
+      </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>742</v>
       </c>
       <c r="B210" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C210" t="s">
         <v>744</v>
       </c>
       <c r="D210" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E210" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="F210" t="s">
         <v>22</v>
@@ -15445,57 +15447,57 @@
         <v>742</v>
       </c>
       <c r="B211" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C211" t="s">
         <v>744</v>
       </c>
       <c r="D211" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E211" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F211" t="s">
         <v>22</v>
       </c>
       <c r="G211" t="s">
-        <v>768</v>
-      </c>
-      <c r="H211" s="2">
-        <v>45323</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H211" s="2"/>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>742</v>
       </c>
       <c r="B212" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C212" t="s">
         <v>744</v>
       </c>
       <c r="D212" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="E212" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="F212" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G212" t="s">
-        <v>2</v>
-      </c>
-      <c r="H212" s="2"/>
+        <v>773</v>
+      </c>
+      <c r="H212" s="2">
+        <v>45323</v>
+      </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>452</v>
+        <v>742</v>
       </c>
       <c r="B213" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C213" t="s">
         <v>744</v>
@@ -15510,15 +15512,13 @@
         <v>14</v>
       </c>
       <c r="G213" t="s">
-        <v>773</v>
-      </c>
-      <c r="H213" s="2">
-        <v>45316</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H213" s="2"/>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>774</v>
+        <v>452</v>
       </c>
       <c r="B214" t="s">
         <v>775</v>
@@ -15533,112 +15533,112 @@
         <v>777</v>
       </c>
       <c r="F214" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G214" t="s">
-        <v>2</v>
-      </c>
-      <c r="H214" s="2"/>
+        <v>778</v>
+      </c>
+      <c r="H214" s="2">
+        <v>45316</v>
+      </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>0</v>
+        <v>779</v>
       </c>
       <c r="B215" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C215" t="s">
         <v>744</v>
       </c>
       <c r="D215" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="E215" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="F215" t="s">
         <v>5</v>
       </c>
       <c r="G215" t="s">
-        <v>781</v>
-      </c>
-      <c r="H215" s="2">
-        <v>45218</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H215" s="2"/>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="B216" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C216" t="s">
         <v>744</v>
       </c>
       <c r="D216" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E216" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F216" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G216" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H216" s="2">
-        <v>45294</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>774</v>
+        <v>552</v>
       </c>
       <c r="B217" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C217" t="s">
         <v>744</v>
       </c>
       <c r="D217" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E217" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F217" t="s">
         <v>10</v>
       </c>
       <c r="G217" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H217" s="2">
-        <v>45330</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B218" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C218" t="s">
         <v>744</v>
       </c>
       <c r="D218" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E218" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F218" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G218" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H218" s="2">
         <v>45330</v>
@@ -15646,119 +15646,121 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>742</v>
+        <v>779</v>
       </c>
       <c r="B219" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C219" t="s">
         <v>744</v>
       </c>
       <c r="D219" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E219" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F219" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G219" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H219" s="2">
-        <v>45320</v>
+        <v>45330</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>552</v>
+        <v>742</v>
       </c>
       <c r="B220" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C220" t="s">
         <v>744</v>
       </c>
       <c r="D220" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E220" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F220" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G220" t="s">
-        <v>2</v>
-      </c>
-      <c r="H220" s="2"/>
+        <v>802</v>
+      </c>
+      <c r="H220" s="2">
+        <v>45320</v>
+      </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>801</v>
+        <v>552</v>
       </c>
       <c r="B221" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C221" t="s">
         <v>744</v>
       </c>
       <c r="D221" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E221" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F221" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G221" t="s">
-        <v>805</v>
-      </c>
-      <c r="H221" s="2">
-        <v>45307</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H221" s="2"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>742</v>
+        <v>806</v>
       </c>
       <c r="B222" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C222" t="s">
         <v>744</v>
       </c>
       <c r="D222" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E222" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F222" t="s">
         <v>5</v>
       </c>
       <c r="G222" t="s">
-        <v>2</v>
-      </c>
-      <c r="H222" s="2"/>
+        <v>810</v>
+      </c>
+      <c r="H222" s="2">
+        <v>45307</v>
+      </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>742</v>
       </c>
       <c r="B223" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C223" t="s">
         <v>744</v>
       </c>
       <c r="D223" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E223" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F223" t="s">
         <v>5</v>
@@ -15770,83 +15772,81 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="B224" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C224" t="s">
         <v>744</v>
       </c>
       <c r="D224" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E224" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="F224" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G224" t="s">
-        <v>815</v>
-      </c>
-      <c r="H224" s="2">
-        <v>45254</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H224" s="2"/>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>751</v>
       </c>
       <c r="B225" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C225" t="s">
         <v>744</v>
       </c>
       <c r="D225" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E225" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F225" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G225" t="s">
-        <v>2</v>
-      </c>
-      <c r="H225" s="2"/>
+        <v>820</v>
+      </c>
+      <c r="H225" s="2">
+        <v>45254</v>
+      </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>819</v>
+        <v>751</v>
       </c>
       <c r="B226" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C226" t="s">
         <v>744</v>
       </c>
       <c r="D226" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E226" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F226" t="s">
         <v>10</v>
       </c>
       <c r="G226" t="s">
-        <v>823</v>
-      </c>
-      <c r="H226" s="2">
-        <v>45323</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H226" s="2"/>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>819</v>
+        <v>759</v>
       </c>
       <c r="B227" t="s">
         <v>824</v>
@@ -15855,102 +15855,102 @@
         <v>744</v>
       </c>
       <c r="D227" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="E227" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="F227" t="s">
         <v>10</v>
       </c>
       <c r="G227" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="H227" s="2">
-        <v>45331</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>819</v>
+        <v>759</v>
       </c>
       <c r="B228" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C228" t="s">
         <v>744</v>
       </c>
       <c r="D228" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="E228" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="F228" t="s">
         <v>10</v>
       </c>
       <c r="G228" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="H228" s="2">
-        <v>45273</v>
+        <v>45331</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>819</v>
+        <v>759</v>
       </c>
       <c r="B229" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C229" t="s">
         <v>744</v>
       </c>
       <c r="D229" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="E229" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="F229" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G229" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="H229" s="2">
-        <v>45253</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>552</v>
+        <v>759</v>
       </c>
       <c r="B230" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C230" t="s">
         <v>744</v>
       </c>
       <c r="D230" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="E230" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="F230" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G230" t="s">
         <v>833</v>
       </c>
       <c r="H230" s="2">
-        <v>45323</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>742</v>
+        <v>552</v>
       </c>
       <c r="B231" t="s">
         <v>834</v>
@@ -15971,7 +15971,7 @@
         <v>837</v>
       </c>
       <c r="H231" s="2">
-        <v>45282</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -15991,13 +15991,13 @@
         <v>840</v>
       </c>
       <c r="F232" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G232" t="s">
         <v>841</v>
       </c>
       <c r="H232" s="2">
-        <v>45314</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -16017,13 +16017,13 @@
         <v>844</v>
       </c>
       <c r="F233" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G233" t="s">
         <v>845</v>
       </c>
       <c r="H233" s="2">
-        <v>45330</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -16043,13 +16043,13 @@
         <v>848</v>
       </c>
       <c r="F234" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G234" t="s">
         <v>849</v>
       </c>
       <c r="H234" s="2">
-        <v>45322</v>
+        <v>45330</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -16069,31 +16069,33 @@
         <v>852</v>
       </c>
       <c r="F235" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G235" t="s">
-        <v>2</v>
-      </c>
-      <c r="H235" s="2"/>
+        <v>853</v>
+      </c>
+      <c r="H235" s="2">
+        <v>45322</v>
+      </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>742</v>
       </c>
       <c r="B236" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C236" t="s">
         <v>744</v>
       </c>
       <c r="D236" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E236" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F236" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G236" t="s">
         <v>2</v>
@@ -16105,19 +16107,19 @@
         <v>742</v>
       </c>
       <c r="B237" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C237" t="s">
         <v>744</v>
       </c>
       <c r="D237" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E237" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F237" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G237" t="s">
         <v>2</v>
@@ -16129,26 +16131,24 @@
         <v>742</v>
       </c>
       <c r="B238" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C238" t="s">
         <v>744</v>
       </c>
       <c r="D238" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E238" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F238" t="s">
         <v>5</v>
       </c>
       <c r="G238" t="s">
-        <v>862</v>
-      </c>
-      <c r="H238" s="2">
-        <v>45321</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H238" s="2"/>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
@@ -16167,16 +16167,18 @@
         <v>865</v>
       </c>
       <c r="F239" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G239" t="s">
-        <v>2</v>
-      </c>
-      <c r="H239" s="2"/>
+        <v>866</v>
+      </c>
+      <c r="H239" s="2">
+        <v>45321</v>
+      </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>866</v>
+        <v>742</v>
       </c>
       <c r="B240" t="s">
         <v>867</v>
@@ -16194,15 +16196,13 @@
         <v>14</v>
       </c>
       <c r="G240" t="s">
-        <v>870</v>
-      </c>
-      <c r="H240" s="2">
-        <v>45331</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H240" s="2"/>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="B241" t="s">
         <v>871</v>
@@ -16217,39 +16217,39 @@
         <v>873</v>
       </c>
       <c r="F241" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G241" t="s">
-        <v>192</v>
+        <v>874</v>
       </c>
       <c r="H241" s="2">
-        <v>45261</v>
+        <v>45331</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>751</v>
+        <v>870</v>
       </c>
       <c r="B242" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C242" t="s">
         <v>744</v>
       </c>
       <c r="D242" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E242" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F242" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G242" t="s">
-        <v>877</v>
+        <v>192</v>
       </c>
       <c r="H242" s="2">
-        <v>45279</v>
+        <v>45261</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -16275,12 +16275,12 @@
         <v>881</v>
       </c>
       <c r="H243" s="2">
-        <v>45303</v>
+        <v>45279</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>48</v>
+        <v>751</v>
       </c>
       <c r="B244" t="s">
         <v>882</v>
@@ -16298,25 +16298,27 @@
         <v>5</v>
       </c>
       <c r="G244" t="s">
-        <v>2</v>
-      </c>
-      <c r="H244" s="2"/>
+        <v>885</v>
+      </c>
+      <c r="H244" s="2">
+        <v>45303</v>
+      </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>751</v>
+        <v>48</v>
       </c>
       <c r="B245" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C245" t="s">
         <v>744</v>
       </c>
       <c r="D245" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E245" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F245" t="s">
         <v>5</v>
@@ -16328,7 +16330,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>888</v>
+        <v>751</v>
       </c>
       <c r="B246" t="s">
         <v>889</v>
@@ -16343,70 +16345,68 @@
         <v>891</v>
       </c>
       <c r="F246" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G246" t="s">
-        <v>892</v>
-      </c>
-      <c r="H246" s="2">
-        <v>45310</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H246" s="2"/>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
+        <v>892</v>
+      </c>
+      <c r="B247" t="s">
         <v>893</v>
-      </c>
-      <c r="B247" t="s">
-        <v>894</v>
       </c>
       <c r="C247" t="s">
         <v>744</v>
       </c>
       <c r="D247" t="s">
+        <v>894</v>
+      </c>
+      <c r="E247" t="s">
         <v>895</v>
-      </c>
-      <c r="E247" t="s">
-        <v>896</v>
       </c>
       <c r="F247" t="s">
         <v>22</v>
       </c>
       <c r="G247" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H247" s="2">
-        <v>45331</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
+        <v>897</v>
+      </c>
+      <c r="B248" t="s">
         <v>898</v>
-      </c>
-      <c r="B248" t="s">
-        <v>899</v>
       </c>
       <c r="C248" t="s">
         <v>744</v>
       </c>
       <c r="D248" t="s">
+        <v>899</v>
+      </c>
+      <c r="E248" t="s">
         <v>900</v>
       </c>
-      <c r="E248" t="s">
+      <c r="F248" t="s">
+        <v>22</v>
+      </c>
+      <c r="G248" t="s">
         <v>901</v>
       </c>
-      <c r="F248" t="s">
-        <v>5</v>
-      </c>
-      <c r="G248" t="s">
-        <v>902</v>
-      </c>
       <c r="H248" s="2">
-        <v>45279</v>
+        <v>45331</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>86</v>
+        <v>902</v>
       </c>
       <c r="B249" t="s">
         <v>903</v>
@@ -16432,7 +16432,7 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B250" t="s">
         <v>907</v>
@@ -16453,7 +16453,7 @@
         <v>910</v>
       </c>
       <c r="H250" s="2">
-        <v>45323</v>
+        <v>45279</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -16473,13 +16473,13 @@
         <v>913</v>
       </c>
       <c r="F251" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G251" t="s">
         <v>914</v>
       </c>
       <c r="H251" s="2">
-        <v>45328</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -16499,13 +16499,13 @@
         <v>917</v>
       </c>
       <c r="F252" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G252" t="s">
         <v>918</v>
       </c>
       <c r="H252" s="2">
-        <v>45323</v>
+        <v>45328</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -16525,13 +16525,13 @@
         <v>921</v>
       </c>
       <c r="F253" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G253" t="s">
         <v>922</v>
       </c>
       <c r="H253" s="2">
-        <v>45331</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -16551,13 +16551,13 @@
         <v>925</v>
       </c>
       <c r="F254" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G254" t="s">
         <v>926</v>
       </c>
       <c r="H254" s="2">
-        <v>45323</v>
+        <v>45331</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -16571,19 +16571,19 @@
         <v>744</v>
       </c>
       <c r="D255" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="E255" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="F255" t="s">
         <v>5</v>
       </c>
       <c r="G255" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="H255" s="2">
-        <v>45308</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -16591,16 +16591,16 @@
         <v>123</v>
       </c>
       <c r="B256" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C256" t="s">
         <v>744</v>
       </c>
       <c r="D256" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E256" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F256" t="s">
         <v>5</v>
@@ -16687,7 +16687,7 @@
         <v>944</v>
       </c>
       <c r="H259" s="2">
-        <v>45322</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -16710,10 +16710,10 @@
         <v>5</v>
       </c>
       <c r="G260" t="s">
-        <v>922</v>
+        <v>948</v>
       </c>
       <c r="H260" s="2">
-        <v>45331</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -16721,25 +16721,25 @@
         <v>123</v>
       </c>
       <c r="B261" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C261" t="s">
         <v>744</v>
       </c>
       <c r="D261" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E261" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F261" t="s">
         <v>5</v>
       </c>
       <c r="G261" t="s">
-        <v>951</v>
+        <v>926</v>
       </c>
       <c r="H261" s="2">
-        <v>45328</v>
+        <v>45331</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -16765,12 +16765,12 @@
         <v>955</v>
       </c>
       <c r="H262" s="2">
-        <v>45323</v>
+        <v>45328</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>479</v>
+        <v>123</v>
       </c>
       <c r="B263" t="s">
         <v>956</v>
@@ -16782,33 +16782,33 @@
         <v>957</v>
       </c>
       <c r="E263" t="s">
-        <v>285</v>
+        <v>958</v>
       </c>
       <c r="F263" t="s">
         <v>5</v>
       </c>
       <c r="G263" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H263" s="2">
-        <v>45308</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>123</v>
+        <v>479</v>
       </c>
       <c r="B264" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C264" t="s">
         <v>744</v>
       </c>
       <c r="D264" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E264" t="s">
-        <v>961</v>
+        <v>285</v>
       </c>
       <c r="F264" t="s">
         <v>5</v>
@@ -16822,33 +16822,33 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
+        <v>123</v>
+      </c>
+      <c r="B265" t="s">
         <v>963</v>
-      </c>
-      <c r="B265" t="s">
-        <v>964</v>
       </c>
       <c r="C265" t="s">
         <v>744</v>
       </c>
       <c r="D265" t="s">
+        <v>964</v>
+      </c>
+      <c r="E265" t="s">
         <v>965</v>
       </c>
-      <c r="E265" t="s">
+      <c r="F265" t="s">
+        <v>5</v>
+      </c>
+      <c r="G265" t="s">
         <v>966</v>
       </c>
-      <c r="F265" t="s">
-        <v>22</v>
-      </c>
-      <c r="G265" t="s">
-        <v>967</v>
-      </c>
       <c r="H265" s="2">
-        <v>45314</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>86</v>
+        <v>967</v>
       </c>
       <c r="B266" t="s">
         <v>968</v>
@@ -16863,13 +16863,13 @@
         <v>970</v>
       </c>
       <c r="F266" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G266" t="s">
         <v>971</v>
       </c>
       <c r="H266" s="2">
-        <v>45329</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -16892,7 +16892,7 @@
         <v>14</v>
       </c>
       <c r="G267" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="H267" s="2">
         <v>45329</v>
@@ -16903,25 +16903,25 @@
         <v>86</v>
       </c>
       <c r="B268" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C268" t="s">
         <v>744</v>
       </c>
       <c r="D268" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E268" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F268" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G268" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="H268" s="2">
-        <v>45279</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -16935,19 +16935,19 @@
         <v>744</v>
       </c>
       <c r="D269" t="s">
-        <v>102</v>
+        <v>980</v>
       </c>
       <c r="E269" t="s">
-        <v>103</v>
+        <v>981</v>
       </c>
       <c r="F269" t="s">
         <v>5</v>
       </c>
       <c r="G269" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="H269" s="2">
-        <v>45329</v>
+        <v>45279</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -16955,16 +16955,16 @@
         <v>86</v>
       </c>
       <c r="B270" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C270" t="s">
         <v>744</v>
       </c>
       <c r="D270" t="s">
-        <v>982</v>
+        <v>102</v>
       </c>
       <c r="E270" t="s">
-        <v>983</v>
+        <v>103</v>
       </c>
       <c r="F270" t="s">
         <v>5</v>
@@ -16990,13 +16990,13 @@
         <v>986</v>
       </c>
       <c r="E271" t="s">
-        <v>636</v>
+        <v>987</v>
       </c>
       <c r="F271" t="s">
         <v>5</v>
       </c>
       <c r="G271" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
       <c r="H271" s="2">
         <v>45329</v>
@@ -17007,22 +17007,22 @@
         <v>86</v>
       </c>
       <c r="B272" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C272" t="s">
         <v>744</v>
       </c>
       <c r="D272" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E272" t="s">
-        <v>989</v>
+        <v>636</v>
       </c>
       <c r="F272" t="s">
         <v>5</v>
       </c>
       <c r="G272" t="s">
-        <v>622</v>
+        <v>984</v>
       </c>
       <c r="H272" s="2">
         <v>45329</v>
@@ -17030,28 +17030,28 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>742</v>
+        <v>86</v>
       </c>
       <c r="B273" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C273" t="s">
         <v>744</v>
       </c>
       <c r="D273" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E273" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F273" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G273" t="s">
-        <v>993</v>
+        <v>622</v>
       </c>
       <c r="H273" s="2">
-        <v>45301</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -17074,35 +17074,35 @@
         <v>14</v>
       </c>
       <c r="G274" t="s">
-        <v>2</v>
-      </c>
-      <c r="H274" s="2"/>
+        <v>997</v>
+      </c>
+      <c r="H274" s="2">
+        <v>45301</v>
+      </c>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>572</v>
+        <v>742</v>
       </c>
       <c r="B275" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C275" t="s">
         <v>744</v>
       </c>
       <c r="D275" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E275" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F275" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G275" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H275" s="2">
-        <v>45316</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H275" s="2"/>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" t="s">
@@ -17132,33 +17132,33 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" t="s">
+        <v>572</v>
+      </c>
+      <c r="B277" t="s">
         <v>1005</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1006</v>
       </c>
       <c r="C277" t="s">
         <v>744</v>
       </c>
       <c r="D277" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E277" t="s">
         <v>1007</v>
-      </c>
-      <c r="E277" t="s">
-        <v>1008</v>
       </c>
       <c r="F277" t="s">
         <v>22</v>
       </c>
       <c r="G277" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H277" s="2">
-        <v>45275</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>86</v>
+        <v>1009</v>
       </c>
       <c r="B278" t="s">
         <v>1010</v>
@@ -17167,50 +17167,50 @@
         <v>744</v>
       </c>
       <c r="D278" t="s">
-        <v>110</v>
+        <v>1011</v>
       </c>
       <c r="E278" t="s">
-        <v>111</v>
+        <v>1012</v>
       </c>
       <c r="F278" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G278" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="H278" s="2">
-        <v>45323</v>
+        <v>45275</v>
       </c>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>898</v>
+        <v>86</v>
       </c>
       <c r="B279" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C279" t="s">
         <v>744</v>
       </c>
       <c r="D279" t="s">
-        <v>1013</v>
+        <v>110</v>
       </c>
       <c r="E279" t="s">
-        <v>1014</v>
+        <v>111</v>
       </c>
       <c r="F279" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G279" t="s">
         <v>1015</v>
       </c>
       <c r="H279" s="2">
-        <v>45314</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>742</v>
+        <v>902</v>
       </c>
       <c r="B280" t="s">
         <v>1016</v>
@@ -17228,10 +17228,10 @@
         <v>22</v>
       </c>
       <c r="G280" t="s">
-        <v>697</v>
+        <v>1019</v>
       </c>
       <c r="H280" s="2">
-        <v>45322</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -17239,54 +17239,54 @@
         <v>742</v>
       </c>
       <c r="B281" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C281" t="s">
         <v>744</v>
       </c>
       <c r="D281" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E281" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F281" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G281" t="s">
-        <v>2</v>
-      </c>
-      <c r="H281" s="2"/>
+        <v>697</v>
+      </c>
+      <c r="H281" s="2">
+        <v>45322</v>
+      </c>
     </row>
     <row r="282" spans="1:8">
       <c r="A282" t="s">
         <v>742</v>
       </c>
       <c r="B282" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C282" t="s">
         <v>744</v>
       </c>
       <c r="D282" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E282" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F282" t="s">
         <v>5</v>
       </c>
       <c r="G282" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H282" s="2">
-        <v>45322</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H282" s="2"/>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="B283" t="s">
         <v>1026</v>
@@ -17304,35 +17304,35 @@
         <v>5</v>
       </c>
       <c r="G283" t="s">
-        <v>2</v>
-      </c>
-      <c r="H283" s="2"/>
+        <v>1029</v>
+      </c>
+      <c r="H283" s="2">
+        <v>45322</v>
+      </c>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>123</v>
+        <v>751</v>
       </c>
       <c r="B284" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C284" t="s">
         <v>744</v>
       </c>
       <c r="D284" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E284" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F284" t="s">
         <v>5</v>
       </c>
       <c r="G284" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H284" s="2">
-        <v>45282</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H284" s="2"/>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
@@ -17357,12 +17357,12 @@
         <v>1036</v>
       </c>
       <c r="H285" s="2">
-        <v>45317</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="B286" t="s">
         <v>1037</v>
@@ -17383,7 +17383,7 @@
         <v>1040</v>
       </c>
       <c r="H286" s="2">
-        <v>45274</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -17429,22 +17429,24 @@
         <v>1047</v>
       </c>
       <c r="F288" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G288" t="s">
-        <v>2</v>
-      </c>
-      <c r="H288" s="2"/>
+        <v>1048</v>
+      </c>
+      <c r="H288" s="2">
+        <v>45274</v>
+      </c>
     </row>
     <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>730</v>
+        <v>86</v>
       </c>
       <c r="B289" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C289" t="s">
-        <v>1049</v>
+        <v>744</v>
       </c>
       <c r="D289" t="s">
         <v>1050</v>
@@ -17453,7 +17455,7 @@
         <v>1051</v>
       </c>
       <c r="F289" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G289" t="s">
         <v>2</v>
@@ -17462,91 +17464,89 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>86</v>
+        <v>730</v>
       </c>
       <c r="B290" t="s">
         <v>1052</v>
       </c>
       <c r="C290" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="D290" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E290" t="s">
-        <v>564</v>
+        <v>1055</v>
       </c>
       <c r="F290" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G290" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H290" s="2">
-        <v>45328</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H290" s="2"/>
     </row>
     <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>86</v>
       </c>
       <c r="B291" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C291" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="D291" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E291" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="F291" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G291" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H291" s="2">
-        <v>45279</v>
+        <v>45328</v>
       </c>
     </row>
     <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>730</v>
+        <v>86</v>
       </c>
       <c r="B292" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C292" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="D292" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E292" t="s">
-        <v>1060</v>
+        <v>558</v>
       </c>
       <c r="F292" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G292" t="s">
         <v>1061</v>
       </c>
       <c r="H292" s="2">
-        <v>45314</v>
+        <v>45279</v>
       </c>
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>86</v>
+        <v>730</v>
       </c>
       <c r="B293" t="s">
         <v>1062</v>
       </c>
       <c r="C293" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="D293" t="s">
         <v>1063</v>
@@ -17558,77 +17558,79 @@
         <v>5</v>
       </c>
       <c r="G293" t="s">
-        <v>2</v>
+        <v>1065</v>
       </c>
       <c r="H293" s="2">
-        <v>45330</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>730</v>
+        <v>86</v>
       </c>
       <c r="B294" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C294" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="D294" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="E294" t="s">
-        <v>736</v>
+        <v>1068</v>
       </c>
       <c r="F294" t="s">
         <v>5</v>
       </c>
       <c r="G294" t="s">
-        <v>1067</v>
+        <v>2</v>
       </c>
       <c r="H294" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>216</v>
+        <v>730</v>
       </c>
       <c r="B295" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C295" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="D295" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E295" t="s">
-        <v>1070</v>
+        <v>736</v>
       </c>
       <c r="F295" t="s">
         <v>5</v>
       </c>
       <c r="G295" t="s">
-        <v>2</v>
-      </c>
-      <c r="H295" s="2"/>
+        <v>1071</v>
+      </c>
+      <c r="H295" s="2">
+        <v>45328</v>
+      </c>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>538</v>
+        <v>216</v>
       </c>
       <c r="B296" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C296" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="D296" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E296" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F296" t="s">
         <v>5</v>
@@ -17636,19 +17638,17 @@
       <c r="G296" t="s">
         <v>2</v>
       </c>
-      <c r="H296" s="2">
-        <v>45307</v>
-      </c>
+      <c r="H296" s="2"/>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="B297" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C297" t="s">
-        <v>1075</v>
+        <v>1053</v>
       </c>
       <c r="D297" t="s">
         <v>1076</v>
@@ -17660,10 +17660,10 @@
         <v>5</v>
       </c>
       <c r="G297" t="s">
-        <v>1078</v>
+        <v>2</v>
       </c>
       <c r="H297" s="2">
-        <v>45310</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -17671,10 +17671,10 @@
         <v>0</v>
       </c>
       <c r="B298" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C298" t="s">
         <v>1079</v>
-      </c>
-      <c r="C298" t="s">
-        <v>1075</v>
       </c>
       <c r="D298" t="s">
         <v>1080</v>
@@ -17686,28 +17686,30 @@
         <v>5</v>
       </c>
       <c r="G298" t="s">
-        <v>2</v>
-      </c>
-      <c r="H298" s="2"/>
+        <v>1082</v>
+      </c>
+      <c r="H298" s="2">
+        <v>45310</v>
+      </c>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>0</v>
       </c>
       <c r="B299" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C299" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="D299" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E299" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="F299" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G299" t="s">
         <v>2</v>
@@ -17716,39 +17718,37 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>819</v>
+        <v>0</v>
       </c>
       <c r="B300" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C300" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="D300" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E300" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="F300" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G300" t="s">
-        <v>1088</v>
-      </c>
-      <c r="H300" s="2">
-        <v>45275</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H300" s="2"/>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>730</v>
+        <v>759</v>
       </c>
       <c r="B301" t="s">
         <v>1089</v>
       </c>
       <c r="C301" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="D301" t="s">
         <v>1090</v>
@@ -17760,45 +17760,45 @@
         <v>5</v>
       </c>
       <c r="G301" t="s">
-        <v>2</v>
-      </c>
-      <c r="H301" s="2"/>
+        <v>1092</v>
+      </c>
+      <c r="H301" s="2">
+        <v>45275</v>
+      </c>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>819</v>
+        <v>730</v>
       </c>
       <c r="B302" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C302" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="D302" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E302" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="F302" t="s">
         <v>5</v>
       </c>
       <c r="G302" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H302" s="2">
-        <v>45279</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H302" s="2"/>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" t="s">
-        <v>819</v>
+        <v>759</v>
       </c>
       <c r="B303" t="s">
         <v>1096</v>
       </c>
       <c r="C303" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="D303" t="s">
         <v>1097</v>
@@ -17807,22 +17807,24 @@
         <v>1098</v>
       </c>
       <c r="F303" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G303" t="s">
-        <v>2</v>
-      </c>
-      <c r="H303" s="2"/>
+        <v>1099</v>
+      </c>
+      <c r="H303" s="2">
+        <v>45279</v>
+      </c>
     </row>
     <row r="304" spans="1:8">
       <c r="A304" t="s">
-        <v>452</v>
+        <v>759</v>
       </c>
       <c r="B304" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C304" t="s">
-        <v>1100</v>
+        <v>1079</v>
       </c>
       <c r="D304" t="s">
         <v>1101</v>
@@ -17831,76 +17833,74 @@
         <v>1102</v>
       </c>
       <c r="F304" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G304" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H304" s="2">
-        <v>45327</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H304" s="2"/>
     </row>
     <row r="305" spans="1:8">
       <c r="A305" t="s">
+        <v>452</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C305" t="s">
         <v>1104</v>
       </c>
-      <c r="B305" t="s">
+      <c r="D305" t="s">
         <v>1105</v>
       </c>
-      <c r="C305" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D305" t="s">
+      <c r="E305" t="s">
         <v>1106</v>
-      </c>
-      <c r="E305" t="s">
-        <v>1107</v>
       </c>
       <c r="F305" t="s">
         <v>10</v>
       </c>
       <c r="G305" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H305" s="2">
-        <v>45328</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>819</v>
+        <v>1108</v>
       </c>
       <c r="B306" t="s">
         <v>1109</v>
       </c>
       <c r="C306" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D306" t="s">
         <v>1110</v>
       </c>
-      <c r="D306" t="s">
+      <c r="E306" t="s">
         <v>1111</v>
-      </c>
-      <c r="E306" t="s">
-        <v>1112</v>
       </c>
       <c r="F306" t="s">
         <v>10</v>
       </c>
       <c r="G306" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H306" s="2">
-        <v>45327</v>
+        <v>45328</v>
       </c>
     </row>
     <row r="307" spans="1:8">
       <c r="A307" t="s">
-        <v>819</v>
+        <v>759</v>
       </c>
       <c r="B307" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C307" t="s">
         <v>1114</v>
-      </c>
-      <c r="C307" t="s">
-        <v>1110</v>
       </c>
       <c r="D307" t="s">
         <v>1115</v>
@@ -18940,13 +18940,13 @@
         <v>1239</v>
       </c>
       <c r="E348" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="F348" t="s">
         <v>5</v>
       </c>
       <c r="G348" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="H348" s="2">
         <v>45308</v>
@@ -18972,7 +18972,7 @@
         <v>5</v>
       </c>
       <c r="G349" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="H349" s="2">
         <v>45308</v>
@@ -20006,7 +20006,7 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="B391" t="s">
         <v>1365</v>
@@ -20030,7 +20030,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="B392" t="s">
         <v>1368</v>
@@ -20440,7 +20440,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="B408" t="s">
         <v>1417</v>
@@ -20812,7 +20812,7 @@
         <v>5</v>
       </c>
       <c r="G422" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="H422" s="2">
         <v>45244</v>
@@ -20858,7 +20858,7 @@
         <v>1475</v>
       </c>
       <c r="E424" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="F424" t="s">
         <v>5</v>
@@ -20922,7 +20922,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B427" t="s">
         <v>1487</v>
@@ -20948,7 +20948,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B428" t="s">
         <v>1491</v>
@@ -20974,7 +20974,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B429" t="s">
         <v>1492</v>
@@ -25378,7 +25378,7 @@
     </row>
     <row r="602" spans="1:8">
       <c r="A602" t="s">
-        <v>819</v>
+        <v>759</v>
       </c>
       <c r="B602" t="s">
         <v>2063</v>
@@ -25404,7 +25404,7 @@
     </row>
     <row r="603" spans="1:8">
       <c r="A603" t="s">
-        <v>819</v>
+        <v>759</v>
       </c>
       <c r="B603" t="s">
         <v>2068</v>
@@ -25528,7 +25528,7 @@
     </row>
     <row r="608" spans="1:8">
       <c r="A608" t="s">
-        <v>819</v>
+        <v>759</v>
       </c>
       <c r="B608" t="s">
         <v>2082</v>
@@ -26626,7 +26626,7 @@
         <v>5</v>
       </c>
       <c r="G651" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="H651" s="2">
         <v>45279</v>
@@ -28012,7 +28012,7 @@
     </row>
     <row r="708" spans="1:8">
       <c r="A708" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="B708" t="s">
         <v>2380</v>
@@ -28038,7 +28038,7 @@
     </row>
     <row r="709" spans="1:8">
       <c r="A709" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="B709" t="s">
         <v>2383</v>
@@ -29804,7 +29804,7 @@
     </row>
     <row r="778" spans="1:8">
       <c r="A778" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="B778" t="s">
         <v>2627</v>
@@ -30253,7 +30253,7 @@
         <v>2663</v>
       </c>
       <c r="D795" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="E795" t="s">
         <v>558</v>
@@ -30303,10 +30303,10 @@
         <v>2663</v>
       </c>
       <c r="D797" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="E797" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="F797" t="s">
         <v>5</v>
@@ -30509,10 +30509,10 @@
         <v>2663</v>
       </c>
       <c r="D805" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E805" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="F805" t="s">
         <v>5</v>
@@ -31558,7 +31558,7 @@
         <v>2834</v>
       </c>
       <c r="E847" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="F847" t="s">
         <v>5</v>
@@ -32500,7 +32500,7 @@
     </row>
     <row r="885" spans="1:8">
       <c r="A885" t="s">
-        <v>819</v>
+        <v>759</v>
       </c>
       <c r="B885" t="s">
         <v>2956</v>
@@ -32526,7 +32526,7 @@
     </row>
     <row r="886" spans="1:8">
       <c r="A886" t="s">
-        <v>819</v>
+        <v>759</v>
       </c>
       <c r="B886" t="s">
         <v>2960</v>
@@ -32552,7 +32552,7 @@
     </row>
     <row r="887" spans="1:8">
       <c r="A887" t="s">
-        <v>819</v>
+        <v>759</v>
       </c>
       <c r="B887" t="s">
         <v>2964</v>
@@ -32578,7 +32578,7 @@
     </row>
     <row r="888" spans="1:8">
       <c r="A888" t="s">
-        <v>819</v>
+        <v>759</v>
       </c>
       <c r="B888" t="s">
         <v>2968</v>
@@ -33586,7 +33586,7 @@
     </row>
     <row r="928" spans="1:8">
       <c r="A928" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="B928" t="s">
         <v>3098</v>
@@ -34186,7 +34186,7 @@
         <v>3178</v>
       </c>
       <c r="E951" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="F951" t="s">
         <v>5</v>
@@ -34212,7 +34212,7 @@
         <v>3178</v>
       </c>
       <c r="E952" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="F952" t="s">
         <v>5</v>

--- a/EXPORT.XLSX
+++ b/EXPORT.XLSX
@@ -34157,7 +34157,7 @@
         <v>3120</v>
       </c>
       <c r="H956" s="2">
-        <v>45343</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -34183,7 +34183,7 @@
         <v>3120</v>
       </c>
       <c r="H957" s="2">
-        <v>45343</v>
+        <v>45353</v>
       </c>
     </row>
     <row r="958" spans="1:8">

--- a/EXPORT.XLSX
+++ b/EXPORT.XLSX
@@ -22143,7 +22143,7 @@
         <v>1643</v>
       </c>
       <c r="H489" s="2">
-        <v>45357</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="490" spans="1:8">

--- a/EXPORT.XLSX
+++ b/EXPORT.XLSX
@@ -4967,8 +4967,7 @@
     <t>85958240</t>
   </si>
   <si>
-    <t>Oder hast been moved as requested and qty increased. 
-Order however, seems to be too late according to maintained MDATs.</t>
+    <t>Order has been preponed again to beginning of June</t>
   </si>
   <si>
     <t>0000044221</t>
@@ -21785,7 +21784,7 @@
         <v>1633</v>
       </c>
       <c r="H473" s="2">
-        <v>45365</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="474" spans="1:8">

--- a/EXPORT.XLSX
+++ b/EXPORT.XLSX
@@ -3973,6 +3973,15 @@
     <t>Order advanced by some days. Release expedited.</t>
   </si>
   <si>
+    <t>0000044688</t>
+  </si>
+  <si>
+    <t>90011396</t>
+  </si>
+  <si>
+    <t>KOVALTRY LYO 250 IU VA</t>
+  </si>
+  <si>
     <t>0000044372</t>
   </si>
   <si>
@@ -4803,15 +4812,6 @@
   </si>
   <si>
     <t>Unfortunately no advancement possible.</t>
-  </si>
-  <si>
-    <t>0000044408</t>
-  </si>
-  <si>
-    <t>64030737</t>
-  </si>
-  <si>
-    <t>YAZ TAFI BLI 1X28 IT</t>
   </si>
   <si>
     <t>0000044064</t>
@@ -18935,7 +18935,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B365" t="s">
         <v>1307</v>
@@ -18959,51 +18959,49 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" t="s">
+        <v>412</v>
+      </c>
+      <c r="B366" t="s">
         <v>1310</v>
       </c>
-      <c r="B366" t="s">
+      <c r="C366" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D366" t="s">
         <v>1311</v>
       </c>
-      <c r="C366" t="s">
+      <c r="E366" t="s">
         <v>1312</v>
       </c>
-      <c r="D366" t="s">
-        <v>1313</v>
-      </c>
-      <c r="E366" t="s">
-        <v>1314</v>
-      </c>
       <c r="F366" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G366" t="s">
-        <v>1315</v>
-      </c>
-      <c r="H366" s="2">
-        <v>45378</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H366" s="2"/>
     </row>
     <row r="367" spans="1:8">
       <c r="A367" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="B367" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D367" t="s">
         <v>1316</v>
       </c>
-      <c r="C367" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D367" t="s">
-        <v>1313</v>
-      </c>
       <c r="E367" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="F367" t="s">
         <v>11</v>
       </c>
       <c r="G367" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="H367" s="2">
         <v>45378</v>
@@ -19011,37 +19009,39 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E368" t="s">
         <v>1317</v>
       </c>
-      <c r="B368" t="s">
+      <c r="F368" t="s">
+        <v>11</v>
+      </c>
+      <c r="G368" t="s">
         <v>1318</v>
       </c>
-      <c r="C368" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D368" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E368" t="s">
-        <v>1321</v>
-      </c>
-      <c r="F368" t="s">
-        <v>47</v>
-      </c>
-      <c r="G368" t="s">
-        <v>2</v>
-      </c>
-      <c r="H368" s="2"/>
+      <c r="H368" s="2">
+        <v>45378</v>
+      </c>
     </row>
     <row r="369" spans="1:8">
       <c r="A369" t="s">
-        <v>532</v>
+        <v>1320</v>
       </c>
       <c r="B369" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C369" t="s">
         <v>1322</v>
-      </c>
-      <c r="C369" t="s">
-        <v>1319</v>
       </c>
       <c r="D369" t="s">
         <v>1323</v>
@@ -19050,36 +19050,34 @@
         <v>1324</v>
       </c>
       <c r="F369" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="G369" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H369" s="2">
-        <v>45379</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H369" s="2"/>
     </row>
     <row r="370" spans="1:8">
       <c r="A370" t="s">
         <v>532</v>
       </c>
       <c r="B370" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D370" t="s">
         <v>1326</v>
       </c>
-      <c r="C370" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D370" t="s">
-        <v>1323</v>
-      </c>
       <c r="E370" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="F370" t="s">
         <v>5</v>
       </c>
       <c r="G370" t="s">
-        <v>2</v>
+        <v>1328</v>
       </c>
       <c r="H370" s="2">
         <v>45379</v>
@@ -19090,22 +19088,22 @@
         <v>532</v>
       </c>
       <c r="B371" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E371" t="s">
         <v>1327</v>
       </c>
-      <c r="C371" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D371" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E371" t="s">
-        <v>1324</v>
-      </c>
       <c r="F371" t="s">
         <v>5</v>
       </c>
       <c r="G371" t="s">
-        <v>1328</v>
+        <v>2</v>
       </c>
       <c r="H371" s="2">
         <v>45379</v>
@@ -19113,45 +19111,45 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B372" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C372" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="D372" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="E372" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F372" t="s">
+        <v>5</v>
+      </c>
+      <c r="G372" t="s">
         <v>1331</v>
       </c>
-      <c r="F372" t="s">
-        <v>5</v>
-      </c>
-      <c r="G372" t="s">
-        <v>1332</v>
-      </c>
       <c r="H372" s="2">
-        <v>45362</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="373" spans="1:8">
       <c r="A373" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B373" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D373" t="s">
         <v>1333</v>
       </c>
-      <c r="C373" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D373" t="s">
+      <c r="E373" t="s">
         <v>1334</v>
-      </c>
-      <c r="E373" t="s">
-        <v>37</v>
       </c>
       <c r="F373" t="s">
         <v>5</v>
@@ -19160,7 +19158,7 @@
         <v>1335</v>
       </c>
       <c r="H373" s="2">
-        <v>45379</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -19171,19 +19169,19 @@
         <v>1336</v>
       </c>
       <c r="C374" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="D374" t="s">
         <v>1337</v>
       </c>
       <c r="E374" t="s">
+        <v>37</v>
+      </c>
+      <c r="F374" t="s">
+        <v>5</v>
+      </c>
+      <c r="G374" t="s">
         <v>1338</v>
-      </c>
-      <c r="F374" t="s">
-        <v>5</v>
-      </c>
-      <c r="G374" t="s">
-        <v>1339</v>
       </c>
       <c r="H374" s="2">
         <v>45379</v>
@@ -19194,25 +19192,25 @@
         <v>532</v>
       </c>
       <c r="B375" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D375" t="s">
         <v>1340</v>
       </c>
-      <c r="C375" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D375" t="s">
+      <c r="E375" t="s">
         <v>1341</v>
       </c>
-      <c r="E375" t="s">
+      <c r="F375" t="s">
+        <v>5</v>
+      </c>
+      <c r="G375" t="s">
         <v>1342</v>
       </c>
-      <c r="F375" t="s">
-        <v>5</v>
-      </c>
-      <c r="G375" t="s">
-        <v>1343</v>
-      </c>
       <c r="H375" s="2">
-        <v>45372</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -19220,24 +19218,26 @@
         <v>532</v>
       </c>
       <c r="B376" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D376" t="s">
         <v>1344</v>
       </c>
-      <c r="C376" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D376" t="s">
+      <c r="E376" t="s">
         <v>1345</v>
       </c>
-      <c r="E376" t="s">
+      <c r="F376" t="s">
+        <v>5</v>
+      </c>
+      <c r="G376" t="s">
         <v>1346</v>
       </c>
-      <c r="F376" t="s">
-        <v>5</v>
-      </c>
-      <c r="G376" t="s">
-        <v>2</v>
-      </c>
-      <c r="H376" s="2"/>
+      <c r="H376" s="2">
+        <v>45372</v>
+      </c>
     </row>
     <row r="377" spans="1:8">
       <c r="A377" t="s">
@@ -19247,13 +19247,13 @@
         <v>1347</v>
       </c>
       <c r="C377" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="D377" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="E377" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="F377" t="s">
         <v>5</v>
@@ -19268,16 +19268,16 @@
         <v>532</v>
       </c>
       <c r="B378" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D378" t="s">
         <v>1348</v>
       </c>
-      <c r="C378" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D378" t="s">
+      <c r="E378" t="s">
         <v>1349</v>
-      </c>
-      <c r="E378" t="s">
-        <v>1350</v>
       </c>
       <c r="F378" t="s">
         <v>5</v>
@@ -19289,63 +19289,63 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B379" t="s">
         <v>1351</v>
       </c>
       <c r="C379" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="D379" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="E379" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="F379" t="s">
         <v>5</v>
       </c>
       <c r="G379" t="s">
-        <v>1352</v>
-      </c>
-      <c r="H379" s="2">
-        <v>45377</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H379" s="2"/>
     </row>
     <row r="380" spans="1:8">
       <c r="A380" t="s">
-        <v>1353</v>
+        <v>536</v>
       </c>
       <c r="B380" t="s">
         <v>1354</v>
       </c>
       <c r="C380" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="D380" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E380" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F380" t="s">
+        <v>5</v>
+      </c>
+      <c r="G380" t="s">
         <v>1355</v>
       </c>
-      <c r="E380" t="s">
-        <v>1356</v>
-      </c>
-      <c r="F380" t="s">
-        <v>5</v>
-      </c>
-      <c r="G380" t="s">
-        <v>2</v>
-      </c>
-      <c r="H380" s="2"/>
+      <c r="H380" s="2">
+        <v>45377</v>
+      </c>
     </row>
     <row r="381" spans="1:8">
       <c r="A381" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B381" t="s">
         <v>1357</v>
       </c>
       <c r="C381" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="D381" t="s">
         <v>1358</v>
@@ -19363,69 +19363,69 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B382" t="s">
         <v>1360</v>
       </c>
       <c r="C382" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="D382" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="E382" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="F382" t="s">
         <v>5</v>
       </c>
       <c r="G382" t="s">
-        <v>1361</v>
-      </c>
-      <c r="H382" s="2">
-        <v>45324</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H382" s="2"/>
     </row>
     <row r="383" spans="1:8">
       <c r="A383" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B383" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E383" t="s">
         <v>1362</v>
       </c>
-      <c r="C383" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D383" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E383" t="s">
+      <c r="F383" t="s">
+        <v>5</v>
+      </c>
+      <c r="G383" t="s">
         <v>1364</v>
       </c>
-      <c r="F383" t="s">
-        <v>5</v>
-      </c>
-      <c r="G383" t="s">
-        <v>2</v>
-      </c>
-      <c r="H383" s="2"/>
+      <c r="H383" s="2">
+        <v>45324</v>
+      </c>
     </row>
     <row r="384" spans="1:8">
       <c r="A384" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B384" t="s">
         <v>1365</v>
       </c>
       <c r="C384" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="D384" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="E384" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="F384" t="s">
         <v>5</v>
@@ -19437,105 +19437,103 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" t="s">
-        <v>532</v>
+        <v>1356</v>
       </c>
       <c r="B385" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D385" t="s">
         <v>1366</v>
       </c>
-      <c r="C385" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D385" t="s">
+      <c r="E385" t="s">
         <v>1367</v>
       </c>
-      <c r="E385" t="s">
-        <v>1368</v>
-      </c>
       <c r="F385" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G385" t="s">
-        <v>1369</v>
-      </c>
-      <c r="H385" s="2">
-        <v>45379</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H385" s="2"/>
     </row>
     <row r="386" spans="1:8">
       <c r="A386" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B386" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D386" t="s">
         <v>1370</v>
       </c>
-      <c r="C386" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D386" t="s">
+      <c r="E386" t="s">
         <v>1371</v>
       </c>
-      <c r="E386" t="s">
+      <c r="F386" t="s">
+        <v>11</v>
+      </c>
+      <c r="G386" t="s">
         <v>1372</v>
       </c>
-      <c r="F386" t="s">
-        <v>5</v>
-      </c>
-      <c r="G386" t="s">
-        <v>1373</v>
-      </c>
       <c r="H386" s="2">
-        <v>45366</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="387" spans="1:8">
       <c r="A387" t="s">
+        <v>527</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D387" t="s">
         <v>1374</v>
       </c>
-      <c r="B387" t="s">
+      <c r="E387" t="s">
         <v>1375</v>
       </c>
-      <c r="C387" t="s">
+      <c r="F387" t="s">
+        <v>5</v>
+      </c>
+      <c r="G387" t="s">
         <v>1376</v>
       </c>
-      <c r="D387" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E387" t="s">
-        <v>1378</v>
-      </c>
-      <c r="F387" t="s">
-        <v>72</v>
-      </c>
-      <c r="G387" t="s">
-        <v>2</v>
-      </c>
-      <c r="H387" s="2"/>
+      <c r="H387" s="2">
+        <v>45366</v>
+      </c>
     </row>
     <row r="388" spans="1:8">
       <c r="A388" t="s">
-        <v>279</v>
+        <v>1377</v>
       </c>
       <c r="B388" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C388" t="s">
         <v>1379</v>
-      </c>
-      <c r="C388" t="s">
-        <v>1376</v>
       </c>
       <c r="D388" t="s">
         <v>1380</v>
       </c>
       <c r="E388" t="s">
-        <v>88</v>
+        <v>1381</v>
       </c>
       <c r="F388" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="G388" t="s">
-        <v>1381</v>
-      </c>
-      <c r="H388" s="2">
-        <v>45379</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H388" s="2"/>
     </row>
     <row r="389" spans="1:8">
       <c r="A389" t="s">
@@ -19545,13 +19543,13 @@
         <v>1382</v>
       </c>
       <c r="C389" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="D389" t="s">
         <v>1383</v>
       </c>
       <c r="E389" t="s">
-        <v>480</v>
+        <v>88</v>
       </c>
       <c r="F389" t="s">
         <v>5</v>
@@ -19565,28 +19563,28 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" t="s">
-        <v>616</v>
+        <v>279</v>
       </c>
       <c r="B390" t="s">
         <v>1385</v>
       </c>
       <c r="C390" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="D390" t="s">
         <v>1386</v>
       </c>
       <c r="E390" t="s">
+        <v>480</v>
+      </c>
+      <c r="F390" t="s">
+        <v>5</v>
+      </c>
+      <c r="G390" t="s">
         <v>1387</v>
       </c>
-      <c r="F390" t="s">
-        <v>72</v>
-      </c>
-      <c r="G390" t="s">
-        <v>1388</v>
-      </c>
       <c r="H390" s="2">
-        <v>45378</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -19594,22 +19592,22 @@
         <v>616</v>
       </c>
       <c r="B391" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D391" t="s">
         <v>1389</v>
       </c>
-      <c r="C391" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D391" t="s">
+      <c r="E391" t="s">
         <v>1390</v>
       </c>
-      <c r="E391" t="s">
+      <c r="F391" t="s">
+        <v>72</v>
+      </c>
+      <c r="G391" t="s">
         <v>1391</v>
-      </c>
-      <c r="F391" t="s">
-        <v>5</v>
-      </c>
-      <c r="G391" t="s">
-        <v>2</v>
       </c>
       <c r="H391" s="2">
         <v>45378</v>
@@ -19617,215 +19615,217 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" t="s">
-        <v>279</v>
+        <v>616</v>
       </c>
       <c r="B392" t="s">
         <v>1392</v>
       </c>
       <c r="C392" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="D392" t="s">
         <v>1393</v>
       </c>
       <c r="E392" t="s">
-        <v>277</v>
+        <v>1394</v>
       </c>
       <c r="F392" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="G392" t="s">
         <v>2</v>
       </c>
-      <c r="H392" s="2"/>
+      <c r="H392" s="2">
+        <v>45378</v>
+      </c>
     </row>
     <row r="393" spans="1:8">
       <c r="A393" t="s">
-        <v>616</v>
+        <v>279</v>
       </c>
       <c r="B393" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C393" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="D393" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="E393" t="s">
-        <v>1396</v>
+        <v>277</v>
       </c>
       <c r="F393" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="G393" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H393" s="2">
-        <v>45378</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H393" s="2"/>
     </row>
     <row r="394" spans="1:8">
       <c r="A394" t="s">
-        <v>492</v>
+        <v>616</v>
       </c>
       <c r="B394" t="s">
         <v>1397</v>
       </c>
       <c r="C394" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D394" t="s">
         <v>1398</v>
       </c>
-      <c r="D394" t="s">
+      <c r="E394" t="s">
         <v>1399</v>
       </c>
-      <c r="E394" t="s">
-        <v>1400</v>
-      </c>
       <c r="F394" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="G394" t="s">
-        <v>1401</v>
+        <v>1068</v>
       </c>
       <c r="H394" s="2">
-        <v>45373</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="395" spans="1:8">
       <c r="A395" t="s">
-        <v>207</v>
+        <v>492</v>
       </c>
       <c r="B395" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D395" t="s">
         <v>1402</v>
       </c>
-      <c r="C395" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D395" t="s">
-        <v>1399</v>
-      </c>
       <c r="E395" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="F395" t="s">
         <v>5</v>
       </c>
       <c r="G395" t="s">
-        <v>2</v>
-      </c>
-      <c r="H395" s="2"/>
+        <v>1404</v>
+      </c>
+      <c r="H395" s="2">
+        <v>45373</v>
+      </c>
     </row>
     <row r="396" spans="1:8">
       <c r="A396" t="s">
         <v>207</v>
       </c>
       <c r="B396" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E396" t="s">
         <v>1403</v>
       </c>
-      <c r="C396" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D396" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E396" t="s">
-        <v>1405</v>
-      </c>
       <c r="F396" t="s">
         <v>5</v>
       </c>
       <c r="G396" t="s">
-        <v>1406</v>
-      </c>
-      <c r="H396" s="2">
-        <v>45309</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H396" s="2"/>
     </row>
     <row r="397" spans="1:8">
       <c r="A397" t="s">
-        <v>492</v>
+        <v>207</v>
       </c>
       <c r="B397" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D397" t="s">
         <v>1407</v>
       </c>
-      <c r="C397" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D397" t="s">
+      <c r="E397" t="s">
         <v>1408</v>
       </c>
-      <c r="E397" t="s">
+      <c r="F397" t="s">
+        <v>5</v>
+      </c>
+      <c r="G397" t="s">
         <v>1409</v>
       </c>
-      <c r="F397" t="s">
-        <v>5</v>
-      </c>
-      <c r="G397" t="s">
-        <v>1410</v>
-      </c>
       <c r="H397" s="2">
-        <v>45376</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="398" spans="1:8">
       <c r="A398" t="s">
-        <v>229</v>
+        <v>492</v>
       </c>
       <c r="B398" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D398" t="s">
         <v>1411</v>
       </c>
-      <c r="C398" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D398" t="s">
+      <c r="E398" t="s">
         <v>1412</v>
       </c>
-      <c r="E398" t="s">
+      <c r="F398" t="s">
+        <v>5</v>
+      </c>
+      <c r="G398" t="s">
         <v>1413</v>
       </c>
-      <c r="F398" t="s">
-        <v>47</v>
-      </c>
-      <c r="G398" t="s">
-        <v>1414</v>
-      </c>
       <c r="H398" s="2">
-        <v>45372</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="399" spans="1:8">
       <c r="A399" t="s">
-        <v>492</v>
+        <v>229</v>
       </c>
       <c r="B399" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D399" t="s">
         <v>1415</v>
       </c>
-      <c r="C399" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D399" t="s">
+      <c r="E399" t="s">
         <v>1416</v>
       </c>
-      <c r="E399" t="s">
+      <c r="F399" t="s">
+        <v>47</v>
+      </c>
+      <c r="G399" t="s">
         <v>1417</v>
       </c>
-      <c r="F399" t="s">
-        <v>5</v>
-      </c>
-      <c r="G399" t="s">
-        <v>2</v>
-      </c>
-      <c r="H399" s="2"/>
+      <c r="H399" s="2">
+        <v>45372</v>
+      </c>
     </row>
     <row r="400" spans="1:8">
       <c r="A400" t="s">
-        <v>229</v>
+        <v>492</v>
       </c>
       <c r="B400" t="s">
         <v>1418</v>
       </c>
       <c r="C400" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="D400" t="s">
         <v>1419</v>
@@ -19837,27 +19837,25 @@
         <v>5</v>
       </c>
       <c r="G400" t="s">
-        <v>1421</v>
-      </c>
-      <c r="H400" s="2">
-        <v>45365</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H400" s="2"/>
     </row>
     <row r="401" spans="1:8">
       <c r="A401" t="s">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="B401" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D401" t="s">
         <v>1422</v>
       </c>
-      <c r="C401" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D401" t="s">
+      <c r="E401" t="s">
         <v>1423</v>
-      </c>
-      <c r="E401" t="s">
-        <v>262</v>
       </c>
       <c r="F401" t="s">
         <v>5</v>
@@ -19866,7 +19864,7 @@
         <v>1424</v>
       </c>
       <c r="H401" s="2">
-        <v>45379</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -19877,21 +19875,23 @@
         <v>1425</v>
       </c>
       <c r="C402" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="D402" t="s">
         <v>1426</v>
       </c>
       <c r="E402" t="s">
+        <v>262</v>
+      </c>
+      <c r="F402" t="s">
+        <v>5</v>
+      </c>
+      <c r="G402" t="s">
         <v>1427</v>
       </c>
-      <c r="F402" t="s">
-        <v>5</v>
-      </c>
-      <c r="G402" t="s">
-        <v>2</v>
-      </c>
-      <c r="H402" s="2"/>
+      <c r="H402" s="2">
+        <v>45379</v>
+      </c>
     </row>
     <row r="403" spans="1:8">
       <c r="A403" t="s">
@@ -19901,13 +19901,13 @@
         <v>1428</v>
       </c>
       <c r="C403" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="D403" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="E403" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="F403" t="s">
         <v>5</v>
@@ -19919,80 +19919,78 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" t="s">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="B404" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D404" t="s">
         <v>1429</v>
       </c>
-      <c r="C404" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D404" t="s">
+      <c r="E404" t="s">
         <v>1430</v>
       </c>
-      <c r="E404" t="s">
-        <v>1431</v>
-      </c>
       <c r="F404" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="G404" t="s">
-        <v>1432</v>
-      </c>
-      <c r="H404" s="2">
-        <v>45372</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H404" s="2"/>
     </row>
     <row r="405" spans="1:8">
       <c r="A405" t="s">
-        <v>991</v>
+        <v>492</v>
       </c>
       <c r="B405" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D405" t="s">
         <v>1433</v>
       </c>
-      <c r="C405" t="s">
+      <c r="E405" t="s">
         <v>1434</v>
       </c>
-      <c r="D405" t="s">
+      <c r="F405" t="s">
+        <v>47</v>
+      </c>
+      <c r="G405" t="s">
         <v>1435</v>
       </c>
-      <c r="E405" t="s">
-        <v>1436</v>
-      </c>
-      <c r="F405" t="s">
-        <v>72</v>
-      </c>
-      <c r="G405" t="s">
-        <v>1437</v>
-      </c>
       <c r="H405" s="2">
-        <v>45344</v>
+        <v>45372</v>
       </c>
     </row>
     <row r="406" spans="1:8">
       <c r="A406" t="s">
-        <v>1204</v>
+        <v>991</v>
       </c>
       <c r="B406" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D406" t="s">
         <v>1438</v>
       </c>
-      <c r="C406" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D406" t="s">
+      <c r="E406" t="s">
         <v>1439</v>
-      </c>
-      <c r="E406" t="s">
-        <v>1440</v>
       </c>
       <c r="F406" t="s">
         <v>72</v>
       </c>
       <c r="G406" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H406" s="2">
-        <v>45366</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -20000,22 +19998,22 @@
         <v>1204</v>
       </c>
       <c r="B407" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D407" t="s">
         <v>1442</v>
       </c>
-      <c r="C407" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D407" t="s">
-        <v>1439</v>
-      </c>
       <c r="E407" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="F407" t="s">
         <v>72</v>
       </c>
       <c r="G407" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="H407" s="2">
         <v>45366</v>
@@ -20023,63 +20021,65 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" t="s">
-        <v>133</v>
+        <v>1204</v>
       </c>
       <c r="B408" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C408" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
       <c r="D408" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F408" t="s">
+        <v>72</v>
+      </c>
+      <c r="G408" t="s">
         <v>1446</v>
       </c>
-      <c r="E408" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F408" t="s">
-        <v>47</v>
-      </c>
-      <c r="G408" t="s">
-        <v>1448</v>
-      </c>
       <c r="H408" s="2">
-        <v>45295</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="409" spans="1:8">
       <c r="A409" t="s">
-        <v>984</v>
+        <v>133</v>
       </c>
       <c r="B409" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D409" t="s">
         <v>1449</v>
       </c>
-      <c r="C409" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D409" t="s">
+      <c r="E409" t="s">
         <v>1450</v>
       </c>
-      <c r="E409" t="s">
+      <c r="F409" t="s">
+        <v>47</v>
+      </c>
+      <c r="G409" t="s">
         <v>1451</v>
       </c>
-      <c r="F409" t="s">
-        <v>5</v>
-      </c>
-      <c r="G409" t="s">
-        <v>2</v>
-      </c>
-      <c r="H409" s="2"/>
+      <c r="H409" s="2">
+        <v>45295</v>
+      </c>
     </row>
     <row r="410" spans="1:8">
       <c r="A410" t="s">
-        <v>223</v>
+        <v>984</v>
       </c>
       <c r="B410" t="s">
         <v>1452</v>
       </c>
       <c r="C410" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="D410" t="s">
         <v>1453</v>
@@ -20091,36 +20091,34 @@
         <v>5</v>
       </c>
       <c r="G410" t="s">
-        <v>1455</v>
-      </c>
-      <c r="H410" s="2">
-        <v>45366</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H410" s="2"/>
     </row>
     <row r="411" spans="1:8">
       <c r="A411" t="s">
-        <v>984</v>
+        <v>223</v>
       </c>
       <c r="B411" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D411" t="s">
         <v>1456</v>
       </c>
-      <c r="C411" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D411" t="s">
+      <c r="E411" t="s">
         <v>1457</v>
       </c>
-      <c r="E411" t="s">
+      <c r="F411" t="s">
+        <v>5</v>
+      </c>
+      <c r="G411" t="s">
         <v>1458</v>
       </c>
-      <c r="F411" t="s">
-        <v>47</v>
-      </c>
-      <c r="G411" t="s">
-        <v>1459</v>
-      </c>
       <c r="H411" s="2">
-        <v>45378</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -20128,24 +20126,26 @@
         <v>984</v>
       </c>
       <c r="B412" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D412" t="s">
         <v>1460</v>
       </c>
-      <c r="C412" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D412" t="s">
+      <c r="E412" t="s">
         <v>1461</v>
       </c>
-      <c r="E412" t="s">
+      <c r="F412" t="s">
+        <v>47</v>
+      </c>
+      <c r="G412" t="s">
         <v>1462</v>
       </c>
-      <c r="F412" t="s">
-        <v>5</v>
-      </c>
-      <c r="G412" t="s">
-        <v>2</v>
-      </c>
-      <c r="H412" s="2"/>
+      <c r="H412" s="2">
+        <v>45378</v>
+      </c>
     </row>
     <row r="413" spans="1:8">
       <c r="A413" t="s">
@@ -20155,7 +20155,7 @@
         <v>1463</v>
       </c>
       <c r="C413" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="D413" t="s">
         <v>1464</v>
@@ -20164,7 +20164,7 @@
         <v>1465</v>
       </c>
       <c r="F413" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="G413" t="s">
         <v>2</v>
@@ -20179,7 +20179,7 @@
         <v>1466</v>
       </c>
       <c r="C414" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="D414" t="s">
         <v>1467</v>
@@ -20188,39 +20188,37 @@
         <v>1468</v>
       </c>
       <c r="F414" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="G414" t="s">
-        <v>1469</v>
-      </c>
-      <c r="H414" s="2">
-        <v>45370</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H414" s="2"/>
     </row>
     <row r="415" spans="1:8">
       <c r="A415" t="s">
         <v>984</v>
       </c>
       <c r="B415" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D415" t="s">
         <v>1470</v>
       </c>
-      <c r="C415" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D415" t="s">
+      <c r="E415" t="s">
         <v>1471</v>
       </c>
-      <c r="E415" t="s">
+      <c r="F415" t="s">
+        <v>5</v>
+      </c>
+      <c r="G415" t="s">
         <v>1472</v>
       </c>
-      <c r="F415" t="s">
-        <v>11</v>
-      </c>
-      <c r="G415" t="s">
-        <v>1473</v>
-      </c>
       <c r="H415" s="2">
-        <v>45359</v>
+        <v>45370</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -20228,25 +20226,25 @@
         <v>984</v>
       </c>
       <c r="B416" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D416" t="s">
         <v>1474</v>
       </c>
-      <c r="C416" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D416" t="s">
+      <c r="E416" t="s">
         <v>1475</v>
       </c>
-      <c r="E416" t="s">
+      <c r="F416" t="s">
+        <v>11</v>
+      </c>
+      <c r="G416" t="s">
         <v>1476</v>
       </c>
-      <c r="F416" t="s">
-        <v>47</v>
-      </c>
-      <c r="G416" t="s">
-        <v>1477</v>
-      </c>
       <c r="H416" s="2">
-        <v>45378</v>
+        <v>45359</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -20254,24 +20252,26 @@
         <v>984</v>
       </c>
       <c r="B417" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D417" t="s">
         <v>1478</v>
       </c>
-      <c r="C417" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D417" t="s">
+      <c r="E417" t="s">
         <v>1479</v>
       </c>
-      <c r="E417" t="s">
+      <c r="F417" t="s">
+        <v>47</v>
+      </c>
+      <c r="G417" t="s">
         <v>1480</v>
       </c>
-      <c r="F417" t="s">
-        <v>5</v>
-      </c>
-      <c r="G417" t="s">
-        <v>2</v>
-      </c>
-      <c r="H417" s="2"/>
+      <c r="H417" s="2">
+        <v>45378</v>
+      </c>
     </row>
     <row r="418" spans="1:8">
       <c r="A418" t="s">
@@ -20281,7 +20281,7 @@
         <v>1481</v>
       </c>
       <c r="C418" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="D418" t="s">
         <v>1482</v>
@@ -20290,7 +20290,7 @@
         <v>1483</v>
       </c>
       <c r="F418" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="G418" t="s">
         <v>2</v>
@@ -20305,16 +20305,16 @@
         <v>1484</v>
       </c>
       <c r="C419" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="D419" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="E419" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="F419" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="G419" t="s">
         <v>2</v>
@@ -20323,22 +20323,22 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" t="s">
+        <v>984</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D420" t="s">
         <v>1485</v>
       </c>
-      <c r="B420" t="s">
+      <c r="E420" t="s">
         <v>1486</v>
       </c>
-      <c r="C420" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D420" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E420" t="s">
-        <v>1489</v>
-      </c>
       <c r="F420" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="G420" t="s">
         <v>2</v>
@@ -20347,13 +20347,13 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" t="s">
-        <v>207</v>
+        <v>1488</v>
       </c>
       <c r="B421" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C421" t="s">
         <v>1490</v>
-      </c>
-      <c r="C421" t="s">
-        <v>1487</v>
       </c>
       <c r="D421" t="s">
         <v>1491</v>
@@ -20362,36 +20362,34 @@
         <v>1492</v>
       </c>
       <c r="F421" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="G421" t="s">
-        <v>1493</v>
-      </c>
-      <c r="H421" s="2">
-        <v>45378</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H421" s="2"/>
     </row>
     <row r="422" spans="1:8">
       <c r="A422" t="s">
         <v>207</v>
       </c>
       <c r="B422" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D422" t="s">
         <v>1494</v>
       </c>
-      <c r="C422" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D422" t="s">
+      <c r="E422" t="s">
         <v>1495</v>
-      </c>
-      <c r="E422" t="s">
-        <v>1496</v>
       </c>
       <c r="F422" t="s">
         <v>72</v>
       </c>
       <c r="G422" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H422" s="2">
         <v>45378</v>
@@ -20399,101 +20397,101 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" t="s">
-        <v>1485</v>
+        <v>207</v>
       </c>
       <c r="B423" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D423" t="s">
         <v>1498</v>
       </c>
-      <c r="C423" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D423" t="s">
+      <c r="E423" t="s">
         <v>1499</v>
       </c>
-      <c r="E423" t="s">
+      <c r="F423" t="s">
+        <v>72</v>
+      </c>
+      <c r="G423" t="s">
         <v>1500</v>
       </c>
-      <c r="F423" t="s">
-        <v>5</v>
-      </c>
-      <c r="G423" t="s">
-        <v>1501</v>
-      </c>
       <c r="H423" s="2">
-        <v>45372</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="424" spans="1:8">
       <c r="A424" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D424" t="s">
         <v>1502</v>
       </c>
-      <c r="B424" t="s">
+      <c r="E424" t="s">
         <v>1503</v>
       </c>
-      <c r="C424" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D424" t="s">
+      <c r="F424" t="s">
+        <v>5</v>
+      </c>
+      <c r="G424" t="s">
         <v>1504</v>
       </c>
-      <c r="E424" t="s">
-        <v>1505</v>
-      </c>
-      <c r="F424" t="s">
-        <v>5</v>
-      </c>
-      <c r="G424" t="s">
-        <v>2</v>
-      </c>
-      <c r="H424" s="2"/>
+      <c r="H424" s="2">
+        <v>45372</v>
+      </c>
     </row>
     <row r="425" spans="1:8">
       <c r="A425" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B425" t="s">
         <v>1506</v>
       </c>
-      <c r="B425" t="s">
+      <c r="C425" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D425" t="s">
         <v>1507</v>
       </c>
-      <c r="C425" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D425" t="s">
+      <c r="E425" t="s">
         <v>1508</v>
       </c>
-      <c r="E425" t="s">
-        <v>1509</v>
-      </c>
       <c r="F425" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G425" t="s">
-        <v>1510</v>
-      </c>
-      <c r="H425" s="2">
-        <v>45334</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H425" s="2"/>
     </row>
     <row r="426" spans="1:8">
       <c r="A426" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B426" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D426" t="s">
         <v>1511</v>
       </c>
-      <c r="C426" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D426" t="s">
+      <c r="E426" t="s">
         <v>1512</v>
-      </c>
-      <c r="E426" t="s">
-        <v>1513</v>
       </c>
       <c r="F426" t="s">
         <v>11</v>
       </c>
       <c r="G426" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H426" s="2">
         <v>45334</v>
@@ -20501,101 +20499,101 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B427" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D427" t="s">
         <v>1515</v>
       </c>
-      <c r="C427" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D427" t="s">
+      <c r="E427" t="s">
         <v>1516</v>
-      </c>
-      <c r="E427" t="s">
-        <v>1517</v>
       </c>
       <c r="F427" t="s">
         <v>11</v>
       </c>
       <c r="G427" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H427" s="2">
-        <v>45379</v>
+        <v>45334</v>
       </c>
     </row>
     <row r="428" spans="1:8">
       <c r="A428" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B428" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D428" t="s">
         <v>1519</v>
       </c>
-      <c r="C428" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D428" t="s">
+      <c r="E428" t="s">
         <v>1520</v>
       </c>
-      <c r="E428" t="s">
+      <c r="F428" t="s">
+        <v>11</v>
+      </c>
+      <c r="G428" t="s">
         <v>1521</v>
       </c>
-      <c r="F428" t="s">
-        <v>5</v>
-      </c>
-      <c r="G428" t="s">
-        <v>2</v>
-      </c>
-      <c r="H428" s="2"/>
+      <c r="H428" s="2">
+        <v>45379</v>
+      </c>
     </row>
     <row r="429" spans="1:8">
       <c r="A429" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B429" t="s">
         <v>1522</v>
       </c>
       <c r="C429" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="D429" t="s">
         <v>1523</v>
       </c>
       <c r="E429" t="s">
-        <v>545</v>
+        <v>1524</v>
       </c>
       <c r="F429" t="s">
         <v>5</v>
       </c>
       <c r="G429" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H429" s="2">
-        <v>45379</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H429" s="2"/>
     </row>
     <row r="430" spans="1:8">
       <c r="A430" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B430" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C430" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="D430" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E430" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F430" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G430" t="s">
-        <v>1526</v>
+        <v>1338</v>
       </c>
       <c r="H430" s="2">
         <v>45379</v>
@@ -20603,25 +20601,25 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B431" t="s">
         <v>1527</v>
       </c>
       <c r="C431" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="D431" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="E431" t="s">
         <v>549</v>
       </c>
       <c r="F431" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G431" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H431" s="2">
         <v>45379</v>
@@ -20629,19 +20627,19 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B432" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C432" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="D432" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="E432" t="s">
-        <v>41</v>
+        <v>549</v>
       </c>
       <c r="F432" t="s">
         <v>5</v>
@@ -20655,22 +20653,22 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B433" t="s">
         <v>1532</v>
       </c>
       <c r="C433" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="D433" t="s">
         <v>1533</v>
       </c>
       <c r="E433" t="s">
-        <v>541</v>
+        <v>41</v>
       </c>
       <c r="F433" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G433" t="s">
         <v>1534</v>
@@ -20681,19 +20679,19 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B434" t="s">
         <v>1535</v>
       </c>
       <c r="C434" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="D434" t="s">
         <v>1536</v>
       </c>
       <c r="E434" t="s">
-        <v>97</v>
+        <v>541</v>
       </c>
       <c r="F434" t="s">
         <v>11</v>
@@ -20707,25 +20705,25 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B435" t="s">
         <v>1538</v>
       </c>
       <c r="C435" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="D435" t="s">
         <v>1539</v>
       </c>
       <c r="E435" t="s">
+        <v>97</v>
+      </c>
+      <c r="F435" t="s">
+        <v>11</v>
+      </c>
+      <c r="G435" t="s">
         <v>1540</v>
-      </c>
-      <c r="F435" t="s">
-        <v>5</v>
-      </c>
-      <c r="G435" t="s">
-        <v>1541</v>
       </c>
       <c r="H435" s="2">
         <v>45379</v>
@@ -20733,25 +20731,25 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B436" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D436" t="s">
         <v>1542</v>
       </c>
-      <c r="C436" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D436" t="s">
-        <v>1539</v>
-      </c>
       <c r="E436" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="F436" t="s">
         <v>5</v>
       </c>
       <c r="G436" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="H436" s="2">
         <v>45379</v>
@@ -20759,25 +20757,25 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B437" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="C437" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="D437" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="E437" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F437" t="s">
+        <v>5</v>
+      </c>
+      <c r="G437" t="s">
         <v>1546</v>
-      </c>
-      <c r="F437" t="s">
-        <v>5</v>
-      </c>
-      <c r="G437" t="s">
-        <v>1541</v>
       </c>
       <c r="H437" s="2">
         <v>45379</v>
@@ -20785,13 +20783,13 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B438" t="s">
         <v>1547</v>
       </c>
       <c r="C438" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="D438" t="s">
         <v>1548</v>
@@ -20803,7 +20801,7 @@
         <v>5</v>
       </c>
       <c r="G438" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="H438" s="2">
         <v>45379</v>
@@ -20811,25 +20809,25 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B439" t="s">
         <v>1550</v>
       </c>
       <c r="C439" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="D439" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="E439" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="F439" t="s">
         <v>5</v>
       </c>
       <c r="G439" t="s">
-        <v>1551</v>
+        <v>1544</v>
       </c>
       <c r="H439" s="2">
         <v>45379</v>
@@ -20837,39 +20835,39 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" t="s">
-        <v>662</v>
+        <v>1509</v>
       </c>
       <c r="B440" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E440" t="s">
         <v>1552</v>
       </c>
-      <c r="C440" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D440" t="s">
+      <c r="F440" t="s">
+        <v>5</v>
+      </c>
+      <c r="G440" t="s">
         <v>1554</v>
       </c>
-      <c r="E440" t="s">
-        <v>1555</v>
-      </c>
-      <c r="F440" t="s">
-        <v>47</v>
-      </c>
-      <c r="G440" t="s">
-        <v>714</v>
-      </c>
       <c r="H440" s="2">
-        <v>45366</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="441" spans="1:8">
       <c r="A441" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="B441" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C441" t="s">
         <v>1556</v>
-      </c>
-      <c r="C441" t="s">
-        <v>1553</v>
       </c>
       <c r="D441" t="s">
         <v>1557</v>
@@ -20878,13 +20876,13 @@
         <v>1558</v>
       </c>
       <c r="F441" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="G441" t="s">
-        <v>1559</v>
+        <v>714</v>
       </c>
       <c r="H441" s="2">
-        <v>45358</v>
+        <v>45366</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -20892,60 +20890,62 @@
         <v>671</v>
       </c>
       <c r="B442" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D442" t="s">
         <v>1560</v>
       </c>
-      <c r="C442" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D442" t="s">
-        <v>1557</v>
-      </c>
       <c r="E442" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="F442" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="G442" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H442" s="2">
-        <v>45352</v>
+        <v>45358</v>
       </c>
     </row>
     <row r="443" spans="1:8">
       <c r="A443" t="s">
-        <v>1261</v>
+        <v>671</v>
       </c>
       <c r="B443" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="C443" t="s">
-        <v>1563</v>
+        <v>1556</v>
       </c>
       <c r="D443" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E443" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F443" t="s">
+        <v>72</v>
+      </c>
+      <c r="G443" t="s">
         <v>1564</v>
       </c>
-      <c r="E443" t="s">
-        <v>1565</v>
-      </c>
-      <c r="F443" t="s">
-        <v>5</v>
-      </c>
-      <c r="G443" t="s">
-        <v>2</v>
-      </c>
-      <c r="H443" s="2"/>
+      <c r="H443" s="2">
+        <v>45352</v>
+      </c>
     </row>
     <row r="444" spans="1:8">
       <c r="A444" t="s">
         <v>1261</v>
       </c>
       <c r="B444" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C444" t="s">
         <v>1566</v>
-      </c>
-      <c r="C444" t="s">
-        <v>1563</v>
       </c>
       <c r="D444" t="s">
         <v>1567</v>
@@ -20957,11 +20957,9 @@
         <v>5</v>
       </c>
       <c r="G444" t="s">
-        <v>1131</v>
-      </c>
-      <c r="H444" s="2">
-        <v>45378</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H444" s="2"/>
     </row>
     <row r="445" spans="1:8">
       <c r="A445" t="s">
@@ -20971,7 +20969,7 @@
         <v>1569</v>
       </c>
       <c r="C445" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D445" t="s">
         <v>1570</v>
@@ -20980,100 +20978,102 @@
         <v>1571</v>
       </c>
       <c r="F445" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G445" t="s">
-        <v>1572</v>
+        <v>1131</v>
       </c>
       <c r="H445" s="2">
-        <v>45376</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="446" spans="1:8">
       <c r="A446" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D446" t="s">
         <v>1573</v>
       </c>
-      <c r="B446" t="s">
+      <c r="E446" t="s">
         <v>1574</v>
-      </c>
-      <c r="C446" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D446" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E446" t="s">
-        <v>1576</v>
       </c>
       <c r="F446" t="s">
         <v>11</v>
       </c>
       <c r="G446" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="H446" s="2">
-        <v>45204</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="447" spans="1:8">
       <c r="A447" t="s">
-        <v>1317</v>
+        <v>1576</v>
       </c>
       <c r="B447" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D447" t="s">
         <v>1578</v>
       </c>
-      <c r="C447" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D447" t="s">
+      <c r="E447" t="s">
         <v>1579</v>
       </c>
-      <c r="E447" t="s">
+      <c r="F447" t="s">
+        <v>11</v>
+      </c>
+      <c r="G447" t="s">
         <v>1580</v>
       </c>
-      <c r="F447" t="s">
-        <v>5</v>
-      </c>
-      <c r="G447" t="s">
-        <v>1581</v>
-      </c>
       <c r="H447" s="2">
-        <v>45377</v>
+        <v>45204</v>
       </c>
     </row>
     <row r="448" spans="1:8">
       <c r="A448" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="B448" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D448" t="s">
         <v>1582</v>
       </c>
-      <c r="C448" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D448" t="s">
+      <c r="E448" t="s">
         <v>1583</v>
       </c>
-      <c r="E448" t="s">
+      <c r="F448" t="s">
+        <v>5</v>
+      </c>
+      <c r="G448" t="s">
         <v>1584</v>
       </c>
-      <c r="F448" t="s">
-        <v>5</v>
-      </c>
-      <c r="G448" t="s">
-        <v>2</v>
-      </c>
-      <c r="H448" s="2"/>
+      <c r="H448" s="2">
+        <v>45377</v>
+      </c>
     </row>
     <row r="449" spans="1:8">
       <c r="A449" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="B449" t="s">
         <v>1585</v>
       </c>
       <c r="C449" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D449" t="s">
         <v>1586</v>
@@ -21091,13 +21091,13 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="B450" t="s">
         <v>1588</v>
       </c>
       <c r="C450" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D450" t="s">
         <v>1589</v>
@@ -21117,13 +21117,13 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="B451" t="s">
         <v>1592</v>
       </c>
       <c r="C451" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D451" t="s">
         <v>1589</v>
@@ -21143,13 +21143,13 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="B452" t="s">
         <v>1594</v>
       </c>
       <c r="C452" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D452" t="s">
         <v>1595</v>
@@ -21169,13 +21169,13 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="B453" t="s">
         <v>1598</v>
       </c>
       <c r="C453" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D453" t="s">
         <v>1599</v>
@@ -21199,7 +21199,7 @@
         <v>1601</v>
       </c>
       <c r="C454" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D454" t="s">
         <v>1602</v>
@@ -21225,7 +21225,7 @@
         <v>1605</v>
       </c>
       <c r="C455" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D455" t="s">
         <v>1606</v>
@@ -21251,7 +21251,7 @@
         <v>1609</v>
       </c>
       <c r="C456" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D456" t="s">
         <v>1610</v>
@@ -21277,7 +21277,7 @@
         <v>1612</v>
       </c>
       <c r="C457" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D457" t="s">
         <v>1613</v>
@@ -21303,7 +21303,7 @@
         <v>1615</v>
       </c>
       <c r="C458" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D458" t="s">
         <v>1616</v>
@@ -21329,7 +21329,7 @@
         <v>1618</v>
       </c>
       <c r="C459" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D459" t="s">
         <v>1616</v>
@@ -21355,7 +21355,7 @@
         <v>1620</v>
       </c>
       <c r="C460" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D460" t="s">
         <v>1621</v>
@@ -21381,7 +21381,7 @@
         <v>1623</v>
       </c>
       <c r="C461" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D461" t="s">
         <v>1621</v>
@@ -21407,7 +21407,7 @@
         <v>1625</v>
       </c>
       <c r="C462" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D462" t="s">
         <v>1626</v>
@@ -21433,7 +21433,7 @@
         <v>1628</v>
       </c>
       <c r="C463" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D463" t="s">
         <v>1629</v>
@@ -21457,7 +21457,7 @@
         <v>1631</v>
       </c>
       <c r="C464" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D464" t="s">
         <v>1629</v>
@@ -21483,7 +21483,7 @@
         <v>1633</v>
       </c>
       <c r="C465" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D465" t="s">
         <v>1162</v>
@@ -21509,7 +21509,7 @@
         <v>1635</v>
       </c>
       <c r="C466" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D466" t="s">
         <v>1636</v>
@@ -21529,13 +21529,13 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="B467" t="s">
         <v>1639</v>
       </c>
       <c r="C467" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D467" t="s">
         <v>1640</v>
@@ -21555,13 +21555,13 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="B468" t="s">
         <v>1643</v>
       </c>
       <c r="C468" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D468" t="s">
         <v>1644</v>
@@ -21587,7 +21587,7 @@
         <v>1646</v>
       </c>
       <c r="C469" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D469" t="s">
         <v>1647</v>
@@ -21613,7 +21613,7 @@
         <v>1650</v>
       </c>
       <c r="C470" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D470" t="s">
         <v>1651</v>
@@ -21639,7 +21639,7 @@
         <v>1654</v>
       </c>
       <c r="C471" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D471" t="s">
         <v>1655</v>
@@ -21665,7 +21665,7 @@
         <v>1657</v>
       </c>
       <c r="C472" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D472" t="s">
         <v>1655</v>
@@ -21691,7 +21691,7 @@
         <v>1659</v>
       </c>
       <c r="C473" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D473" t="s">
         <v>1655</v>
@@ -21717,7 +21717,7 @@
         <v>1660</v>
       </c>
       <c r="C474" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D474" t="s">
         <v>1655</v>
@@ -21743,7 +21743,7 @@
         <v>1661</v>
       </c>
       <c r="C475" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D475" t="s">
         <v>1655</v>
@@ -21769,7 +21769,7 @@
         <v>1663</v>
       </c>
       <c r="C476" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D476" t="s">
         <v>1664</v>
@@ -21793,7 +21793,7 @@
         <v>1665</v>
       </c>
       <c r="C477" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D477" t="s">
         <v>1666</v>
@@ -22543,7 +22543,7 @@
     </row>
     <row r="507" spans="1:8">
       <c r="A507" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B507" t="s">
         <v>1761</v>
@@ -22567,7 +22567,7 @@
     </row>
     <row r="508" spans="1:8">
       <c r="A508" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B508" t="s">
         <v>1764</v>
@@ -22593,7 +22593,7 @@
     </row>
     <row r="509" spans="1:8">
       <c r="A509" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B509" t="s">
         <v>1767</v>
@@ -22619,7 +22619,7 @@
     </row>
     <row r="510" spans="1:8">
       <c r="A510" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B510" t="s">
         <v>1770</v>
@@ -22645,7 +22645,7 @@
     </row>
     <row r="511" spans="1:8">
       <c r="A511" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B511" t="s">
         <v>1773</v>
@@ -22671,7 +22671,7 @@
     </row>
     <row r="512" spans="1:8">
       <c r="A512" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B512" t="s">
         <v>1777</v>
@@ -22749,7 +22749,7 @@
     </row>
     <row r="515" spans="1:8">
       <c r="A515" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B515" t="s">
         <v>1787</v>
@@ -22773,7 +22773,7 @@
     </row>
     <row r="516" spans="1:8">
       <c r="A516" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B516" t="s">
         <v>1790</v>
@@ -22797,7 +22797,7 @@
     </row>
     <row r="517" spans="1:8">
       <c r="A517" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B517" t="s">
         <v>1791</v>
@@ -22821,7 +22821,7 @@
     </row>
     <row r="518" spans="1:8">
       <c r="A518" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B518" t="s">
         <v>1792</v>
@@ -22845,7 +22845,7 @@
     </row>
     <row r="519" spans="1:8">
       <c r="A519" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B519" t="s">
         <v>1793</v>
@@ -22871,7 +22871,7 @@
     </row>
     <row r="520" spans="1:8">
       <c r="A520" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B520" t="s">
         <v>1797</v>
@@ -23019,7 +23019,7 @@
     </row>
     <row r="526" spans="1:8">
       <c r="A526" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B526" t="s">
         <v>1815</v>
@@ -23175,7 +23175,7 @@
     </row>
     <row r="532" spans="1:8">
       <c r="A532" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="B532" t="s">
         <v>1838</v>
@@ -23263,7 +23263,7 @@
         <v>1849</v>
       </c>
       <c r="E535" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="F535" t="s">
         <v>11</v>
@@ -23277,7 +23277,7 @@
     </row>
     <row r="536" spans="1:8">
       <c r="A536" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="B536" t="s">
         <v>1851</v>
@@ -23298,7 +23298,7 @@
         <v>1854</v>
       </c>
       <c r="H536" s="2">
-        <v>45358</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -23329,7 +23329,7 @@
     </row>
     <row r="538" spans="1:8">
       <c r="A538" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="B538" t="s">
         <v>1860</v>
@@ -23849,7 +23849,7 @@
         <v>1930</v>
       </c>
       <c r="E558" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="F558" t="s">
         <v>5</v>
@@ -24601,7 +24601,7 @@
     </row>
     <row r="588" spans="1:8">
       <c r="A588" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="B588" t="s">
         <v>2029</v>
@@ -24625,7 +24625,7 @@
     </row>
     <row r="589" spans="1:8">
       <c r="A589" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="B589" t="s">
         <v>2033</v>
@@ -24727,7 +24727,7 @@
     </row>
     <row r="593" spans="1:8">
       <c r="A593" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B593" t="s">
         <v>2047</v>
@@ -24753,7 +24753,7 @@
     </row>
     <row r="594" spans="1:8">
       <c r="A594" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B594" t="s">
         <v>2051</v>
@@ -26193,7 +26193,7 @@
     </row>
     <row r="651" spans="1:8">
       <c r="A651" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="B651" t="s">
         <v>2219</v>
@@ -26587,7 +26587,7 @@
         <v>5</v>
       </c>
       <c r="G666" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="H666" s="2">
         <v>45377</v>
@@ -26773,7 +26773,7 @@
     </row>
     <row r="674" spans="1:8">
       <c r="A674" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B674" t="s">
         <v>2297</v>
@@ -26799,7 +26799,7 @@
     </row>
     <row r="675" spans="1:8">
       <c r="A675" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B675" t="s">
         <v>2300</v>
@@ -26851,7 +26851,7 @@
     </row>
     <row r="677" spans="1:8">
       <c r="A677" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="B677" t="s">
         <v>2307</v>
@@ -26903,7 +26903,7 @@
     </row>
     <row r="679" spans="1:8">
       <c r="A679" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="B679" t="s">
         <v>2316</v>
@@ -27001,7 +27001,7 @@
     </row>
     <row r="683" spans="1:8">
       <c r="A683" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="B683" t="s">
         <v>2328</v>
@@ -27027,7 +27027,7 @@
     </row>
     <row r="684" spans="1:8">
       <c r="A684" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B684" t="s">
         <v>2330</v>
@@ -27053,7 +27053,7 @@
     </row>
     <row r="685" spans="1:8">
       <c r="A685" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B685" t="s">
         <v>2333</v>
@@ -27079,7 +27079,7 @@
     </row>
     <row r="686" spans="1:8">
       <c r="A686" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B686" t="s">
         <v>2335</v>
@@ -27105,7 +27105,7 @@
     </row>
     <row r="687" spans="1:8">
       <c r="A687" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B687" t="s">
         <v>2337</v>
@@ -27129,7 +27129,7 @@
     </row>
     <row r="688" spans="1:8">
       <c r="A688" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B688" t="s">
         <v>2339</v>
@@ -27155,7 +27155,7 @@
     </row>
     <row r="689" spans="1:8">
       <c r="A689" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B689" t="s">
         <v>2343</v>
@@ -27181,7 +27181,7 @@
     </row>
     <row r="690" spans="1:8">
       <c r="A690" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B690" t="s">
         <v>2347</v>
@@ -27207,7 +27207,7 @@
     </row>
     <row r="691" spans="1:8">
       <c r="A691" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B691" t="s">
         <v>2348</v>
@@ -27285,7 +27285,7 @@
     </row>
     <row r="694" spans="1:8">
       <c r="A694" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="B694" t="s">
         <v>2357</v>
@@ -29407,7 +29407,7 @@
     </row>
     <row r="777" spans="1:8">
       <c r="A777" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B777" t="s">
         <v>2611</v>
@@ -29433,7 +29433,7 @@
     </row>
     <row r="778" spans="1:8">
       <c r="A778" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B778" t="s">
         <v>2616</v>
@@ -29457,7 +29457,7 @@
     </row>
     <row r="779" spans="1:8">
       <c r="A779" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B779" t="s">
         <v>2619</v>
@@ -29481,7 +29481,7 @@
     </row>
     <row r="780" spans="1:8">
       <c r="A780" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B780" t="s">
         <v>2622</v>
@@ -29505,7 +29505,7 @@
     </row>
     <row r="781" spans="1:8">
       <c r="A781" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B781" t="s">
         <v>2625</v>
@@ -29529,7 +29529,7 @@
     </row>
     <row r="782" spans="1:8">
       <c r="A782" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B782" t="s">
         <v>2628</v>
@@ -29553,7 +29553,7 @@
     </row>
     <row r="783" spans="1:8">
       <c r="A783" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B783" t="s">
         <v>2631</v>
@@ -29579,7 +29579,7 @@
     </row>
     <row r="784" spans="1:8">
       <c r="A784" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="B784" t="s">
         <v>2633</v>
@@ -29605,7 +29605,7 @@
     </row>
     <row r="785" spans="1:8">
       <c r="A785" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="B785" t="s">
         <v>2637</v>
@@ -29631,7 +29631,7 @@
     </row>
     <row r="786" spans="1:8">
       <c r="A786" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B786" t="s">
         <v>2639</v>
@@ -29655,7 +29655,7 @@
     </row>
     <row r="787" spans="1:8">
       <c r="A787" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B787" t="s">
         <v>2642</v>
@@ -29681,7 +29681,7 @@
     </row>
     <row r="788" spans="1:8">
       <c r="A788" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B788" t="s">
         <v>2645</v>
@@ -29785,7 +29785,7 @@
     </row>
     <row r="792" spans="1:8">
       <c r="A792" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B792" t="s">
         <v>2660</v>
@@ -29887,7 +29887,7 @@
     </row>
     <row r="796" spans="1:8">
       <c r="A796" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B796" t="s">
         <v>2674</v>
@@ -29983,7 +29983,7 @@
     </row>
     <row r="800" spans="1:8">
       <c r="A800" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="B800" t="s">
         <v>2687</v>
@@ -30009,7 +30009,7 @@
     </row>
     <row r="801" spans="1:8">
       <c r="A801" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="B801" t="s">
         <v>2691</v>
@@ -30033,7 +30033,7 @@
     </row>
     <row r="802" spans="1:8">
       <c r="A802" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="B802" t="s">
         <v>2694</v>
@@ -30057,7 +30057,7 @@
     </row>
     <row r="803" spans="1:8">
       <c r="A803" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="B803" t="s">
         <v>2697</v>
@@ -30135,7 +30135,7 @@
     </row>
     <row r="806" spans="1:8">
       <c r="A806" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="B806" t="s">
         <v>2709</v>
@@ -30161,7 +30161,7 @@
     </row>
     <row r="807" spans="1:8">
       <c r="A807" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="B807" t="s">
         <v>2713</v>
@@ -30187,7 +30187,7 @@
     </row>
     <row r="808" spans="1:8">
       <c r="A808" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="B808" t="s">
         <v>2717</v>
@@ -30213,7 +30213,7 @@
     </row>
     <row r="809" spans="1:8">
       <c r="A809" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="B809" t="s">
         <v>2721</v>
@@ -30237,7 +30237,7 @@
     </row>
     <row r="810" spans="1:8">
       <c r="A810" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="B810" t="s">
         <v>2724</v>
@@ -30325,7 +30325,7 @@
         <v>2736</v>
       </c>
       <c r="E813" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="F813" t="s">
         <v>47</v>
@@ -30645,7 +30645,7 @@
     </row>
     <row r="826" spans="1:8">
       <c r="A826" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B826" t="s">
         <v>2783</v>
@@ -30671,7 +30671,7 @@
     </row>
     <row r="827" spans="1:8">
       <c r="A827" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B827" t="s">
         <v>2787</v>
@@ -30697,7 +30697,7 @@
     </row>
     <row r="828" spans="1:8">
       <c r="A828" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B828" t="s">
         <v>2791</v>
@@ -30723,7 +30723,7 @@
     </row>
     <row r="829" spans="1:8">
       <c r="A829" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="B829" t="s">
         <v>2795</v>
@@ -30749,7 +30749,7 @@
     </row>
     <row r="830" spans="1:8">
       <c r="A830" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B830" t="s">
         <v>2799</v>
@@ -30981,7 +30981,7 @@
     </row>
     <row r="839" spans="1:8">
       <c r="A839" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B839" t="s">
         <v>2830</v>
@@ -31005,7 +31005,7 @@
     </row>
     <row r="840" spans="1:8">
       <c r="A840" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B840" t="s">
         <v>2833</v>
@@ -31503,7 +31503,7 @@
     </row>
     <row r="860" spans="1:8">
       <c r="A860" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B860" t="s">
         <v>2899</v>
@@ -31579,7 +31579,7 @@
     </row>
     <row r="863" spans="1:8">
       <c r="A863" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B863" t="s">
         <v>2908</v>
@@ -31627,7 +31627,7 @@
     </row>
     <row r="865" spans="1:8">
       <c r="A865" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B865" t="s">
         <v>2914</v>
@@ -31653,7 +31653,7 @@
     </row>
     <row r="866" spans="1:8">
       <c r="A866" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B866" t="s">
         <v>2918</v>
@@ -31747,7 +31747,7 @@
         <v>5</v>
       </c>
       <c r="G869" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="H869" s="2">
         <v>45377</v>
@@ -31781,7 +31781,7 @@
     </row>
     <row r="871" spans="1:8">
       <c r="A871" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B871" t="s">
         <v>2936</v>
@@ -31805,7 +31805,7 @@
     </row>
     <row r="872" spans="1:8">
       <c r="A872" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B872" t="s">
         <v>2939</v>
@@ -31831,7 +31831,7 @@
     </row>
     <row r="873" spans="1:8">
       <c r="A873" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B873" t="s">
         <v>2941</v>
@@ -32495,7 +32495,7 @@
         <v>3028</v>
       </c>
       <c r="E899" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="F899" t="s">
         <v>72</v>
@@ -32587,7 +32587,7 @@
     </row>
     <row r="903" spans="1:8">
       <c r="A903" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B903" t="s">
         <v>3039</v>
@@ -32613,7 +32613,7 @@
     </row>
     <row r="904" spans="1:8">
       <c r="A904" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B904" t="s">
         <v>3042</v>
@@ -32637,7 +32637,7 @@
     </row>
     <row r="905" spans="1:8">
       <c r="A905" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B905" t="s">
         <v>3043</v>
@@ -32663,7 +32663,7 @@
     </row>
     <row r="906" spans="1:8">
       <c r="A906" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B906" t="s">
         <v>3045</v>
@@ -32689,7 +32689,7 @@
     </row>
     <row r="907" spans="1:8">
       <c r="A907" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B907" t="s">
         <v>3047</v>
@@ -32715,7 +32715,7 @@
     </row>
     <row r="908" spans="1:8">
       <c r="A908" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B908" t="s">
         <v>3051</v>
@@ -32741,7 +32741,7 @@
     </row>
     <row r="909" spans="1:8">
       <c r="A909" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B909" t="s">
         <v>3054</v>
@@ -32767,7 +32767,7 @@
     </row>
     <row r="910" spans="1:8">
       <c r="A910" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B910" t="s">
         <v>3058</v>
@@ -32793,7 +32793,7 @@
     </row>
     <row r="911" spans="1:8">
       <c r="A911" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B911" t="s">
         <v>3061</v>
@@ -32819,7 +32819,7 @@
     </row>
     <row r="912" spans="1:8">
       <c r="A912" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B912" t="s">
         <v>3064</v>
@@ -32843,7 +32843,7 @@
     </row>
     <row r="913" spans="1:8">
       <c r="A913" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B913" t="s">
         <v>3067</v>
